--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -2,23 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwilli48\Documents\CanvasReport\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwilli48\Documents\CanvasReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility Review" sheetId="2" r:id="rId1"/>
-    <sheet name="Error &amp; Descriptions" sheetId="7" r:id="rId2"/>
-    <sheet name="Checklist" sheetId="8" r:id="rId3"/>
-    <sheet name="DD Menu" sheetId="5" r:id="rId4"/>
+    <sheet name="Charts" sheetId="9" r:id="rId2"/>
+    <sheet name="Error &amp; Descriptions" sheetId="7" r:id="rId3"/>
+    <sheet name="Checklist" sheetId="8" r:id="rId4"/>
+    <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Issue_Severity[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">Issues[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">Issues[Location]</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
+    <definedName name="Checklist">Table2[]</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
     <definedName name="Completion">'DD Menu'!$G$5:$G$9</definedName>
     <definedName name="Course">'Accessibility Review'!$F$2</definedName>
@@ -54,17 +59,67 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x15:slicerCaches>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Issues Location" name="Issues Location" connection="WorksheetConnection_TEST - Accessibility Review Template.xlsx!Issues[Location]"/>
+          <x15:modelTable id="Issues" name="Issues" connection="WorksheetConnection_TEST - Accessibility Review Template.xlsx!Issues"/>
+          <x15:modelTable id="Issue_Severity" name="Issue_Severity" connection="WorksheetConnection_TEST - Accessibility Review Template.xlsx!Issue_Severity"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" name="WorksheetConnection_TEST - Accessibility Review Template.xlsx!Issue_Severity" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Issue_Severity">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="3" name="WorksheetConnection_TEST - Accessibility Review Template.xlsx!Issues" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Issues">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="4" name="WorksheetConnection_TEST - Accessibility Review Template.xlsx!Issues[Location]" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Issues Location" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
   <si>
     <t>ACCESSIBILITY REVIEW FOR:</t>
   </si>
@@ -430,6 +485,15 @@
   </si>
   <si>
     <t>No Alt Attribute</t>
+  </si>
+  <si>
+    <t>Issue Severity</t>
+  </si>
+  <si>
+    <t>Occurance</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -443,67 +507,74 @@
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -511,7 +582,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -519,7 +590,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -527,7 +598,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -535,7 +606,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -543,14 +614,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -558,7 +629,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -566,21 +637,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <scheme val="minor"/>
     </font>
@@ -588,14 +659,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -608,7 +679,7 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -616,7 +687,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -624,14 +695,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -639,7 +710,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -647,7 +718,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -655,20 +726,30 @@
       <i/>
       <sz val="16"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1013,65 +1094,117 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1081,22 +1214,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="22"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1105,35 +1238,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1143,46 +1276,46 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="22" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="22" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1191,56 +1324,56 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="18" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="17" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="17" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1249,25 +1382,40 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1282,61 +1430,92 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="19" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="46">
     <cellStyle name="Bottom Border" xfId="18"/>
+    <cellStyle name="Bottom Border 2" xfId="24"/>
     <cellStyle name="Comma" xfId="5" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Comma [0]" xfId="6" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Comma [0] 2" xfId="26"/>
+    <cellStyle name="Comma 2" xfId="25"/>
     <cellStyle name="Currency" xfId="7" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Currency [0]" xfId="8" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Currency [0] 2" xfId="28"/>
+    <cellStyle name="Currency 2" xfId="27"/>
     <cellStyle name="Date" xfId="16"/>
+    <cellStyle name="Date 2" xfId="29"/>
     <cellStyle name="Fill1" xfId="14"/>
+    <cellStyle name="Fill1 2" xfId="30"/>
     <cellStyle name="Fill2" xfId="15"/>
+    <cellStyle name="Fill2 2" xfId="31"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink 2" xfId="32"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1 2" xfId="33"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 2 2" xfId="34"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 3 2" xfId="35"/>
     <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Heading 4 2" xfId="36"/>
     <cellStyle name="Hours" xfId="12"/>
+    <cellStyle name="Hours 2" xfId="37"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hyperlink 2" xfId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="21"/>
+    <cellStyle name="Normal 2 2" xfId="39"/>
     <cellStyle name="Normal 3" xfId="22"/>
     <cellStyle name="Normal 4" xfId="23"/>
+    <cellStyle name="Normal 4 2" xfId="40"/>
     <cellStyle name="Percent" xfId="9" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Percent 2" xfId="41"/>
     <cellStyle name="Phone" xfId="17"/>
+    <cellStyle name="Phone 2" xfId="42"/>
     <cellStyle name="Title" xfId="10" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="43"/>
     <cellStyle name="Total" xfId="11" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="44"/>
     <cellStyle name="Total Hours" xfId="13"/>
+    <cellStyle name="Total Hours 2" xfId="45"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1386,7 +1565,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <name val="Candara"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1404,7 +1583,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <name val="Candara"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1426,7 +1605,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <name val="Candara"/>
+        <name val="Calibri Light"/>
         <scheme val="major"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1452,7 +1631,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <name val="Candara"/>
+        <name val="Calibri Light"/>
         <scheme val="major"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1471,7 +1650,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <name val="Candara"/>
+        <name val="Calibri Light"/>
         <scheme val="major"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1660,22 +1839,22 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biweekly Time Sheet" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="lastColumn" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
     </tableStyle>
     <tableStyle name="Table Style 1" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium9 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="totalRow" dxfId="25"/>
-      <tableStyleElement type="firstColumn" dxfId="24"/>
-      <tableStyleElement type="lastColumn" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="totalRow" dxfId="26"/>
+      <tableStyleElement type="firstColumn" dxfId="25"/>
+      <tableStyleElement type="lastColumn" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1703,20 +1882,1263 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Issue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Severity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Occurance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="25"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3D17-40F0-A635-3A5E6001C31C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3D17-40F0-A635-3A5E6001C31C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3D17-40F0-A635-3A5E6001C31C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3D17-40F0-A635-3A5E6001C31C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3D17-40F0-A635-3A5E6001C31C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B5D0-45E7-832D-643B10A21939}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3D17-40F0-A635-3A5E6001C31C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3D17-40F0-A635-3A5E6001C31C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3D17-40F0-A635-3A5E6001C31C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$4:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Color</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Keyboard</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ScreenReader</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Media</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Semantics</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Link</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Misc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Table</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5D0-45E7-832D-643B10A21939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>208346</xdr:colOff>
+      <xdr:colOff>189297</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>65477</xdr:colOff>
+      <xdr:colOff>532202</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>26312</xdr:rowOff>
+      <xdr:rowOff>64413</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1725,10 +3147,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12657521" y="352425"/>
-          <a:ext cx="4219581" cy="3198137"/>
-          <a:chOff x="10086056" y="-5671"/>
-          <a:chExt cx="3886227" cy="3692412"/>
+          <a:off x="11581197" y="371475"/>
+          <a:ext cx="4219580" cy="3217188"/>
+          <a:chOff x="10086057" y="-16668"/>
+          <a:chExt cx="3886226" cy="3714407"/>
         </a:xfrm>
         <a:blipFill dpi="0" rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
@@ -1749,23 +3171,23 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="10094833" y="-5671"/>
-            <a:ext cx="3877450" cy="1847512"/>
-            <a:chOff x="9713496" y="331102"/>
-            <a:chExt cx="4225302" cy="1844971"/>
+            <a:off x="10094833" y="-16668"/>
+            <a:ext cx="3877450" cy="3706021"/>
+            <a:chOff x="9713496" y="320120"/>
+            <a:chExt cx="4225302" cy="3700924"/>
           </a:xfrm>
           <a:grpFill/>
         </xdr:grpSpPr>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+          <mc:Choice Requires="sle15">
             <xdr:graphicFrame macro="">
               <xdr:nvGraphicFramePr>
                 <xdr:cNvPr id="3" name="Issue Type"/>
                 <xdr:cNvGraphicFramePr/>
               </xdr:nvGraphicFramePr>
               <xdr:xfrm>
-                <a:off x="11746138" y="350481"/>
-                <a:ext cx="2192660" cy="1825592"/>
+                <a:off x="11746138" y="328517"/>
+                <a:ext cx="2192660" cy="3692527"/>
               </xdr:xfrm>
               <a:graphic>
                 <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
@@ -1774,7 +3196,7 @@
               </a:graphic>
             </xdr:graphicFrame>
           </mc:Choice>
-          <mc:Fallback>
+          <mc:Fallback xmlns="">
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="0" name=""/>
@@ -1784,8 +3206,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="14692356" y="369233"/>
-                  <a:ext cx="2184746" cy="1583392"/>
+                  <a:off x="13616031" y="378758"/>
+                  <a:ext cx="2184746" cy="3202642"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -1813,15 +3235,15 @@
             </xdr:sp>
           </mc:Fallback>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+          <mc:Choice Requires="sle15">
             <xdr:graphicFrame macro="">
               <xdr:nvGraphicFramePr>
                 <xdr:cNvPr id="4" name="Severity"/>
                 <xdr:cNvGraphicFramePr/>
               </xdr:nvGraphicFramePr>
               <xdr:xfrm>
-                <a:off x="9713496" y="331102"/>
+                <a:off x="9713496" y="320120"/>
                 <a:ext cx="1997766" cy="1834765"/>
               </xdr:xfrm>
               <a:graphic>
@@ -1831,7 +3253,7 @@
               </a:graphic>
             </xdr:graphicFrame>
           </mc:Choice>
-          <mc:Fallback>
+          <mc:Fallback xmlns="">
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="0" name=""/>
@@ -1841,7 +3263,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="12667051" y="352425"/>
+                  <a:off x="11590726" y="371475"/>
                   <a:ext cx="1990555" cy="1591348"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -1871,15 +3293,15 @@
           </mc:Fallback>
         </mc:AlternateContent>
       </xdr:grpSp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+        <mc:Choice Requires="sle15">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="8" name="Completion"/>
               <xdr:cNvGraphicFramePr/>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
-              <a:off x="10086056" y="1858634"/>
+              <a:off x="10086057" y="1869632"/>
               <a:ext cx="1834565" cy="1828107"/>
             </xdr:xfrm>
             <a:graphic>
@@ -1889,7 +3311,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -1899,7 +3321,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="12657521" y="1967170"/>
+                <a:off x="11581197" y="2005271"/>
                 <a:ext cx="1991931" cy="1583392"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -1934,15 +3356,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -1953,7 +3375,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12687300" y="9534524"/>
+          <a:off x="11601450" y="9458324"/>
           <a:ext cx="4095750" cy="8486776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2020,15 +3442,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2037,7 +3459,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12668250" y="3733798"/>
+          <a:off x="11582400" y="3657598"/>
           <a:ext cx="4143375" cy="5667377"/>
           <a:chOff x="12668250" y="3733798"/>
           <a:chExt cx="2423774" cy="5667377"/>
@@ -2409,6 +3831,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Issue_Type" sourceName="Issue Type">
   <extLst>
@@ -2448,21 +3905,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B8:J150" dataDxfId="20">
-  <autoFilter ref="B8:J150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B8:J142" dataDxfId="21">
+  <autoFilter ref="B8:J142"/>
   <sortState ref="B9:K29">
     <sortCondition descending="1" ref="J8:J18"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="5" name="Completed?" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" name="Location" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Heading 2"/>
-    <tableColumn id="2" name="Issue Type" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="11" name="Descriptive Errors " dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Heading 2"/>
-    <tableColumn id="3" name="Notes" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="7" name="Severity *(1, 3, 5)" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="8" name="Occurrence *(1, 3, 5)" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="9" name="Detection *(1, 3, 5)" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="RPN*" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="5" name="Completed?" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" name="Location" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Heading 2"/>
+    <tableColumn id="2" name="Issue Type" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="11" name="Descriptive Errors " dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Heading 2"/>
+    <tableColumn id="3" name="Notes" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="7" name="Severity *(1, 3, 5)" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="8" name="Occurrence *(1, 3, 5)" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="9" name="Detection *(1, 3, 5)" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="RPN*" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2471,11 +3928,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Issue_Severity" displayName="Issue_Severity" ref="B3:C13" totalsRowCount="1">
+  <autoFilter ref="B3:C12">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Issue Type" totalsRowLabel="Grand Total"/>
+    <tableColumn id="2" name="Occurance" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF(Issues[Issue Type],B4)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:C14" totalsRowShown="0">
   <autoFilter ref="B2:C14"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Complete?" dataDxfId="1"/>
-    <tableColumn id="2" name="Did you check?" dataDxfId="0"/>
+    <tableColumn id="1" name="Complete?" dataDxfId="2"/>
+    <tableColumn id="2" name="Did you check?" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2522,22 +3995,22 @@
         <a:srgbClr val="B2B2B2"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Candara">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Candara" panose="020E0502030303020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="HGｺﾞｼｯｸM"/>
-        <a:font script="Hang" typeface="HY엽서L"/>
-        <a:font script="Hans" typeface="华文楷体"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Tahoma"/>
-        <a:font script="Hebr" typeface="Miriam"/>
-        <a:font script="Thai" typeface="DilleniaUPC"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
         <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Cans" typeface="Euphemia"/>
@@ -2554,21 +4027,21 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Candara" panose="020E0502030303020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="HGｺﾞｼｯｸM"/>
-        <a:font script="Hang" typeface="HY엽서L"/>
-        <a:font script="Hans" typeface="华文楷体"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Tahoma"/>
-        <a:font script="Hebr" typeface="Miriam"/>
-        <a:font script="Thai" typeface="DilleniaUPC"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -2772,71 +4245,71 @@
     <tabColor rgb="FF315D71"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L150"/>
+  <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="39" style="44" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="B2" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="41"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="2:12" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20"/>
       <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="30"/>
       <c r="H3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="75"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="24"/>
@@ -2847,11 +4320,11 @@
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -2873,17 +4346,17 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
@@ -2915,13 +4388,9 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" s="16"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
@@ -2934,13 +4403,9 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
@@ -2953,13 +4418,9 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
@@ -2972,13 +4433,9 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
@@ -2991,13 +4448,9 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
@@ -3011,13 +4464,9 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
@@ -3031,13 +4480,9 @@
       <c r="L14" s="28"/>
     </row>
     <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
@@ -3051,13 +4496,9 @@
       <c r="L15" s="28"/>
     </row>
     <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
@@ -3071,13 +4512,9 @@
       <c r="L16" s="28"/>
     </row>
     <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
@@ -3091,13 +4528,9 @@
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
@@ -3111,13 +4544,9 @@
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
@@ -3131,13 +4560,9 @@
       <c r="L19" s="28"/>
     </row>
     <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
@@ -3151,13 +4576,9 @@
       <c r="L20" s="28"/>
     </row>
     <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="32"/>
-      <c r="D21" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
@@ -3170,13 +4591,9 @@
       <c r="L21" s="28"/>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="32"/>
-      <c r="D22" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
@@ -3189,13 +4606,9 @@
       <c r="L22" s="28"/>
     </row>
     <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B23" s="16"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
@@ -3208,13 +4621,9 @@
       <c r="L23" s="28"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B24" s="16"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
@@ -3227,13 +4636,9 @@
       <c r="L24" s="28"/>
     </row>
     <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B25" s="16"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
@@ -3246,13 +4651,9 @@
       <c r="L25" s="28"/>
     </row>
     <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
@@ -3265,13 +4666,9 @@
       <c r="L26" s="28"/>
     </row>
     <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B27" s="16"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
@@ -3284,13 +4681,9 @@
       <c r="L27" s="28"/>
     </row>
     <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B28" s="16"/>
       <c r="C28" s="32"/>
-      <c r="D28" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
@@ -3303,13 +4696,9 @@
       <c r="L28" s="28"/>
     </row>
     <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B29" s="16"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
@@ -3321,13 +4710,9 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B30" s="16"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D30" s="25"/>
       <c r="E30" s="58"/>
       <c r="F30" s="60"/>
       <c r="G30" s="27"/>
@@ -3339,13 +4724,9 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B31" s="16"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D31" s="25"/>
       <c r="E31" s="58"/>
       <c r="F31" s="60"/>
       <c r="G31" s="27"/>
@@ -3357,13 +4738,9 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B32" s="16"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D32" s="25"/>
       <c r="E32" s="58"/>
       <c r="F32" s="60"/>
       <c r="G32" s="27"/>
@@ -3375,13 +4752,9 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B33" s="16"/>
       <c r="C33" s="58"/>
-      <c r="D33" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D33" s="25"/>
       <c r="E33" s="58"/>
       <c r="F33" s="60"/>
       <c r="G33" s="27"/>
@@ -3393,13 +4766,9 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B34" s="16"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D34" s="25"/>
       <c r="E34" s="58"/>
       <c r="F34" s="60"/>
       <c r="G34" s="27"/>
@@ -3411,13 +4780,9 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B35" s="16"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D35" s="25"/>
       <c r="E35" s="58"/>
       <c r="F35" s="60"/>
       <c r="G35" s="27"/>
@@ -3429,13 +4794,9 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B36" s="16"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D36" s="25"/>
       <c r="E36" s="58"/>
       <c r="F36" s="60"/>
       <c r="G36" s="27"/>
@@ -3447,13 +4808,9 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B37" s="16"/>
       <c r="C37" s="58"/>
-      <c r="D37" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D37" s="25"/>
       <c r="E37" s="58"/>
       <c r="F37" s="60"/>
       <c r="G37" s="27"/>
@@ -3465,13 +4822,9 @@
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B38" s="16"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D38" s="25"/>
       <c r="E38" s="58"/>
       <c r="F38" s="60"/>
       <c r="G38" s="27"/>
@@ -3483,13 +4836,9 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B39" s="16"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D39" s="25"/>
       <c r="E39" s="58"/>
       <c r="F39" s="60"/>
       <c r="G39" s="27"/>
@@ -3501,13 +4850,9 @@
       </c>
     </row>
     <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B40" s="16"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D40" s="25"/>
       <c r="E40" s="58"/>
       <c r="F40" s="60"/>
       <c r="G40" s="27"/>
@@ -3519,13 +4864,9 @@
       </c>
     </row>
     <row r="41" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B41" s="16"/>
       <c r="C41" s="58"/>
-      <c r="D41" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D41" s="25"/>
       <c r="E41" s="58"/>
       <c r="F41" s="60"/>
       <c r="G41" s="27"/>
@@ -3537,13 +4878,9 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B42" s="16"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D42" s="25"/>
       <c r="E42" s="58"/>
       <c r="F42" s="60"/>
       <c r="G42" s="27"/>
@@ -3555,13 +4892,9 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B43" s="16"/>
       <c r="C43" s="58"/>
-      <c r="D43" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D43" s="25"/>
       <c r="E43" s="58"/>
       <c r="F43" s="60"/>
       <c r="G43" s="27"/>
@@ -3573,13 +4906,9 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B44" s="16"/>
       <c r="C44" s="58"/>
-      <c r="D44" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D44" s="25"/>
       <c r="E44" s="58"/>
       <c r="F44" s="60"/>
       <c r="G44" s="27"/>
@@ -3591,13 +4920,9 @@
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B45" s="16"/>
       <c r="C45" s="58"/>
-      <c r="D45" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D45" s="25"/>
       <c r="E45" s="58"/>
       <c r="F45" s="60"/>
       <c r="G45" s="27"/>
@@ -3609,13 +4934,9 @@
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B46" s="16"/>
       <c r="C46" s="58"/>
-      <c r="D46" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D46" s="25"/>
       <c r="E46" s="58"/>
       <c r="F46" s="61"/>
       <c r="G46" s="27"/>
@@ -3627,13 +4948,9 @@
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B47" s="16"/>
       <c r="C47" s="58"/>
-      <c r="D47" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D47" s="25"/>
       <c r="E47" s="58"/>
       <c r="F47" s="61"/>
       <c r="G47" s="27"/>
@@ -3645,13 +4962,9 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B48" s="16"/>
       <c r="C48" s="58"/>
-      <c r="D48" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D48" s="25"/>
       <c r="E48" s="58"/>
       <c r="F48" s="61"/>
       <c r="G48" s="27"/>
@@ -3663,13 +4976,9 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B49" s="16"/>
       <c r="C49" s="58"/>
-      <c r="D49" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D49" s="25"/>
       <c r="E49" s="58"/>
       <c r="F49" s="61"/>
       <c r="G49" s="27"/>
@@ -3681,13 +4990,9 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B50" s="16"/>
       <c r="C50" s="58"/>
-      <c r="D50" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D50" s="25"/>
       <c r="E50" s="58"/>
       <c r="F50" s="61"/>
       <c r="G50" s="27"/>
@@ -3699,13 +5004,9 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B51" s="16"/>
       <c r="C51" s="58"/>
-      <c r="D51" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D51" s="25"/>
       <c r="E51" s="58"/>
       <c r="F51" s="61"/>
       <c r="G51" s="27"/>
@@ -3717,13 +5018,9 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B52" s="16"/>
       <c r="C52" s="58"/>
-      <c r="D52" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D52" s="25"/>
       <c r="E52" s="58"/>
       <c r="F52" s="61"/>
       <c r="G52" s="27"/>
@@ -3735,13 +5032,9 @@
       </c>
     </row>
     <row r="53" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B53" s="16"/>
       <c r="C53" s="58"/>
-      <c r="D53" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D53" s="25"/>
       <c r="E53" s="58"/>
       <c r="F53" s="61"/>
       <c r="G53" s="27"/>
@@ -3753,13 +5046,9 @@
       </c>
     </row>
     <row r="54" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B54" s="16"/>
       <c r="C54" s="58"/>
-      <c r="D54" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D54" s="25"/>
       <c r="E54" s="58"/>
       <c r="F54" s="61"/>
       <c r="G54" s="27"/>
@@ -3771,13 +5060,9 @@
       </c>
     </row>
     <row r="55" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B55" s="16"/>
       <c r="C55" s="58"/>
-      <c r="D55" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D55" s="25"/>
       <c r="E55" s="58"/>
       <c r="F55" s="61"/>
       <c r="G55" s="27"/>
@@ -3789,13 +5074,9 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B56" s="16"/>
       <c r="C56" s="58"/>
-      <c r="D56" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D56" s="25"/>
       <c r="E56" s="58"/>
       <c r="F56" s="61"/>
       <c r="G56" s="27"/>
@@ -3807,13 +5088,9 @@
       </c>
     </row>
     <row r="57" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B57" s="16"/>
       <c r="C57" s="58"/>
-      <c r="D57" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D57" s="25"/>
       <c r="E57" s="58"/>
       <c r="F57" s="61"/>
       <c r="G57" s="27"/>
@@ -3825,13 +5102,9 @@
       </c>
     </row>
     <row r="58" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B58" s="16"/>
       <c r="C58" s="58"/>
-      <c r="D58" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D58" s="25"/>
       <c r="E58" s="58"/>
       <c r="F58" s="61"/>
       <c r="G58" s="27"/>
@@ -3843,13 +5116,9 @@
       </c>
     </row>
     <row r="59" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B59" s="16"/>
       <c r="C59" s="58"/>
-      <c r="D59" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D59" s="25"/>
       <c r="E59" s="58"/>
       <c r="F59" s="61"/>
       <c r="G59" s="27"/>
@@ -3861,13 +5130,9 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B60" s="16"/>
       <c r="C60" s="58"/>
-      <c r="D60" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D60" s="25"/>
       <c r="E60" s="58"/>
       <c r="F60" s="61"/>
       <c r="G60" s="27"/>
@@ -3879,13 +5144,9 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B61" s="16"/>
       <c r="C61" s="58"/>
-      <c r="D61" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D61" s="25"/>
       <c r="E61" s="58"/>
       <c r="F61" s="61"/>
       <c r="G61" s="27"/>
@@ -3897,13 +5158,9 @@
       </c>
     </row>
     <row r="62" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B62" s="16"/>
       <c r="C62" s="58"/>
-      <c r="D62" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D62" s="25"/>
       <c r="E62" s="58"/>
       <c r="F62" s="61"/>
       <c r="G62" s="27"/>
@@ -3915,13 +5172,9 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B63" s="16"/>
       <c r="C63" s="58"/>
-      <c r="D63" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D63" s="25"/>
       <c r="E63" s="58"/>
       <c r="F63" s="61"/>
       <c r="G63" s="27"/>
@@ -3933,13 +5186,9 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B64" s="16"/>
       <c r="C64" s="58"/>
-      <c r="D64" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D64" s="25"/>
       <c r="E64" s="58"/>
       <c r="F64" s="61"/>
       <c r="G64" s="27"/>
@@ -3951,13 +5200,9 @@
       </c>
     </row>
     <row r="65" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B65" s="16"/>
       <c r="C65" s="58"/>
-      <c r="D65" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D65" s="25"/>
       <c r="E65" s="58"/>
       <c r="F65" s="61"/>
       <c r="G65" s="27"/>
@@ -3969,13 +5214,9 @@
       </c>
     </row>
     <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B66" s="16"/>
       <c r="C66" s="58"/>
-      <c r="D66" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D66" s="25"/>
       <c r="E66" s="58"/>
       <c r="F66" s="61"/>
       <c r="G66" s="27"/>
@@ -3987,13 +5228,9 @@
       </c>
     </row>
     <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B67" s="16"/>
       <c r="C67" s="58"/>
-      <c r="D67" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D67" s="25"/>
       <c r="E67" s="58"/>
       <c r="F67" s="61"/>
       <c r="G67" s="27"/>
@@ -4005,13 +5242,9 @@
       </c>
     </row>
     <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B68" s="16"/>
       <c r="C68" s="58"/>
-      <c r="D68" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D68" s="25"/>
       <c r="E68" s="58"/>
       <c r="F68" s="61"/>
       <c r="G68" s="27"/>
@@ -4023,13 +5256,9 @@
       </c>
     </row>
     <row r="69" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B69" s="16"/>
       <c r="C69" s="58"/>
-      <c r="D69" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D69" s="25"/>
       <c r="E69" s="58"/>
       <c r="F69" s="61"/>
       <c r="G69" s="27"/>
@@ -4041,13 +5270,9 @@
       </c>
     </row>
     <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B70" s="16"/>
       <c r="C70" s="59"/>
-      <c r="D70" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D70" s="25"/>
       <c r="E70" s="59"/>
       <c r="F70" s="62"/>
       <c r="G70" s="63"/>
@@ -4059,13 +5284,9 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B71" s="16"/>
       <c r="C71" s="59"/>
-      <c r="D71" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D71" s="25"/>
       <c r="E71" s="59"/>
       <c r="F71" s="62"/>
       <c r="G71" s="63"/>
@@ -4077,13 +5298,9 @@
       </c>
     </row>
     <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B72" s="16"/>
       <c r="C72" s="59"/>
-      <c r="D72" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D72" s="25"/>
       <c r="E72" s="59"/>
       <c r="F72" s="62"/>
       <c r="G72" s="63"/>
@@ -4095,13 +5312,9 @@
       </c>
     </row>
     <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B73" s="16"/>
       <c r="C73" s="59"/>
-      <c r="D73" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D73" s="25"/>
       <c r="E73" s="59"/>
       <c r="F73" s="62"/>
       <c r="G73" s="63"/>
@@ -4113,13 +5326,9 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B74" s="16"/>
       <c r="C74" s="59"/>
-      <c r="D74" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D74" s="25"/>
       <c r="E74" s="59"/>
       <c r="F74" s="62"/>
       <c r="G74" s="63"/>
@@ -4131,13 +5340,9 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B75" s="16"/>
       <c r="C75" s="59"/>
-      <c r="D75" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D75" s="25"/>
       <c r="E75" s="59"/>
       <c r="F75" s="62"/>
       <c r="G75" s="63"/>
@@ -4149,13 +5354,9 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B76" s="16"/>
       <c r="C76" s="59"/>
-      <c r="D76" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D76" s="25"/>
       <c r="E76" s="59"/>
       <c r="F76" s="62"/>
       <c r="G76" s="63"/>
@@ -4167,13 +5368,9 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B77" s="16"/>
       <c r="C77" s="59"/>
-      <c r="D77" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D77" s="25"/>
       <c r="E77" s="59"/>
       <c r="F77" s="62"/>
       <c r="G77" s="63"/>
@@ -4185,13 +5382,9 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B78" s="16"/>
       <c r="C78" s="59"/>
-      <c r="D78" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D78" s="25"/>
       <c r="E78" s="59"/>
       <c r="F78" s="62"/>
       <c r="G78" s="63"/>
@@ -4203,13 +5396,9 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B79" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B79" s="16"/>
       <c r="C79" s="59"/>
-      <c r="D79" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D79" s="25"/>
       <c r="E79" s="59"/>
       <c r="F79" s="62"/>
       <c r="G79" s="63"/>
@@ -4221,13 +5410,9 @@
       </c>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B80" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B80" s="16"/>
       <c r="C80" s="59"/>
-      <c r="D80" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D80" s="25"/>
       <c r="E80" s="59"/>
       <c r="F80" s="62"/>
       <c r="G80" s="63"/>
@@ -4239,13 +5424,9 @@
       </c>
     </row>
     <row r="81" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B81" s="16"/>
       <c r="C81" s="59"/>
-      <c r="D81" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D81" s="25"/>
       <c r="E81" s="59"/>
       <c r="F81" s="62"/>
       <c r="G81" s="63"/>
@@ -4257,13 +5438,9 @@
       </c>
     </row>
     <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B82" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B82" s="16"/>
       <c r="C82" s="59"/>
-      <c r="D82" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D82" s="25"/>
       <c r="E82" s="59"/>
       <c r="F82" s="62"/>
       <c r="G82" s="63"/>
@@ -4275,13 +5452,9 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B83" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B83" s="16"/>
       <c r="C83" s="59"/>
-      <c r="D83" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D83" s="25"/>
       <c r="E83" s="59"/>
       <c r="F83" s="62"/>
       <c r="G83" s="63"/>
@@ -4293,13 +5466,9 @@
       </c>
     </row>
     <row r="84" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B84" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B84" s="16"/>
       <c r="C84" s="59"/>
-      <c r="D84" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D84" s="25"/>
       <c r="E84" s="59"/>
       <c r="F84" s="62"/>
       <c r="G84" s="63"/>
@@ -4311,13 +5480,9 @@
       </c>
     </row>
     <row r="85" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B85" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B85" s="16"/>
       <c r="C85" s="59"/>
-      <c r="D85" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D85" s="25"/>
       <c r="E85" s="59"/>
       <c r="F85" s="62"/>
       <c r="G85" s="63"/>
@@ -4329,13 +5494,9 @@
       </c>
     </row>
     <row r="86" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B86" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B86" s="16"/>
       <c r="C86" s="59"/>
-      <c r="D86" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D86" s="25"/>
       <c r="E86" s="59"/>
       <c r="F86" s="62"/>
       <c r="G86" s="63"/>
@@ -4347,13 +5508,9 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B87" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B87" s="16"/>
       <c r="C87" s="59"/>
-      <c r="D87" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D87" s="25"/>
       <c r="E87" s="59"/>
       <c r="F87" s="62"/>
       <c r="G87" s="63"/>
@@ -4365,13 +5522,9 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B88" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B88" s="16"/>
       <c r="C88" s="59"/>
-      <c r="D88" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D88" s="25"/>
       <c r="E88" s="59"/>
       <c r="F88" s="62"/>
       <c r="G88" s="63"/>
@@ -4383,13 +5536,9 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B89" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B89" s="16"/>
       <c r="C89" s="59"/>
-      <c r="D89" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D89" s="25"/>
       <c r="E89" s="59"/>
       <c r="F89" s="62"/>
       <c r="G89" s="63"/>
@@ -4401,13 +5550,9 @@
       </c>
     </row>
     <row r="90" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B90" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B90" s="16"/>
       <c r="C90" s="59"/>
-      <c r="D90" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D90" s="25"/>
       <c r="E90" s="59"/>
       <c r="F90" s="62"/>
       <c r="G90" s="63"/>
@@ -4419,13 +5564,9 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B91" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B91" s="16"/>
       <c r="C91" s="59"/>
-      <c r="D91" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D91" s="25"/>
       <c r="E91" s="59"/>
       <c r="F91" s="62"/>
       <c r="G91" s="63"/>
@@ -4437,13 +5578,9 @@
       </c>
     </row>
     <row r="92" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B92" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B92" s="16"/>
       <c r="C92" s="59"/>
-      <c r="D92" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D92" s="25"/>
       <c r="E92" s="59"/>
       <c r="F92" s="62"/>
       <c r="G92" s="63"/>
@@ -4455,13 +5592,9 @@
       </c>
     </row>
     <row r="93" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B93" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B93" s="16"/>
       <c r="C93" s="59"/>
-      <c r="D93" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D93" s="25"/>
       <c r="E93" s="59"/>
       <c r="F93" s="62"/>
       <c r="G93" s="63"/>
@@ -4473,13 +5606,9 @@
       </c>
     </row>
     <row r="94" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B94" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B94" s="16"/>
       <c r="C94" s="59"/>
-      <c r="D94" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D94" s="25"/>
       <c r="E94" s="59"/>
       <c r="F94" s="62"/>
       <c r="G94" s="63"/>
@@ -4491,13 +5620,9 @@
       </c>
     </row>
     <row r="95" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B95" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B95" s="16"/>
       <c r="C95" s="59"/>
-      <c r="D95" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D95" s="25"/>
       <c r="E95" s="59"/>
       <c r="F95" s="62"/>
       <c r="G95" s="63"/>
@@ -4509,13 +5634,9 @@
       </c>
     </row>
     <row r="96" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B96" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B96" s="16"/>
       <c r="C96" s="59"/>
-      <c r="D96" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D96" s="25"/>
       <c r="E96" s="59"/>
       <c r="F96" s="62"/>
       <c r="G96" s="63"/>
@@ -4527,13 +5648,9 @@
       </c>
     </row>
     <row r="97" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B97" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B97" s="16"/>
       <c r="C97" s="59"/>
-      <c r="D97" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D97" s="25"/>
       <c r="E97" s="59"/>
       <c r="F97" s="62"/>
       <c r="G97" s="63"/>
@@ -4545,13 +5662,9 @@
       </c>
     </row>
     <row r="98" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B98" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B98" s="16"/>
       <c r="C98" s="59"/>
-      <c r="D98" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D98" s="25"/>
       <c r="E98" s="59"/>
       <c r="F98" s="62"/>
       <c r="G98" s="63"/>
@@ -4563,13 +5676,9 @@
       </c>
     </row>
     <row r="99" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B99" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B99" s="16"/>
       <c r="C99" s="59"/>
-      <c r="D99" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D99" s="25"/>
       <c r="E99" s="59"/>
       <c r="F99" s="62"/>
       <c r="G99" s="63"/>
@@ -4581,13 +5690,9 @@
       </c>
     </row>
     <row r="100" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B100" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B100" s="16"/>
       <c r="C100" s="59"/>
-      <c r="D100" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D100" s="25"/>
       <c r="E100" s="59"/>
       <c r="F100" s="62"/>
       <c r="G100" s="63"/>
@@ -4599,13 +5704,9 @@
       </c>
     </row>
     <row r="101" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B101" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B101" s="16"/>
       <c r="C101" s="59"/>
-      <c r="D101" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D101" s="25"/>
       <c r="E101" s="59"/>
       <c r="F101" s="62"/>
       <c r="G101" s="63"/>
@@ -4617,13 +5718,9 @@
       </c>
     </row>
     <row r="102" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B102" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B102" s="16"/>
       <c r="C102" s="59"/>
-      <c r="D102" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D102" s="25"/>
       <c r="E102" s="59"/>
       <c r="F102" s="62"/>
       <c r="G102" s="63"/>
@@ -4635,13 +5732,9 @@
       </c>
     </row>
     <row r="103" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B103" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B103" s="16"/>
       <c r="C103" s="59"/>
-      <c r="D103" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D103" s="25"/>
       <c r="E103" s="59"/>
       <c r="F103" s="62"/>
       <c r="G103" s="63"/>
@@ -4653,13 +5746,9 @@
       </c>
     </row>
     <row r="104" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B104" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B104" s="16"/>
       <c r="C104" s="59"/>
-      <c r="D104" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D104" s="25"/>
       <c r="E104" s="59"/>
       <c r="F104" s="62"/>
       <c r="G104" s="63"/>
@@ -4671,13 +5760,9 @@
       </c>
     </row>
     <row r="105" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B105" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B105" s="16"/>
       <c r="C105" s="59"/>
-      <c r="D105" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D105" s="25"/>
       <c r="E105" s="59"/>
       <c r="F105" s="62"/>
       <c r="G105" s="63"/>
@@ -4689,13 +5774,9 @@
       </c>
     </row>
     <row r="106" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B106" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B106" s="16"/>
       <c r="C106" s="59"/>
-      <c r="D106" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D106" s="25"/>
       <c r="E106" s="59"/>
       <c r="F106" s="62"/>
       <c r="G106" s="63"/>
@@ -4707,13 +5788,9 @@
       </c>
     </row>
     <row r="107" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B107" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B107" s="16"/>
       <c r="C107" s="59"/>
-      <c r="D107" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D107" s="25"/>
       <c r="E107" s="59"/>
       <c r="F107" s="62"/>
       <c r="G107" s="63"/>
@@ -4725,13 +5802,9 @@
       </c>
     </row>
     <row r="108" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B108" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B108" s="16"/>
       <c r="C108" s="59"/>
-      <c r="D108" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D108" s="25"/>
       <c r="E108" s="59"/>
       <c r="F108" s="62"/>
       <c r="G108" s="63"/>
@@ -4743,13 +5816,9 @@
       </c>
     </row>
     <row r="109" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B109" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B109" s="16"/>
       <c r="C109" s="59"/>
-      <c r="D109" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D109" s="25"/>
       <c r="E109" s="59"/>
       <c r="F109" s="62"/>
       <c r="G109" s="63"/>
@@ -4761,13 +5830,9 @@
       </c>
     </row>
     <row r="110" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B110" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B110" s="16"/>
       <c r="C110" s="59"/>
-      <c r="D110" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D110" s="25"/>
       <c r="E110" s="59"/>
       <c r="F110" s="62"/>
       <c r="G110" s="63"/>
@@ -4779,13 +5844,9 @@
       </c>
     </row>
     <row r="111" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B111" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B111" s="16"/>
       <c r="C111" s="59"/>
-      <c r="D111" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D111" s="25"/>
       <c r="E111" s="59"/>
       <c r="F111" s="62"/>
       <c r="G111" s="63"/>
@@ -4797,13 +5858,9 @@
       </c>
     </row>
     <row r="112" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B112" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B112" s="16"/>
       <c r="C112" s="59"/>
-      <c r="D112" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D112" s="25"/>
       <c r="E112" s="59"/>
       <c r="F112" s="62"/>
       <c r="G112" s="63"/>
@@ -4815,13 +5872,9 @@
       </c>
     </row>
     <row r="113" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B113" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B113" s="16"/>
       <c r="C113" s="59"/>
-      <c r="D113" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D113" s="25"/>
       <c r="E113" s="59"/>
       <c r="F113" s="62"/>
       <c r="G113" s="63"/>
@@ -4833,13 +5886,9 @@
       </c>
     </row>
     <row r="114" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B114" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B114" s="16"/>
       <c r="C114" s="59"/>
-      <c r="D114" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D114" s="25"/>
       <c r="E114" s="59"/>
       <c r="F114" s="62"/>
       <c r="G114" s="63"/>
@@ -4851,13 +5900,9 @@
       </c>
     </row>
     <row r="115" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B115" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B115" s="16"/>
       <c r="C115" s="59"/>
-      <c r="D115" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D115" s="25"/>
       <c r="E115" s="59"/>
       <c r="F115" s="62"/>
       <c r="G115" s="63"/>
@@ -4869,13 +5914,9 @@
       </c>
     </row>
     <row r="116" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B116" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B116" s="16"/>
       <c r="C116" s="59"/>
-      <c r="D116" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D116" s="25"/>
       <c r="E116" s="59"/>
       <c r="F116" s="62"/>
       <c r="G116" s="63"/>
@@ -4887,13 +5928,9 @@
       </c>
     </row>
     <row r="117" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B117" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B117" s="16"/>
       <c r="C117" s="59"/>
-      <c r="D117" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D117" s="25"/>
       <c r="E117" s="59"/>
       <c r="F117" s="62"/>
       <c r="G117" s="63"/>
@@ -4905,13 +5942,9 @@
       </c>
     </row>
     <row r="118" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B118" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B118" s="16"/>
       <c r="C118" s="59"/>
-      <c r="D118" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D118" s="25"/>
       <c r="E118" s="59"/>
       <c r="F118" s="62"/>
       <c r="G118" s="63"/>
@@ -4923,13 +5956,9 @@
       </c>
     </row>
     <row r="119" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B119" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B119" s="16"/>
       <c r="C119" s="59"/>
-      <c r="D119" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D119" s="25"/>
       <c r="E119" s="59"/>
       <c r="F119" s="62"/>
       <c r="G119" s="63"/>
@@ -4941,13 +5970,9 @@
       </c>
     </row>
     <row r="120" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B120" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B120" s="16"/>
       <c r="C120" s="59"/>
-      <c r="D120" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D120" s="25"/>
       <c r="E120" s="59"/>
       <c r="F120" s="62"/>
       <c r="G120" s="63"/>
@@ -4959,13 +5984,9 @@
       </c>
     </row>
     <row r="121" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B121" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B121" s="16"/>
       <c r="C121" s="59"/>
-      <c r="D121" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D121" s="25"/>
       <c r="E121" s="59"/>
       <c r="F121" s="62"/>
       <c r="G121" s="63"/>
@@ -4977,13 +5998,9 @@
       </c>
     </row>
     <row r="122" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B122" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B122" s="16"/>
       <c r="C122" s="59"/>
-      <c r="D122" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D122" s="25"/>
       <c r="E122" s="59"/>
       <c r="F122" s="62"/>
       <c r="G122" s="63"/>
@@ -4995,13 +6012,9 @@
       </c>
     </row>
     <row r="123" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B123" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B123" s="16"/>
       <c r="C123" s="59"/>
-      <c r="D123" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D123" s="25"/>
       <c r="E123" s="59"/>
       <c r="F123" s="62"/>
       <c r="G123" s="63"/>
@@ -5013,13 +6026,9 @@
       </c>
     </row>
     <row r="124" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B124" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B124" s="16"/>
       <c r="C124" s="59"/>
-      <c r="D124" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D124" s="25"/>
       <c r="E124" s="59"/>
       <c r="F124" s="62"/>
       <c r="G124" s="63"/>
@@ -5031,13 +6040,9 @@
       </c>
     </row>
     <row r="125" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B125" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B125" s="16"/>
       <c r="C125" s="59"/>
-      <c r="D125" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D125" s="25"/>
       <c r="E125" s="59"/>
       <c r="F125" s="62"/>
       <c r="G125" s="63"/>
@@ -5049,13 +6054,9 @@
       </c>
     </row>
     <row r="126" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B126" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B126" s="16"/>
       <c r="C126" s="59"/>
-      <c r="D126" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D126" s="25"/>
       <c r="E126" s="59"/>
       <c r="F126" s="62"/>
       <c r="G126" s="63"/>
@@ -5067,13 +6068,9 @@
       </c>
     </row>
     <row r="127" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B127" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B127" s="16"/>
       <c r="C127" s="59"/>
-      <c r="D127" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D127" s="25"/>
       <c r="E127" s="59"/>
       <c r="F127" s="62"/>
       <c r="G127" s="63"/>
@@ -5085,13 +6082,9 @@
       </c>
     </row>
     <row r="128" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B128" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B128" s="16"/>
       <c r="C128" s="59"/>
-      <c r="D128" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D128" s="25"/>
       <c r="E128" s="59"/>
       <c r="F128" s="62"/>
       <c r="G128" s="63"/>
@@ -5103,13 +6096,9 @@
       </c>
     </row>
     <row r="129" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B129" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B129" s="16"/>
       <c r="C129" s="59"/>
-      <c r="D129" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D129" s="25"/>
       <c r="E129" s="59"/>
       <c r="F129" s="62"/>
       <c r="G129" s="63"/>
@@ -5121,13 +6110,9 @@
       </c>
     </row>
     <row r="130" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B130" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B130" s="16"/>
       <c r="C130" s="59"/>
-      <c r="D130" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D130" s="25"/>
       <c r="E130" s="59"/>
       <c r="F130" s="62"/>
       <c r="G130" s="63"/>
@@ -5139,13 +6124,9 @@
       </c>
     </row>
     <row r="131" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B131" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B131" s="16"/>
       <c r="C131" s="59"/>
-      <c r="D131" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D131" s="25"/>
       <c r="E131" s="59"/>
       <c r="F131" s="62"/>
       <c r="G131" s="63"/>
@@ -5157,13 +6138,9 @@
       </c>
     </row>
     <row r="132" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B132" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B132" s="16"/>
       <c r="C132" s="59"/>
-      <c r="D132" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D132" s="25"/>
       <c r="E132" s="59"/>
       <c r="F132" s="62"/>
       <c r="G132" s="63"/>
@@ -5175,13 +6152,9 @@
       </c>
     </row>
     <row r="133" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B133" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B133" s="16"/>
       <c r="C133" s="59"/>
-      <c r="D133" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D133" s="25"/>
       <c r="E133" s="59"/>
       <c r="F133" s="62"/>
       <c r="G133" s="63"/>
@@ -5193,13 +6166,9 @@
       </c>
     </row>
     <row r="134" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B134" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B134" s="16"/>
       <c r="C134" s="59"/>
-      <c r="D134" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D134" s="25"/>
       <c r="E134" s="59"/>
       <c r="F134" s="62"/>
       <c r="G134" s="63"/>
@@ -5211,13 +6180,9 @@
       </c>
     </row>
     <row r="135" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B135" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B135" s="16"/>
       <c r="C135" s="59"/>
-      <c r="D135" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D135" s="25"/>
       <c r="E135" s="59"/>
       <c r="F135" s="62"/>
       <c r="G135" s="63"/>
@@ -5229,13 +6194,9 @@
       </c>
     </row>
     <row r="136" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B136" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B136" s="16"/>
       <c r="C136" s="59"/>
-      <c r="D136" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D136" s="25"/>
       <c r="E136" s="59"/>
       <c r="F136" s="62"/>
       <c r="G136" s="63"/>
@@ -5247,13 +6208,9 @@
       </c>
     </row>
     <row r="137" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B137" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B137" s="16"/>
       <c r="C137" s="59"/>
-      <c r="D137" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D137" s="25"/>
       <c r="E137" s="59"/>
       <c r="F137" s="62"/>
       <c r="G137" s="63"/>
@@ -5265,13 +6222,9 @@
       </c>
     </row>
     <row r="138" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B138" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B138" s="16"/>
       <c r="C138" s="59"/>
-      <c r="D138" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D138" s="25"/>
       <c r="E138" s="59"/>
       <c r="F138" s="62"/>
       <c r="G138" s="63"/>
@@ -5283,13 +6236,9 @@
       </c>
     </row>
     <row r="139" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B139" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B139" s="16"/>
       <c r="C139" s="59"/>
-      <c r="D139" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D139" s="25"/>
       <c r="E139" s="59"/>
       <c r="F139" s="62"/>
       <c r="G139" s="63"/>
@@ -5301,13 +6250,9 @@
       </c>
     </row>
     <row r="140" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B140" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B140" s="16"/>
       <c r="C140" s="59"/>
-      <c r="D140" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D140" s="25"/>
       <c r="E140" s="59"/>
       <c r="F140" s="62"/>
       <c r="G140" s="63"/>
@@ -5319,13 +6264,9 @@
       </c>
     </row>
     <row r="141" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B141" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B141" s="16"/>
       <c r="C141" s="59"/>
-      <c r="D141" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D141" s="25"/>
       <c r="E141" s="59"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63"/>
@@ -5337,13 +6278,9 @@
       </c>
     </row>
     <row r="142" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B142" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B142" s="16"/>
       <c r="C142" s="59"/>
-      <c r="D142" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="D142" s="25"/>
       <c r="E142" s="59"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63"/>
@@ -5355,148 +6292,147 @@
       </c>
     </row>
     <row r="143" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B143" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C143" s="59"/>
-      <c r="D143" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E143" s="59"/>
-      <c r="F143" s="62"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="67"/>
       <c r="G143" s="63"/>
       <c r="H143" s="63"/>
       <c r="I143" s="63"/>
-      <c r="J143" s="64">
-        <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
-        <v>0</v>
-      </c>
+      <c r="J143" s="64"/>
     </row>
     <row r="144" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B144" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C144" s="59"/>
-      <c r="D144" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E144" s="59"/>
-      <c r="F144" s="62"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="66"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="66"/>
+      <c r="F144" s="67"/>
       <c r="G144" s="63"/>
       <c r="H144" s="63"/>
       <c r="I144" s="63"/>
-      <c r="J144" s="64">
-        <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
-        <v>0</v>
-      </c>
+      <c r="J144" s="64"/>
     </row>
     <row r="145" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B145" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C145" s="59"/>
-      <c r="D145" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E145" s="59"/>
-      <c r="F145" s="62"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="67"/>
       <c r="G145" s="63"/>
       <c r="H145" s="63"/>
       <c r="I145" s="63"/>
-      <c r="J145" s="64">
-        <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
-        <v>0</v>
-      </c>
+      <c r="J145" s="64"/>
     </row>
     <row r="146" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B146" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C146" s="59"/>
-      <c r="D146" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E146" s="59"/>
-      <c r="F146" s="62"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="66"/>
+      <c r="F146" s="67"/>
       <c r="G146" s="63"/>
       <c r="H146" s="63"/>
       <c r="I146" s="63"/>
-      <c r="J146" s="64">
-        <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
-        <v>0</v>
-      </c>
+      <c r="J146" s="64"/>
     </row>
     <row r="147" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B147" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C147" s="59"/>
-      <c r="D147" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E147" s="59"/>
-      <c r="F147" s="62"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="67"/>
       <c r="G147" s="63"/>
       <c r="H147" s="63"/>
       <c r="I147" s="63"/>
-      <c r="J147" s="64">
-        <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
-        <v>0</v>
-      </c>
+      <c r="J147" s="64"/>
     </row>
     <row r="148" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B148" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C148" s="59"/>
-      <c r="D148" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E148" s="59"/>
-      <c r="F148" s="62"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="66"/>
+      <c r="F148" s="67"/>
       <c r="G148" s="63"/>
       <c r="H148" s="63"/>
       <c r="I148" s="63"/>
-      <c r="J148" s="64">
-        <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
-        <v>0</v>
-      </c>
+      <c r="J148" s="64"/>
     </row>
     <row r="149" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B149" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C149" s="59"/>
-      <c r="D149" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E149" s="59"/>
-      <c r="F149" s="62"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="66"/>
+      <c r="F149" s="67"/>
       <c r="G149" s="63"/>
       <c r="H149" s="63"/>
       <c r="I149" s="63"/>
-      <c r="J149" s="64">
-        <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
-        <v>0</v>
-      </c>
+      <c r="J149" s="64"/>
     </row>
     <row r="150" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B150" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C150" s="59"/>
-      <c r="D150" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E150" s="59"/>
-      <c r="F150" s="62"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="67"/>
       <c r="G150" s="63"/>
       <c r="H150" s="63"/>
       <c r="I150" s="63"/>
-      <c r="J150" s="64">
-        <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
-        <v>0</v>
-      </c>
+      <c r="J150" s="64"/>
+    </row>
+    <row r="151" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="16"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="66"/>
+      <c r="F151" s="67"/>
+      <c r="G151" s="63"/>
+      <c r="H151" s="63"/>
+      <c r="I151" s="63"/>
+      <c r="J151" s="64"/>
+    </row>
+    <row r="152" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="16"/>
+      <c r="C152" s="66"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="67"/>
+      <c r="G152" s="63"/>
+      <c r="H152" s="63"/>
+      <c r="I152" s="63"/>
+      <c r="J152" s="64"/>
+    </row>
+    <row r="153" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="16"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="63"/>
+      <c r="H153" s="63"/>
+      <c r="I153" s="63"/>
+      <c r="J153" s="64"/>
+    </row>
+    <row r="154" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="16"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="67"/>
+      <c r="G154" s="63"/>
+      <c r="H154" s="63"/>
+      <c r="I154" s="63"/>
+      <c r="J154" s="64"/>
+    </row>
+    <row r="155" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="16"/>
+      <c r="C155" s="66"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="66"/>
+      <c r="F155" s="67"/>
+      <c r="G155" s="63"/>
+      <c r="H155" s="63"/>
+      <c r="I155" s="63"/>
+      <c r="J155" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5508,7 +6444,7 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="D5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9:I150">
+  <conditionalFormatting sqref="G9:I142">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -5520,7 +6456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J150">
+  <conditionalFormatting sqref="J9:J142">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5544,16 +6480,16 @@
       <formula1>Reviewers</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please include a Hyperlink to the course you are reviewing, using the name of the course as the title, in this cell._x000a_Insert -&gt; Hyperlink" sqref="D5:F5"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E9:E150">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E9:E142">
       <formula1>INDIRECT($D9)</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Scale Value Change" error="By putting in a different number you will be playing with the system. Are you sure you are doing this for a good reason?" sqref="G9:I29">
       <formula1>ScaleValues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B150">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B142">
       <formula1>Completion</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D150">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D142">
       <formula1>IssueTypes</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the date this course was last revised. If you don't know check the last saved date one of the HTML documents in the Q:// drive" sqref="E6"/>
@@ -5584,152 +6520,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="B1:O29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="83"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF(Issues[Issue Type],B4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(Issues[Issue Type],B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(Issues[Issue Type],B6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF(Issues[Issue Type],B7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF(Issues[Issue Type],B8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(Issues[Issue Type],B9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(Issues[Issue Type],B10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(Issues[Issue Type],B11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF(Issues[Issue Type],B12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13">
+        <f>SUBTOTAL(109,Issue_Severity[Occurance])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="69"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="69"/>
+      <c r="O29" t="str">
+        <f>IFERROR(INDEX(Issues[Location],MATCH(0,COUNTIF(#REF!,Issues[Location]),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="B1:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="40.625" customWidth="1"/>
-    <col min="8" max="8" width="25.625" customWidth="1"/>
-    <col min="9" max="9" width="40.625" customWidth="1"/>
-    <col min="10" max="10" width="25.625" customWidth="1"/>
-    <col min="11" max="11" width="40.625" customWidth="1"/>
-    <col min="12" max="12" width="25.625" customWidth="1"/>
-    <col min="13" max="13" width="40.625" customWidth="1"/>
-    <col min="14" max="14" width="25.625" customWidth="1"/>
-    <col min="15" max="17" width="40.625" customWidth="1"/>
-    <col min="18" max="18" width="25.625" customWidth="1"/>
-    <col min="19" max="19" width="40.625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="40.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="17" width="40.7109375" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
     </row>
     <row r="2" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="86"/>
+      <c r="L4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79" t="s">
+      <c r="M4" s="86"/>
+      <c r="N4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="79"/>
-      <c r="P4" s="82" t="s">
+      <c r="O4" s="86"/>
+      <c r="P4" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="79" t="s">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="79"/>
+      <c r="S4" s="86"/>
     </row>
     <row r="5" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-    </row>
-    <row r="6" spans="2:19" ht="174" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="88"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+    </row>
+    <row r="6" spans="2:19" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="51" t="s">
         <v>37</v>
       </c>
@@ -5785,7 +6867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="51" t="s">
         <v>117</v>
       </c>
@@ -6338,7 +7420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor theme="8"/>
@@ -6346,13 +7428,13 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H21" sqref="H20:H21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -6387,7 +7469,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
@@ -6468,7 +7550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
@@ -6476,21 +7558,21 @@
   <dimension ref="B2:AG100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="F5" sqref="F5:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="4" customWidth="1"/>
-    <col min="5" max="7" width="20.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="4" customWidth="1"/>
-    <col min="11" max="26" width="30.625" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="3.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="20.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="4" customWidth="1"/>
+    <col min="11" max="26" width="30.7109375" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="11.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -6500,11 +7582,11 @@
       <c r="C3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
       <c r="I3" s="47" t="s">
         <v>54</v>
       </c>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility Review" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Issue_Severity[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">Issues[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">Issues[Location]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
-    <definedName name="Checklist">Table2[]</definedName>
+    <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
     <definedName name="Completion">'DD Menu'!$G$5:$G$9</definedName>
     <definedName name="Course">'Accessibility Review'!$F$2</definedName>
@@ -53,6 +53,7 @@
     <definedName name="YesOrNo">'DD Menu'!$K$4:$K$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -121,379 +122,379 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
   <si>
+    <t>Complete?</t>
+  </si>
+  <si>
+    <t>Did you check?</t>
+  </si>
+  <si>
+    <t>(Select)</t>
+  </si>
+  <si>
+    <t>Alt text</t>
+  </si>
+  <si>
+    <t>Iframe Titles</t>
+  </si>
+  <si>
+    <t>Table headers</t>
+  </si>
+  <si>
+    <t>Video Transcripts/Visual descriptions</t>
+  </si>
+  <si>
+    <t>Color contrast ratio</t>
+  </si>
+  <si>
+    <t>Keyboard navigation possible</t>
+  </si>
+  <si>
+    <t>Does it read correctly to a screen reader</t>
+  </si>
+  <si>
+    <t>Bad use of &lt;i&gt; and &lt;b&gt; tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links all work </t>
+  </si>
+  <si>
+    <t>Links are descriptive</t>
+  </si>
+  <si>
+    <t>Issue Severity</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>Occurance</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>ScreenReader</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Semantics</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>For a more detailed list of possible Accessibility errors view this "Checklist for Accessibility Assistants" document</t>
+  </si>
+  <si>
+    <t>Descriptive Errors</t>
+  </si>
+  <si>
+    <t>Screen Reader</t>
+  </si>
+  <si>
+    <t>Errors | Descriptions</t>
+  </si>
+  <si>
+    <t>Non-Descriptive alt tags</t>
+  </si>
+  <si>
+    <t>All images have appropriate, equivalent alternative text. Avoid images of text (If necessary, put the text in the alt text).</t>
+  </si>
+  <si>
+    <t>Doesn't meet contrast ratio</t>
+  </si>
+  <si>
+    <t>Text and images of text have a contrast ratio of at least 4.5:1. Large text should of at least 18 point (typically 24px) or 14 point (typically 18.66px) bold, has a contrast ratio of at least 3:1.</t>
+  </si>
+  <si>
+    <t>Focus lost</t>
+  </si>
+  <si>
+    <t>It is visually apparent which page element has the current keyboard focus (i.e., as you tab through the page, you can see where you are). When a page element receives focus, it does not result in a substantial change to the page, the spawning of a pop-up window, an additional change of keyboard focus, or any other change that could confuse or disorient the user.</t>
+  </si>
+  <si>
+    <t>In-sufficient instructions/labels for interactive elements</t>
+  </si>
+  <si>
+    <t>Screen reader correctly reads information back to user. (Mainly check on videos, tables, interactive elements, forms, buttons, etc.). Text labels are associated with form input elements. Related form elements are grouped with field set/legend. Sufficient labels, cues, and instructions for required interactive elements are provided via instructions, examples, properly positioned form labels, and/or field sets/legends</t>
+  </si>
+  <si>
+    <t>Transcript needed</t>
+  </si>
+  <si>
+    <t>A descriptive text transcript (including all relevant visual and auditory clues and indicators) is provided for non-live, web-based audio (audio podcasts, MP3 files, etc.). Synchronized captions are provided for non-live, web-based video (YouTube videos, etc.). Audio descriptions are provided for all video content (NOTE: Only required if the video conveys content visually that is not available in the default audio track.). Embedded multimedia is identified via accessible text.</t>
+  </si>
+  <si>
+    <t>Missing title/label</t>
+  </si>
+  <si>
+    <t>The &lt;frame&gt; and &lt;iframes&gt; elements have an appropriate title attribute. Form buttons and inputs have a descriptive value.</t>
+  </si>
+  <si>
+    <t>Non-Descriptive Link</t>
+  </si>
+  <si>
+    <t>Make sure link text is descriptive. The purpose of each link can be determined from the link text alone, or from the link text and its context. Links don’t use click here method. Also links should not use full URLs unless very short. Links with the same text that go to different locations are readily distinguishable.</t>
+  </si>
+  <si>
+    <t>Two-In-One</t>
+  </si>
+  <si>
+    <t>The table should be split into 2 tables so that there are not overlapping headings</t>
+  </si>
+  <si>
+    <t>Flashing content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A mechanism is provided to stop, pause, mute, or adjust volume for audio that automatically plays on a page for more than 3 seconds. Nothing in our courses should be flashing. This is a 5*5*5 error. RPN = 125</t>
+  </si>
+  <si>
+    <t>Decorative image</t>
+  </si>
+  <si>
+    <t>Images that do not convey content, are decorative (i.e. banners), or contain content that is already conveyed in text are given null alt text (alt=""). All linked images have descriptive alternative text.</t>
+  </si>
+  <si>
+    <t>Conveying Content</t>
+  </si>
+  <si>
+    <t>Color is not used as the sole method of conveying content or distinguishing visual elements. (Ex. red underline means error, click the green circle.) Color alone is also not used to distinguish links from surrounding text unless the luminance contrast between the link and the surrounding text is at least 3:1 and an additional differentiation (e.g., it becomes underlined) is provided when the link is hovered over or receives focus.</t>
+  </si>
+  <si>
+    <t>Illogical order</t>
+  </si>
+  <si>
+    <t>The reading and navigation order of links, form elements, etc. is logical and intuitive.</t>
+  </si>
+  <si>
+    <t>Visual Description</t>
+  </si>
+  <si>
+    <t>Missing header label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semantic markup is used to designate headings (&lt;h1&gt;), lists (&lt;ul&gt;, &lt;ol&gt;, and &lt;dl&gt;).</t>
+  </si>
+  <si>
+    <t>Broken Link</t>
+  </si>
+  <si>
+    <t>A link is either in accessible or leads to a "404 Error". In any way, the link cannot be used.</t>
+  </si>
+  <si>
+    <t>Missing Headings</t>
+  </si>
+  <si>
+    <t>This is to help a screen reader read a table correctly</t>
+  </si>
+  <si>
+    <t>Not readable when zoomed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The page is readable and functional when the text size is doubled.</t>
+  </si>
+  <si>
+    <t>Alternative Equivalent should be created</t>
+  </si>
+  <si>
+    <t>Equivalent alternatives to complex images are provided in context or on a separate (linked and/or referenced via a long description) page.</t>
+  </si>
+  <si>
+    <t>Page/Element not navigable</t>
+  </si>
+  <si>
+    <t>Keyboard focus is never locked or trapped at one particular page element. The user can navigate to and from all navigable page elements using only a keyboard. All page functionality is available using the keyboard, unless the functionality cannot be integrated easily</t>
+  </si>
+  <si>
+    <t>Bad use of &lt;i&gt; and/or &lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Emphasized text should use &lt;em&gt;, not &lt;i&gt;. Bold text should use &lt;strong&gt;, not &lt;b&gt;. This is the case unless bold or italic formatting is being used for a citation. Even then, consider using a &lt;cite&gt; tag.</t>
+  </si>
+  <si>
+    <t>Title misuse</t>
+  </si>
+  <si>
+    <t>The title should not be a multi-cell and instead could be a &lt;caption&gt; &lt;/caption&gt; or even a &lt;hX&gt; tag placed just above the table.</t>
+  </si>
+  <si>
+    <t>Instructions rely on non-text</t>
+  </si>
+  <si>
+    <t>Instructions do not rely upon sound or other outputs (e.g., "A beeping sound indicates you may continue.").</t>
+  </si>
+  <si>
+    <t>Long description necessary</t>
+  </si>
+  <si>
+    <t>Improper Headings</t>
+  </si>
+  <si>
+    <t>Headings should follow a logical order and be proper &lt;hX&gt; tags.</t>
+  </si>
+  <si>
+    <t>Scope attributes missing/misused</t>
+  </si>
+  <si>
+    <t>Some strange happenstance…</t>
+  </si>
+  <si>
+    <t>No one knows what went wrong here. For all we know the fabric of reality could be in great danger.</t>
+  </si>
+  <si>
+    <t>No Alt Attribute</t>
+  </si>
+  <si>
+    <t>Non-Native HTML tags</t>
+  </si>
+  <si>
+    <t>Screen Readers run off of HTML. When a screen reader comes across a undescriptive tag such as a &lt;div&gt;. It does not read correctly to the user. Please use the proper native HTML tag.</t>
+  </si>
+  <si>
+    <t>How did this even happen?!</t>
+  </si>
+  <si>
+    <t>Bless you for finding this problem. May you be able to see the good in your life. You have helped one person's path become an easier journey. Miracles are coming your way.</t>
+  </si>
+  <si>
     <t>ACCESSIBILITY REVIEW FOR:</t>
   </si>
   <si>
+    <t>Course Title</t>
+  </si>
+  <si>
     <t>Reviewed by:</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Method:</t>
   </si>
   <si>
     <t>Hyperlink:</t>
   </si>
   <si>
+    <t xml:space="preserve">Last Revised: </t>
+  </si>
+  <si>
+    <t>XX/XX/XX</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Completed?</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descriptive Errors </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Severity *(1, 3, 5)</t>
+  </si>
+  <si>
+    <t>Occurrence *(1, 3, 5)</t>
+  </si>
+  <si>
+    <t>Detection *(1, 3, 5)</t>
+  </si>
+  <si>
+    <t>RPN*</t>
+  </si>
+  <si>
+    <t>Reviewers</t>
+  </si>
+  <si>
+    <t>Drop Down Menus</t>
+  </si>
+  <si>
+    <t>FEMA Scale Values</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Allyson Schultz</t>
+  </si>
+  <si>
+    <t>Course Components</t>
+  </si>
+  <si>
+    <t>Issue Types</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Josh Williamson</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nathan Tingey</t>
+  </si>
+  <si>
     <t>Introduction</t>
   </si>
   <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Learning Content</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Handed-off**</t>
+  </si>
+  <si>
+    <t>Whole Course</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Exceljet.net</t>
-  </si>
-  <si>
-    <t>Learning Content</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Issues</t>
-  </si>
-  <si>
-    <t>Issue Type</t>
-  </si>
-  <si>
-    <t>Course Components</t>
-  </si>
-  <si>
-    <t>Drop Down Menus</t>
-  </si>
-  <si>
-    <t>Issue Types</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Screen Reader</t>
-  </si>
-  <si>
-    <t>Semantics</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>Assessment</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Done?</t>
-  </si>
-  <si>
-    <t>Completed?</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Whole Course</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Reviewers</t>
-  </si>
-  <si>
-    <t>Allyson Schultz</t>
-  </si>
-  <si>
-    <t>Josh Williamson</t>
-  </si>
-  <si>
-    <t>Nathan Tingey</t>
-  </si>
-  <si>
-    <t>(Select)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>RPN*</t>
-  </si>
-  <si>
-    <t>Handed-off**</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Non-Descriptive alt tags</t>
-  </si>
-  <si>
-    <t>Broken Link</t>
-  </si>
-  <si>
-    <t>Doesn't meet contrast ratio</t>
-  </si>
-  <si>
-    <t>Conveying Content</t>
-  </si>
-  <si>
-    <t>Focus lost</t>
-  </si>
-  <si>
-    <t>Illogical order</t>
-  </si>
-  <si>
-    <t>Flashing content</t>
-  </si>
-  <si>
-    <t>Not readable when zoomed</t>
-  </si>
-  <si>
-    <t>Missing title/label</t>
-  </si>
-  <si>
-    <t>Missing header label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Revised: </t>
-  </si>
-  <si>
-    <t>In-sufficient instructions/labels for interactive elements</t>
-  </si>
-  <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Errors | Descriptions</t>
-  </si>
-  <si>
-    <t>Transcript needed</t>
-  </si>
-  <si>
-    <t>FEMA Scale Values</t>
-  </si>
-  <si>
-    <t>Severity *(1, 3, 5)</t>
-  </si>
-  <si>
-    <t>Occurrence *(1, 3, 5)</t>
-  </si>
-  <si>
-    <t>Detection *(1, 3, 5)</t>
-  </si>
-  <si>
-    <t>Descriptive Errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descriptive Errors </t>
-  </si>
-  <si>
-    <t>All images have appropriate, equivalent alternative text. Avoid images of text (If necessary, put the text in the alt text).</t>
-  </si>
-  <si>
-    <t>Text and images of text have a contrast ratio of at least 4.5:1. Large text should of at least 18 point (typically 24px) or 14 point (typically 18.66px) bold, has a contrast ratio of at least 3:1.</t>
-  </si>
-  <si>
-    <t>Color is not used as the sole method of conveying content or distinguishing visual elements. (Ex. red underline means error, click the green circle.) Color alone is also not used to distinguish links from surrounding text unless the luminance contrast between the link and the surrounding text is at least 3:1 and an additional differentiation (e.g., it becomes underlined) is provided when the link is hovered over or receives focus.</t>
-  </si>
-  <si>
-    <t>It is visually apparent which page element has the current keyboard focus (i.e., as you tab through the page, you can see where you are). When a page element receives focus, it does not result in a substantial change to the page, the spawning of a pop-up window, an additional change of keyboard focus, or any other change that could confuse or disorient the user.</t>
-  </si>
-  <si>
-    <t>The reading and navigation order of links, form elements, etc. is logical and intuitive.</t>
-  </si>
-  <si>
-    <t>A descriptive text transcript (including all relevant visual and auditory clues and indicators) is provided for non-live, web-based audio (audio podcasts, MP3 files, etc.). Synchronized captions are provided for non-live, web-based video (YouTube videos, etc.). Audio descriptions are provided for all video content (NOTE: Only required if the video conveys content visually that is not available in the default audio track.). Embedded multimedia is identified via accessible text.</t>
-  </si>
-  <si>
-    <t>The &lt;frame&gt; and &lt;iframes&gt; elements have an appropriate title attribute. Form buttons and inputs have a descriptive value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semantic markup is used to designate headings (&lt;h1&gt;), lists (&lt;ul&gt;, &lt;ol&gt;, and &lt;dl&gt;).</t>
-  </si>
-  <si>
-    <t>How did this even happen?!</t>
-  </si>
-  <si>
-    <t>Instructions do not rely upon sound or other outputs (e.g., "A beeping sound indicates you may continue.").</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A mechanism is provided to stop, pause, mute, or adjust volume for audio that automatically plays on a page for more than 3 seconds. Nothing in our courses should be flashing. This is a 5*5*5 error. RPN = 125</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The page is readable and functional when the text size is doubled.</t>
-  </si>
-  <si>
-    <t>XX/XX/XX</t>
-  </si>
-  <si>
-    <t>Long description necessary</t>
-  </si>
-  <si>
-    <t>Alternative Equivalent should be created</t>
-  </si>
-  <si>
-    <t>Images that do not convey content, are decorative (i.e. banners), or contain content that is already conveyed in text are given null alt text (alt=""). All linked images have descriptive alternative text.</t>
-  </si>
-  <si>
-    <t>Some strange happenstance…</t>
-  </si>
-  <si>
-    <t>Make sure link text is descriptive. The purpose of each link can be determined from the link text alone, or from the link text and its context. Links don’t use click here method. Also links should not use full URLs unless very short. Links with the same text that go to different locations are readily distinguishable.</t>
-  </si>
-  <si>
-    <t>For a more detailed list of possible Accessibility errors view this "Checklist for Accessibility Assistants" document</t>
-  </si>
-  <si>
-    <t>Bad use of &lt;i&gt; and/or &lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Course Title</t>
-  </si>
-  <si>
-    <t>Visual Description</t>
-  </si>
-  <si>
-    <t>Yes/No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Complete?</t>
-  </si>
-  <si>
-    <t>Did you check?</t>
-  </si>
-  <si>
-    <t>Alt text</t>
-  </si>
-  <si>
-    <t>Iframe Titles</t>
-  </si>
-  <si>
-    <t>Table headers</t>
-  </si>
-  <si>
-    <t>Video Transcripts/Visual descriptions</t>
-  </si>
-  <si>
-    <t>Color contrast ratio</t>
-  </si>
-  <si>
-    <t>Keyboard navigation possible</t>
-  </si>
-  <si>
-    <t>Does it read correctly to a screen reader</t>
-  </si>
-  <si>
-    <t>Bad use of &lt;i&gt; and &lt;b&gt; tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Links all work </t>
-  </si>
-  <si>
-    <t>Links are descriptive</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Two-In-One</t>
-  </si>
-  <si>
-    <t>Title misuse</t>
-  </si>
-  <si>
-    <t>The table should be split into 2 tables so that there are not overlapping headings</t>
-  </si>
-  <si>
-    <t>This is to help a screen reader read a table correctly</t>
-  </si>
-  <si>
-    <t>The title should not be a multi-cell and instead could be a &lt;caption&gt; &lt;/caption&gt; or even a &lt;hX&gt; tag placed just above the table.</t>
-  </si>
-  <si>
-    <t>Improper Headings</t>
-  </si>
-  <si>
-    <t>Headings should follow a logical order and be proper &lt;hX&gt; tags.</t>
-  </si>
-  <si>
-    <t>Non-Descriptive Link</t>
-  </si>
-  <si>
-    <t>Page/Element not navigable</t>
-  </si>
-  <si>
-    <t>Missing Headings</t>
-  </si>
-  <si>
-    <t>Scope attributes missing/misused</t>
-  </si>
-  <si>
-    <t>No one knows what went wrong here. For all we know the fabric of reality could be in great danger.</t>
-  </si>
-  <si>
-    <t>Bless you for finding this problem. May you be able to see the good in your life. You have helped one person's path become an easier journey. Miracles are coming your way.</t>
-  </si>
-  <si>
-    <t>Equivalent alternatives to complex images are provided in context or on a separate (linked and/or referenced via a long description) page.</t>
-  </si>
-  <si>
-    <t>Keyboard focus is never locked or trapped at one particular page element. The user can navigate to and from all navigable page elements using only a keyboard. All page functionality is available using the keyboard, unless the functionality cannot be integrated easily</t>
-  </si>
-  <si>
-    <t>Emphasized text should use &lt;em&gt;, not &lt;i&gt;. Bold text should use &lt;strong&gt;, not &lt;b&gt;. This is the case unless bold or italic formatting is being used for a citation. Even then, consider using a &lt;cite&gt; tag.</t>
-  </si>
-  <si>
-    <t>Instructions rely on non-text</t>
-  </si>
-  <si>
-    <t>Screen reader correctly reads information back to user. (Mainly check on videos, tables, interactive elements, forms, buttons, etc.). Text labels are associated with form input elements. Related form elements are grouped with field set/legend. Sufficient labels, cues, and instructions for required interactive elements are provided via instructions, examples, properly positioned form labels, and/or field sets/legends</t>
-  </si>
-  <si>
-    <t>A link is either in accessible or leads to a "404 Error". In any way, the link cannot be used.</t>
-  </si>
-  <si>
-    <t>Decorative image</t>
-  </si>
-  <si>
-    <t>Screen Readers run off of HTML. When a screen reader comes across a undescriptive tag such as a &lt;div&gt;. It does not read correctly to the user. Please use the proper native HTML tag.</t>
-  </si>
-  <si>
-    <t>Non-Native HTML tags</t>
-  </si>
-  <si>
-    <t>ScreenReader</t>
-  </si>
-  <si>
-    <t>No Alt Attribute</t>
-  </si>
-  <si>
-    <t>Issue Severity</t>
-  </si>
-  <si>
-    <t>Occurance</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -1098,360 +1099,360 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="92">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="22" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="17" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="19" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="16" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="18" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="19" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="24" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="24" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,67 +1461,67 @@
     <xf numFmtId="49" fontId="24" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="Bottom Border" xfId="18"/>
-    <cellStyle name="Bottom Border 2" xfId="24"/>
-    <cellStyle name="Comma" xfId="5" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="6" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Comma [0] 2" xfId="26"/>
-    <cellStyle name="Comma 2" xfId="25"/>
+    <cellStyle name="Bottom Border" xfId="1"/>
+    <cellStyle name="Bottom Border 2" xfId="2"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Comma [0] 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Currency" xfId="7" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Currency [0]" xfId="8" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Currency [0] 2" xfId="28"/>
-    <cellStyle name="Currency 2" xfId="27"/>
-    <cellStyle name="Date" xfId="16"/>
-    <cellStyle name="Date 2" xfId="29"/>
-    <cellStyle name="Fill1" xfId="14"/>
-    <cellStyle name="Fill1 2" xfId="30"/>
+    <cellStyle name="Currency [0] 2" xfId="9"/>
+    <cellStyle name="Currency 2" xfId="10"/>
+    <cellStyle name="Date" xfId="11"/>
+    <cellStyle name="Date 2" xfId="12"/>
+    <cellStyle name="Fill1" xfId="13"/>
+    <cellStyle name="Fill1 2" xfId="14"/>
     <cellStyle name="Fill2" xfId="15"/>
-    <cellStyle name="Fill2 2" xfId="31"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink 2" xfId="32"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 1 2" xfId="33"/>
-    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 2 2" xfId="34"/>
-    <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 3 2" xfId="35"/>
-    <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Heading 4 2" xfId="36"/>
-    <cellStyle name="Hours" xfId="12"/>
-    <cellStyle name="Hours 2" xfId="37"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 2" xfId="38"/>
+    <cellStyle name="Fill2 2" xfId="16"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink 2" xfId="18"/>
+    <cellStyle name="Heading 1" xfId="19" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1 2" xfId="20"/>
+    <cellStyle name="Heading 2" xfId="21" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 2 2" xfId="22"/>
+    <cellStyle name="Heading 3" xfId="23" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 3 2" xfId="24"/>
+    <cellStyle name="Heading 4" xfId="25" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Heading 4 2" xfId="26"/>
+    <cellStyle name="Hours" xfId="27"/>
+    <cellStyle name="Hours 2" xfId="28"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hyperlink 2" xfId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="21"/>
-    <cellStyle name="Normal 2 2" xfId="39"/>
-    <cellStyle name="Normal 3" xfId="22"/>
-    <cellStyle name="Normal 4" xfId="23"/>
-    <cellStyle name="Normal 4 2" xfId="40"/>
-    <cellStyle name="Percent" xfId="9" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Percent 2" xfId="41"/>
-    <cellStyle name="Phone" xfId="17"/>
-    <cellStyle name="Phone 2" xfId="42"/>
-    <cellStyle name="Title" xfId="10" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Title 2" xfId="43"/>
-    <cellStyle name="Total" xfId="11" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Total 2" xfId="44"/>
-    <cellStyle name="Total Hours" xfId="13"/>
+    <cellStyle name="Normal 2" xfId="31"/>
+    <cellStyle name="Normal 2 2" xfId="32"/>
+    <cellStyle name="Normal 3" xfId="33"/>
+    <cellStyle name="Normal 4" xfId="34"/>
+    <cellStyle name="Normal 4 2" xfId="35"/>
+    <cellStyle name="Percent" xfId="36" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Percent 2" xfId="37"/>
+    <cellStyle name="Phone" xfId="38"/>
+    <cellStyle name="Phone 2" xfId="39"/>
+    <cellStyle name="Title" xfId="40" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="41"/>
+    <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="43"/>
+    <cellStyle name="Total Hours" xfId="44"/>
     <cellStyle name="Total Hours 2" xfId="45"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -3147,8 +3148,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11581197" y="371475"/>
-          <a:ext cx="4219580" cy="3217188"/>
+          <a:off x="11581197" y="190500"/>
+          <a:ext cx="4219580" cy="3207663"/>
           <a:chOff x="10086057" y="-16668"/>
           <a:chExt cx="3886226" cy="3714407"/>
         </a:xfrm>
@@ -3431,7 +3432,8 @@
           <a:pPr lvl="0"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> </a:t>
+            <a:t>
+            </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -3459,7 +3461,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11582400" y="3657598"/>
+          <a:off x="11582400" y="3467098"/>
           <a:ext cx="4143375" cy="5667377"/>
           <a:chOff x="12668250" y="3733798"/>
           <a:chExt cx="2423774" cy="5667377"/>
@@ -3519,7 +3521,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>   </a:t>
+              <a:t>
+              </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
@@ -3935,9 +3938,7 @@
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" name="Issue Type" totalsRowLabel="Grand Total"/>
-    <tableColumn id="2" name="Occurance" totalsRowFunction="sum" dataDxfId="0">
-      <calculatedColumnFormula>COUNTIF(Issues[Issue Type],B4)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" name="Occurance" totalsRowFunction="sum" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3947,8 +3948,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:C14" totalsRowShown="0">
   <autoFilter ref="B2:C14"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Complete?" dataDxfId="2"/>
-    <tableColumn id="2" name="Did you check?" dataDxfId="1"/>
+    <tableColumn id="1" name="Complete?" dataDxfId="1"/>
+    <tableColumn id="2" name="Did you check?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4247,14 +4248,14 @@
   </sheetPr>
   <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -4267,87 +4268,87 @@
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="70" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
-      <c r="E2" s="41"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="72" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G2" s="72"/>
       <c r="H2" s="72"/>
       <c r="I2" s="72"/>
       <c r="J2" s="73"/>
     </row>
-    <row r="3" spans="2:12" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="18" t="s">
-        <v>1</v>
+    <row r="3" spans="2:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="23" t="s">
-        <v>2</v>
+      <c r="G3" s="31"/>
+      <c r="H3" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="J3" s="80"/>
     </row>
     <row r="4" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="65" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
       <c r="E4" s="77"/>
       <c r="F4" s="77"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="17" t="s">
-        <v>4</v>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>72</v>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="F6" s="45"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="74" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C7" s="75"/>
       <c r="D7" s="75"/>
@@ -4359,920 +4360,920 @@
       <c r="J7" s="76"/>
     </row>
     <row r="8" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
+      <c r="B8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="1"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="28"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="28"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="28"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="28"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="28"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="28"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="28"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="L22" s="28"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="L23" s="28"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="L24" s="28"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="L25" s="28"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="L26" s="28"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="L27" s="28"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
-      <c r="L28" s="28"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="58"/>
       <c r="F30" s="60"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="25"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="58"/>
       <c r="F31" s="60"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="25"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="58"/>
       <c r="F32" s="60"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="58"/>
-      <c r="D33" s="25"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="58"/>
       <c r="F33" s="60"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="58"/>
       <c r="F34" s="60"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="25"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="58"/>
       <c r="F35" s="60"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="25"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="58"/>
       <c r="F36" s="60"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="58"/>
-      <c r="D37" s="25"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="58"/>
       <c r="F37" s="60"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
       <c r="J37" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="25"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="58"/>
       <c r="F38" s="60"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="25"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="58"/>
       <c r="F39" s="60"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="25"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="58"/>
       <c r="F40" s="60"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="58"/>
-      <c r="D41" s="25"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="58"/>
       <c r="F41" s="60"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
       <c r="J41" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="25"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="58"/>
       <c r="F42" s="60"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="J42" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="58"/>
-      <c r="D43" s="25"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="58"/>
       <c r="F43" s="60"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="58"/>
-      <c r="D44" s="25"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="58"/>
       <c r="F44" s="60"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
       <c r="J44" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="58"/>
-      <c r="D45" s="25"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="58"/>
       <c r="F45" s="60"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="58"/>
-      <c r="D46" s="25"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="58"/>
       <c r="F46" s="61"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="58"/>
-      <c r="D47" s="25"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="58"/>
       <c r="F47" s="61"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
       <c r="J47" s="64">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="58"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="58"/>
       <c r="F48" s="61"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
       <c r="J48" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="58"/>
-      <c r="D49" s="25"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="58"/>
       <c r="F49" s="61"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
       <c r="J49" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="58"/>
-      <c r="D50" s="25"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="58"/>
       <c r="F50" s="61"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
       <c r="J50" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="58"/>
-      <c r="D51" s="25"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="58"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
       <c r="J51" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="58"/>
-      <c r="D52" s="25"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="58"/>
       <c r="F52" s="61"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
       <c r="J52" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="58"/>
-      <c r="D53" s="25"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="58"/>
       <c r="F53" s="61"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
       <c r="J53" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="58"/>
-      <c r="D54" s="25"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="58"/>
       <c r="F54" s="61"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="58"/>
-      <c r="D55" s="25"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="58"/>
       <c r="F55" s="61"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="58"/>
-      <c r="D56" s="25"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="58"/>
       <c r="F56" s="61"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="58"/>
-      <c r="D57" s="25"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="58"/>
       <c r="F57" s="61"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="58"/>
-      <c r="D58" s="25"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="58"/>
       <c r="F58" s="61"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="58"/>
-      <c r="D59" s="25"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="58"/>
       <c r="F59" s="61"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
       <c r="J59" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="58"/>
-      <c r="D60" s="25"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="58"/>
       <c r="F60" s="61"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="58"/>
-      <c r="D61" s="25"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="58"/>
       <c r="F61" s="61"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
       <c r="J61" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="58"/>
-      <c r="D62" s="25"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="58"/>
       <c r="F62" s="61"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
       <c r="J62" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="58"/>
-      <c r="D63" s="25"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="58"/>
       <c r="F63" s="61"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
       <c r="J63" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="58"/>
-      <c r="D64" s="25"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="58"/>
       <c r="F64" s="61"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
       <c r="J64" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="58"/>
-      <c r="D65" s="25"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="58"/>
       <c r="F65" s="61"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
       <c r="J65" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="58"/>
-      <c r="D66" s="25"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="58"/>
       <c r="F66" s="61"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
       <c r="J66" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="58"/>
-      <c r="D67" s="25"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="58"/>
       <c r="F67" s="61"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
       <c r="J67" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="58"/>
-      <c r="D68" s="25"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="58"/>
       <c r="F68" s="61"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
       <c r="J68" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="58"/>
-      <c r="D69" s="25"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="58"/>
       <c r="F69" s="61"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="50">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="59"/>
-      <c r="D70" s="25"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="59"/>
       <c r="F70" s="62"/>
       <c r="G70" s="63"/>
@@ -5284,9 +5285,9 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="59"/>
-      <c r="D71" s="25"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="59"/>
       <c r="F71" s="62"/>
       <c r="G71" s="63"/>
@@ -5298,9 +5299,9 @@
       </c>
     </row>
     <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="59"/>
-      <c r="D72" s="25"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="59"/>
       <c r="F72" s="62"/>
       <c r="G72" s="63"/>
@@ -5312,9 +5313,9 @@
       </c>
     </row>
     <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="59"/>
-      <c r="D73" s="25"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="59"/>
       <c r="F73" s="62"/>
       <c r="G73" s="63"/>
@@ -5326,9 +5327,9 @@
       </c>
     </row>
     <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="59"/>
-      <c r="D74" s="25"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="59"/>
       <c r="F74" s="62"/>
       <c r="G74" s="63"/>
@@ -5340,9 +5341,9 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="59"/>
-      <c r="D75" s="25"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="59"/>
       <c r="F75" s="62"/>
       <c r="G75" s="63"/>
@@ -5354,9 +5355,9 @@
       </c>
     </row>
     <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="59"/>
-      <c r="D76" s="25"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="59"/>
       <c r="F76" s="62"/>
       <c r="G76" s="63"/>
@@ -5368,9 +5369,9 @@
       </c>
     </row>
     <row r="77" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="59"/>
-      <c r="D77" s="25"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="59"/>
       <c r="F77" s="62"/>
       <c r="G77" s="63"/>
@@ -5382,9 +5383,9 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="59"/>
-      <c r="D78" s="25"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="59"/>
       <c r="F78" s="62"/>
       <c r="G78" s="63"/>
@@ -5396,9 +5397,9 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="59"/>
-      <c r="D79" s="25"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="59"/>
       <c r="F79" s="62"/>
       <c r="G79" s="63"/>
@@ -5410,9 +5411,9 @@
       </c>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="59"/>
-      <c r="D80" s="25"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="59"/>
       <c r="F80" s="62"/>
       <c r="G80" s="63"/>
@@ -5424,9 +5425,9 @@
       </c>
     </row>
     <row r="81" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="59"/>
-      <c r="D81" s="25"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="59"/>
       <c r="F81" s="62"/>
       <c r="G81" s="63"/>
@@ -5438,9 +5439,9 @@
       </c>
     </row>
     <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B82" s="16"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="59"/>
-      <c r="D82" s="25"/>
+      <c r="D82" s="26"/>
       <c r="E82" s="59"/>
       <c r="F82" s="62"/>
       <c r="G82" s="63"/>
@@ -5452,9 +5453,9 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B83" s="16"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="59"/>
-      <c r="D83" s="25"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="59"/>
       <c r="F83" s="62"/>
       <c r="G83" s="63"/>
@@ -5466,9 +5467,9 @@
       </c>
     </row>
     <row r="84" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B84" s="16"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="59"/>
-      <c r="D84" s="25"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="59"/>
       <c r="F84" s="62"/>
       <c r="G84" s="63"/>
@@ -5480,9 +5481,9 @@
       </c>
     </row>
     <row r="85" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B85" s="16"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="59"/>
-      <c r="D85" s="25"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="59"/>
       <c r="F85" s="62"/>
       <c r="G85" s="63"/>
@@ -5494,9 +5495,9 @@
       </c>
     </row>
     <row r="86" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B86" s="16"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="59"/>
-      <c r="D86" s="25"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="59"/>
       <c r="F86" s="62"/>
       <c r="G86" s="63"/>
@@ -5508,9 +5509,9 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B87" s="16"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="59"/>
-      <c r="D87" s="25"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="59"/>
       <c r="F87" s="62"/>
       <c r="G87" s="63"/>
@@ -5522,9 +5523,9 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B88" s="16"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="59"/>
-      <c r="D88" s="25"/>
+      <c r="D88" s="26"/>
       <c r="E88" s="59"/>
       <c r="F88" s="62"/>
       <c r="G88" s="63"/>
@@ -5536,9 +5537,9 @@
       </c>
     </row>
     <row r="89" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B89" s="16"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="59"/>
-      <c r="D89" s="25"/>
+      <c r="D89" s="26"/>
       <c r="E89" s="59"/>
       <c r="F89" s="62"/>
       <c r="G89" s="63"/>
@@ -5550,9 +5551,9 @@
       </c>
     </row>
     <row r="90" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B90" s="16"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="59"/>
-      <c r="D90" s="25"/>
+      <c r="D90" s="26"/>
       <c r="E90" s="59"/>
       <c r="F90" s="62"/>
       <c r="G90" s="63"/>
@@ -5564,9 +5565,9 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B91" s="16"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="59"/>
-      <c r="D91" s="25"/>
+      <c r="D91" s="26"/>
       <c r="E91" s="59"/>
       <c r="F91" s="62"/>
       <c r="G91" s="63"/>
@@ -5578,9 +5579,9 @@
       </c>
     </row>
     <row r="92" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B92" s="16"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="59"/>
-      <c r="D92" s="25"/>
+      <c r="D92" s="26"/>
       <c r="E92" s="59"/>
       <c r="F92" s="62"/>
       <c r="G92" s="63"/>
@@ -5592,9 +5593,9 @@
       </c>
     </row>
     <row r="93" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B93" s="16"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="59"/>
-      <c r="D93" s="25"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="59"/>
       <c r="F93" s="62"/>
       <c r="G93" s="63"/>
@@ -5606,9 +5607,9 @@
       </c>
     </row>
     <row r="94" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B94" s="16"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="59"/>
-      <c r="D94" s="25"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="59"/>
       <c r="F94" s="62"/>
       <c r="G94" s="63"/>
@@ -5620,9 +5621,9 @@
       </c>
     </row>
     <row r="95" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B95" s="16"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="59"/>
-      <c r="D95" s="25"/>
+      <c r="D95" s="26"/>
       <c r="E95" s="59"/>
       <c r="F95" s="62"/>
       <c r="G95" s="63"/>
@@ -5634,9 +5635,9 @@
       </c>
     </row>
     <row r="96" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B96" s="16"/>
+      <c r="B96" s="17"/>
       <c r="C96" s="59"/>
-      <c r="D96" s="25"/>
+      <c r="D96" s="26"/>
       <c r="E96" s="59"/>
       <c r="F96" s="62"/>
       <c r="G96" s="63"/>
@@ -5648,9 +5649,9 @@
       </c>
     </row>
     <row r="97" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B97" s="16"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="59"/>
-      <c r="D97" s="25"/>
+      <c r="D97" s="26"/>
       <c r="E97" s="59"/>
       <c r="F97" s="62"/>
       <c r="G97" s="63"/>
@@ -5662,9 +5663,9 @@
       </c>
     </row>
     <row r="98" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B98" s="16"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="59"/>
-      <c r="D98" s="25"/>
+      <c r="D98" s="26"/>
       <c r="E98" s="59"/>
       <c r="F98" s="62"/>
       <c r="G98" s="63"/>
@@ -5676,9 +5677,9 @@
       </c>
     </row>
     <row r="99" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B99" s="16"/>
+      <c r="B99" s="17"/>
       <c r="C99" s="59"/>
-      <c r="D99" s="25"/>
+      <c r="D99" s="26"/>
       <c r="E99" s="59"/>
       <c r="F99" s="62"/>
       <c r="G99" s="63"/>
@@ -5690,9 +5691,9 @@
       </c>
     </row>
     <row r="100" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B100" s="16"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="59"/>
-      <c r="D100" s="25"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="59"/>
       <c r="F100" s="62"/>
       <c r="G100" s="63"/>
@@ -5704,9 +5705,9 @@
       </c>
     </row>
     <row r="101" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B101" s="16"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="59"/>
-      <c r="D101" s="25"/>
+      <c r="D101" s="26"/>
       <c r="E101" s="59"/>
       <c r="F101" s="62"/>
       <c r="G101" s="63"/>
@@ -5718,9 +5719,9 @@
       </c>
     </row>
     <row r="102" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B102" s="16"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="59"/>
-      <c r="D102" s="25"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="59"/>
       <c r="F102" s="62"/>
       <c r="G102" s="63"/>
@@ -5732,9 +5733,9 @@
       </c>
     </row>
     <row r="103" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B103" s="16"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="59"/>
-      <c r="D103" s="25"/>
+      <c r="D103" s="26"/>
       <c r="E103" s="59"/>
       <c r="F103" s="62"/>
       <c r="G103" s="63"/>
@@ -5746,9 +5747,9 @@
       </c>
     </row>
     <row r="104" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B104" s="16"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="59"/>
-      <c r="D104" s="25"/>
+      <c r="D104" s="26"/>
       <c r="E104" s="59"/>
       <c r="F104" s="62"/>
       <c r="G104" s="63"/>
@@ -5760,9 +5761,9 @@
       </c>
     </row>
     <row r="105" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B105" s="16"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="59"/>
-      <c r="D105" s="25"/>
+      <c r="D105" s="26"/>
       <c r="E105" s="59"/>
       <c r="F105" s="62"/>
       <c r="G105" s="63"/>
@@ -5774,9 +5775,9 @@
       </c>
     </row>
     <row r="106" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B106" s="16"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="59"/>
-      <c r="D106" s="25"/>
+      <c r="D106" s="26"/>
       <c r="E106" s="59"/>
       <c r="F106" s="62"/>
       <c r="G106" s="63"/>
@@ -5788,9 +5789,9 @@
       </c>
     </row>
     <row r="107" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B107" s="16"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="59"/>
-      <c r="D107" s="25"/>
+      <c r="D107" s="26"/>
       <c r="E107" s="59"/>
       <c r="F107" s="62"/>
       <c r="G107" s="63"/>
@@ -5802,9 +5803,9 @@
       </c>
     </row>
     <row r="108" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B108" s="16"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="59"/>
-      <c r="D108" s="25"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="59"/>
       <c r="F108" s="62"/>
       <c r="G108" s="63"/>
@@ -5816,9 +5817,9 @@
       </c>
     </row>
     <row r="109" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B109" s="16"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="59"/>
-      <c r="D109" s="25"/>
+      <c r="D109" s="26"/>
       <c r="E109" s="59"/>
       <c r="F109" s="62"/>
       <c r="G109" s="63"/>
@@ -5830,9 +5831,9 @@
       </c>
     </row>
     <row r="110" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B110" s="16"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="59"/>
-      <c r="D110" s="25"/>
+      <c r="D110" s="26"/>
       <c r="E110" s="59"/>
       <c r="F110" s="62"/>
       <c r="G110" s="63"/>
@@ -5844,9 +5845,9 @@
       </c>
     </row>
     <row r="111" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B111" s="16"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="59"/>
-      <c r="D111" s="25"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="59"/>
       <c r="F111" s="62"/>
       <c r="G111" s="63"/>
@@ -5858,9 +5859,9 @@
       </c>
     </row>
     <row r="112" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B112" s="16"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="59"/>
-      <c r="D112" s="25"/>
+      <c r="D112" s="26"/>
       <c r="E112" s="59"/>
       <c r="F112" s="62"/>
       <c r="G112" s="63"/>
@@ -5872,9 +5873,9 @@
       </c>
     </row>
     <row r="113" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B113" s="16"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="59"/>
-      <c r="D113" s="25"/>
+      <c r="D113" s="26"/>
       <c r="E113" s="59"/>
       <c r="F113" s="62"/>
       <c r="G113" s="63"/>
@@ -5886,9 +5887,9 @@
       </c>
     </row>
     <row r="114" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B114" s="16"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="59"/>
-      <c r="D114" s="25"/>
+      <c r="D114" s="26"/>
       <c r="E114" s="59"/>
       <c r="F114" s="62"/>
       <c r="G114" s="63"/>
@@ -5900,9 +5901,9 @@
       </c>
     </row>
     <row r="115" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B115" s="16"/>
+      <c r="B115" s="17"/>
       <c r="C115" s="59"/>
-      <c r="D115" s="25"/>
+      <c r="D115" s="26"/>
       <c r="E115" s="59"/>
       <c r="F115" s="62"/>
       <c r="G115" s="63"/>
@@ -5914,9 +5915,9 @@
       </c>
     </row>
     <row r="116" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B116" s="16"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="59"/>
-      <c r="D116" s="25"/>
+      <c r="D116" s="26"/>
       <c r="E116" s="59"/>
       <c r="F116" s="62"/>
       <c r="G116" s="63"/>
@@ -5928,9 +5929,9 @@
       </c>
     </row>
     <row r="117" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B117" s="16"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="59"/>
-      <c r="D117" s="25"/>
+      <c r="D117" s="26"/>
       <c r="E117" s="59"/>
       <c r="F117" s="62"/>
       <c r="G117" s="63"/>
@@ -5942,9 +5943,9 @@
       </c>
     </row>
     <row r="118" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B118" s="16"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="59"/>
-      <c r="D118" s="25"/>
+      <c r="D118" s="26"/>
       <c r="E118" s="59"/>
       <c r="F118" s="62"/>
       <c r="G118" s="63"/>
@@ -5956,9 +5957,9 @@
       </c>
     </row>
     <row r="119" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="59"/>
-      <c r="D119" s="25"/>
+      <c r="D119" s="26"/>
       <c r="E119" s="59"/>
       <c r="F119" s="62"/>
       <c r="G119" s="63"/>
@@ -5970,9 +5971,9 @@
       </c>
     </row>
     <row r="120" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B120" s="16"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="59"/>
-      <c r="D120" s="25"/>
+      <c r="D120" s="26"/>
       <c r="E120" s="59"/>
       <c r="F120" s="62"/>
       <c r="G120" s="63"/>
@@ -5984,9 +5985,9 @@
       </c>
     </row>
     <row r="121" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B121" s="16"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="59"/>
-      <c r="D121" s="25"/>
+      <c r="D121" s="26"/>
       <c r="E121" s="59"/>
       <c r="F121" s="62"/>
       <c r="G121" s="63"/>
@@ -5998,9 +5999,9 @@
       </c>
     </row>
     <row r="122" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B122" s="16"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="59"/>
-      <c r="D122" s="25"/>
+      <c r="D122" s="26"/>
       <c r="E122" s="59"/>
       <c r="F122" s="62"/>
       <c r="G122" s="63"/>
@@ -6012,9 +6013,9 @@
       </c>
     </row>
     <row r="123" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B123" s="16"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="59"/>
-      <c r="D123" s="25"/>
+      <c r="D123" s="26"/>
       <c r="E123" s="59"/>
       <c r="F123" s="62"/>
       <c r="G123" s="63"/>
@@ -6026,9 +6027,9 @@
       </c>
     </row>
     <row r="124" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B124" s="16"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="59"/>
-      <c r="D124" s="25"/>
+      <c r="D124" s="26"/>
       <c r="E124" s="59"/>
       <c r="F124" s="62"/>
       <c r="G124" s="63"/>
@@ -6040,9 +6041,9 @@
       </c>
     </row>
     <row r="125" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B125" s="16"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="59"/>
-      <c r="D125" s="25"/>
+      <c r="D125" s="26"/>
       <c r="E125" s="59"/>
       <c r="F125" s="62"/>
       <c r="G125" s="63"/>
@@ -6054,9 +6055,9 @@
       </c>
     </row>
     <row r="126" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B126" s="16"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="59"/>
-      <c r="D126" s="25"/>
+      <c r="D126" s="26"/>
       <c r="E126" s="59"/>
       <c r="F126" s="62"/>
       <c r="G126" s="63"/>
@@ -6068,9 +6069,9 @@
       </c>
     </row>
     <row r="127" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B127" s="16"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="59"/>
-      <c r="D127" s="25"/>
+      <c r="D127" s="26"/>
       <c r="E127" s="59"/>
       <c r="F127" s="62"/>
       <c r="G127" s="63"/>
@@ -6082,9 +6083,9 @@
       </c>
     </row>
     <row r="128" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B128" s="16"/>
+      <c r="B128" s="17"/>
       <c r="C128" s="59"/>
-      <c r="D128" s="25"/>
+      <c r="D128" s="26"/>
       <c r="E128" s="59"/>
       <c r="F128" s="62"/>
       <c r="G128" s="63"/>
@@ -6096,9 +6097,9 @@
       </c>
     </row>
     <row r="129" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B129" s="16"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="59"/>
-      <c r="D129" s="25"/>
+      <c r="D129" s="26"/>
       <c r="E129" s="59"/>
       <c r="F129" s="62"/>
       <c r="G129" s="63"/>
@@ -6110,9 +6111,9 @@
       </c>
     </row>
     <row r="130" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B130" s="16"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="59"/>
-      <c r="D130" s="25"/>
+      <c r="D130" s="26"/>
       <c r="E130" s="59"/>
       <c r="F130" s="62"/>
       <c r="G130" s="63"/>
@@ -6124,9 +6125,9 @@
       </c>
     </row>
     <row r="131" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B131" s="16"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="59"/>
-      <c r="D131" s="25"/>
+      <c r="D131" s="26"/>
       <c r="E131" s="59"/>
       <c r="F131" s="62"/>
       <c r="G131" s="63"/>
@@ -6138,9 +6139,9 @@
       </c>
     </row>
     <row r="132" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B132" s="16"/>
+      <c r="B132" s="17"/>
       <c r="C132" s="59"/>
-      <c r="D132" s="25"/>
+      <c r="D132" s="26"/>
       <c r="E132" s="59"/>
       <c r="F132" s="62"/>
       <c r="G132" s="63"/>
@@ -6152,9 +6153,9 @@
       </c>
     </row>
     <row r="133" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B133" s="16"/>
+      <c r="B133" s="17"/>
       <c r="C133" s="59"/>
-      <c r="D133" s="25"/>
+      <c r="D133" s="26"/>
       <c r="E133" s="59"/>
       <c r="F133" s="62"/>
       <c r="G133" s="63"/>
@@ -6166,9 +6167,9 @@
       </c>
     </row>
     <row r="134" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B134" s="16"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="59"/>
-      <c r="D134" s="25"/>
+      <c r="D134" s="26"/>
       <c r="E134" s="59"/>
       <c r="F134" s="62"/>
       <c r="G134" s="63"/>
@@ -6180,9 +6181,9 @@
       </c>
     </row>
     <row r="135" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B135" s="16"/>
+      <c r="B135" s="17"/>
       <c r="C135" s="59"/>
-      <c r="D135" s="25"/>
+      <c r="D135" s="26"/>
       <c r="E135" s="59"/>
       <c r="F135" s="62"/>
       <c r="G135" s="63"/>
@@ -6194,9 +6195,9 @@
       </c>
     </row>
     <row r="136" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B136" s="16"/>
+      <c r="B136" s="17"/>
       <c r="C136" s="59"/>
-      <c r="D136" s="25"/>
+      <c r="D136" s="26"/>
       <c r="E136" s="59"/>
       <c r="F136" s="62"/>
       <c r="G136" s="63"/>
@@ -6208,9 +6209,9 @@
       </c>
     </row>
     <row r="137" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B137" s="16"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="59"/>
-      <c r="D137" s="25"/>
+      <c r="D137" s="26"/>
       <c r="E137" s="59"/>
       <c r="F137" s="62"/>
       <c r="G137" s="63"/>
@@ -6222,9 +6223,9 @@
       </c>
     </row>
     <row r="138" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B138" s="16"/>
+      <c r="B138" s="17"/>
       <c r="C138" s="59"/>
-      <c r="D138" s="25"/>
+      <c r="D138" s="26"/>
       <c r="E138" s="59"/>
       <c r="F138" s="62"/>
       <c r="G138" s="63"/>
@@ -6236,9 +6237,9 @@
       </c>
     </row>
     <row r="139" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B139" s="16"/>
+      <c r="B139" s="17"/>
       <c r="C139" s="59"/>
-      <c r="D139" s="25"/>
+      <c r="D139" s="26"/>
       <c r="E139" s="59"/>
       <c r="F139" s="62"/>
       <c r="G139" s="63"/>
@@ -6250,9 +6251,9 @@
       </c>
     </row>
     <row r="140" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B140" s="16"/>
+      <c r="B140" s="17"/>
       <c r="C140" s="59"/>
-      <c r="D140" s="25"/>
+      <c r="D140" s="26"/>
       <c r="E140" s="59"/>
       <c r="F140" s="62"/>
       <c r="G140" s="63"/>
@@ -6264,9 +6265,9 @@
       </c>
     </row>
     <row r="141" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B141" s="16"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="59"/>
-      <c r="D141" s="25"/>
+      <c r="D141" s="26"/>
       <c r="E141" s="59"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63"/>
@@ -6278,9 +6279,9 @@
       </c>
     </row>
     <row r="142" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B142" s="16"/>
+      <c r="B142" s="17"/>
       <c r="C142" s="59"/>
-      <c r="D142" s="25"/>
+      <c r="D142" s="26"/>
       <c r="E142" s="59"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63"/>
@@ -6292,9 +6293,9 @@
       </c>
     </row>
     <row r="143" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B143" s="16"/>
+      <c r="B143" s="17"/>
       <c r="C143" s="66"/>
-      <c r="D143" s="25"/>
+      <c r="D143" s="26"/>
       <c r="E143" s="66"/>
       <c r="F143" s="67"/>
       <c r="G143" s="63"/>
@@ -6303,9 +6304,9 @@
       <c r="J143" s="64"/>
     </row>
     <row r="144" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B144" s="16"/>
+      <c r="B144" s="17"/>
       <c r="C144" s="66"/>
-      <c r="D144" s="25"/>
+      <c r="D144" s="26"/>
       <c r="E144" s="66"/>
       <c r="F144" s="67"/>
       <c r="G144" s="63"/>
@@ -6314,9 +6315,9 @@
       <c r="J144" s="64"/>
     </row>
     <row r="145" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B145" s="16"/>
+      <c r="B145" s="17"/>
       <c r="C145" s="66"/>
-      <c r="D145" s="25"/>
+      <c r="D145" s="26"/>
       <c r="E145" s="66"/>
       <c r="F145" s="67"/>
       <c r="G145" s="63"/>
@@ -6325,9 +6326,9 @@
       <c r="J145" s="64"/>
     </row>
     <row r="146" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B146" s="16"/>
+      <c r="B146" s="17"/>
       <c r="C146" s="66"/>
-      <c r="D146" s="25"/>
+      <c r="D146" s="26"/>
       <c r="E146" s="66"/>
       <c r="F146" s="67"/>
       <c r="G146" s="63"/>
@@ -6336,9 +6337,9 @@
       <c r="J146" s="64"/>
     </row>
     <row r="147" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B147" s="16"/>
+      <c r="B147" s="17"/>
       <c r="C147" s="66"/>
-      <c r="D147" s="25"/>
+      <c r="D147" s="26"/>
       <c r="E147" s="66"/>
       <c r="F147" s="67"/>
       <c r="G147" s="63"/>
@@ -6347,9 +6348,9 @@
       <c r="J147" s="64"/>
     </row>
     <row r="148" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B148" s="16"/>
+      <c r="B148" s="17"/>
       <c r="C148" s="66"/>
-      <c r="D148" s="25"/>
+      <c r="D148" s="26"/>
       <c r="E148" s="66"/>
       <c r="F148" s="67"/>
       <c r="G148" s="63"/>
@@ -6358,9 +6359,9 @@
       <c r="J148" s="64"/>
     </row>
     <row r="149" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B149" s="16"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="66"/>
-      <c r="D149" s="25"/>
+      <c r="D149" s="26"/>
       <c r="E149" s="66"/>
       <c r="F149" s="67"/>
       <c r="G149" s="63"/>
@@ -6369,9 +6370,9 @@
       <c r="J149" s="64"/>
     </row>
     <row r="150" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B150" s="16"/>
+      <c r="B150" s="17"/>
       <c r="C150" s="66"/>
-      <c r="D150" s="25"/>
+      <c r="D150" s="26"/>
       <c r="E150" s="66"/>
       <c r="F150" s="67"/>
       <c r="G150" s="63"/>
@@ -6379,8 +6380,8 @@
       <c r="I150" s="63"/>
       <c r="J150" s="64"/>
     </row>
-    <row r="151" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="16"/>
+    <row r="151" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B151" s="17"/>
       <c r="C151" s="66"/>
       <c r="D151" s="68"/>
       <c r="E151" s="66"/>
@@ -6390,8 +6391,8 @@
       <c r="I151" s="63"/>
       <c r="J151" s="64"/>
     </row>
-    <row r="152" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="16"/>
+    <row r="152" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B152" s="17"/>
       <c r="C152" s="66"/>
       <c r="D152" s="68"/>
       <c r="E152" s="66"/>
@@ -6401,8 +6402,8 @@
       <c r="I152" s="63"/>
       <c r="J152" s="64"/>
     </row>
-    <row r="153" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="16"/>
+    <row r="153" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B153" s="17"/>
       <c r="C153" s="66"/>
       <c r="D153" s="68"/>
       <c r="E153" s="66"/>
@@ -6412,8 +6413,8 @@
       <c r="I153" s="63"/>
       <c r="J153" s="64"/>
     </row>
-    <row r="154" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="16"/>
+    <row r="154" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B154" s="17"/>
       <c r="C154" s="66"/>
       <c r="D154" s="68"/>
       <c r="E154" s="66"/>
@@ -6423,8 +6424,8 @@
       <c r="I154" s="63"/>
       <c r="J154" s="64"/>
     </row>
-    <row r="155" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="16"/>
+    <row r="155" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B155" s="17"/>
       <c r="C155" s="66"/>
       <c r="D155" s="68"/>
       <c r="E155" s="66"/>
@@ -6447,9 +6448,9 @@
   <conditionalFormatting sqref="G9:I142">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF92D050"/>
         <color rgb="FFFFD505"/>
         <color rgb="FFFF4747"/>
@@ -6459,12 +6460,12 @@
   <conditionalFormatting sqref="J9:J142">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="27"/>
-        <cfvo type="num" val="125"/>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF92D050"/>
         <color rgb="FFFFD505"/>
-        <color rgb="FFFF4F4F"/>
+        <color rgb="FFFF4747"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -6496,22 +6497,22 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Screen Reader, internet browser, and other programs used in this cell" sqref="C4:F4"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E8" location="DescriptiveErrors" tooltip="Visit this link to view a list of more descriptive errors and definitions/help on the issue." display="Descriptive Errors "/>
+    <hyperlink ref="E8" location="'Accessibility Review'!DescriptiveErrors" tooltip="Visit this link to view a list of more descriptive errors and definitions/help on the issue." display="Descriptive Errors "/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="41" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="41" fitToHeight="0" orientation="portrait"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -6523,10 +6524,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B1:O29"/>
+  <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6535,24 +6536,23 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="82" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="C2" s="83"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <f>COUNTIF(Issues[Issue Type],B4)</f>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <f>COUNTIF(Issues[Issue Type],B5)</f>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Issues[Issue Type],B6)</f>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <f>COUNTIF(Issues[Issue Type],B7)</f>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Issues[Issue Type],B8)</f>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Issues[Issue Type],B9)</f>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <f>COUNTIF(Issues[Issue Type],B10)</f>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Issues[Issue Type],B11)</f>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <f>COUNTIF(Issues[Issue Type],B12)</f>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <f>SUBTOTAL(109,Issue_Severity[Occurance])</f>
@@ -6656,10 +6656,10 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6696,9 +6696,9 @@
     <col min="19" max="19" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M1" s="84" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="N1" s="84"/>
       <c r="O1" s="84"/>
@@ -6707,9 +6707,9 @@
       <c r="R1" s="84"/>
       <c r="S1" s="84"/>
     </row>
-    <row r="2" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="87" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
@@ -6729,9 +6729,9 @@
       <c r="R2" s="87"/>
       <c r="S2" s="87"/>
     </row>
-    <row r="3" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
@@ -6751,47 +6751,47 @@
       <c r="R3" s="85"/>
       <c r="S3" s="85"/>
     </row>
-    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="86"/>
       <c r="D4" s="86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="86"/>
       <c r="F4" s="86" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="G4" s="86"/>
       <c r="H4" s="86" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I4" s="86"/>
       <c r="J4" s="86" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K4" s="86"/>
       <c r="L4" s="86" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M4" s="86"/>
       <c r="N4" s="86" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O4" s="86"/>
       <c r="P4" s="89" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="90"/>
       <c r="R4" s="86" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="S4" s="86"/>
     </row>
-    <row r="5" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="88" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C5" s="88"/>
       <c r="D5" s="85"/>
@@ -6811,153 +6811,153 @@
       <c r="R5" s="85"/>
       <c r="S5" s="85"/>
     </row>
-    <row r="6" spans="2:19" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="204.75" x14ac:dyDescent="0.25">
       <c r="B6" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="51" t="s">
+      <c r="J6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="51" t="s">
+      <c r="L6" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="51" t="s">
+      <c r="N6" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" s="51" t="s">
+      <c r="C7" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>53</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="O6" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="R6" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="174" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>64</v>
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="52"/>
       <c r="J7" s="51" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="51" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="O7" s="52" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="P7" s="57" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="56" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="R7" s="51" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="S7" s="52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B8" s="51" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="52"/>
       <c r="F8" s="51" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="52"/>
       <c r="J8" s="51"/>
       <c r="K8" s="52"/>
       <c r="L8" s="51" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="N8" s="51"/>
       <c r="O8" s="52"/>
       <c r="P8" s="57" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="56" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="R8" s="51" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="S8" s="52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B9" s="51" t="s">
         <v>73</v>
       </c>
@@ -6971,27 +6971,27 @@
       <c r="J9" s="51"/>
       <c r="K9" s="52"/>
       <c r="L9" s="51" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="N9" s="51"/>
       <c r="O9" s="52"/>
       <c r="P9" s="57" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="56"/>
       <c r="R9" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" s="52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B10" s="51" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="51"/>
@@ -7003,23 +7003,23 @@
       <c r="J10" s="51"/>
       <c r="K10" s="52"/>
       <c r="L10" s="51" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="N10" s="51"/>
       <c r="O10" s="52"/>
       <c r="P10" s="56"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="51" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="S10" s="52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="51"/>
       <c r="C11" s="53"/>
       <c r="D11" s="51"/>
@@ -7039,7 +7039,7 @@
       <c r="R11" s="51"/>
       <c r="S11" s="52"/>
     </row>
-    <row r="12" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="51"/>
       <c r="C12" s="54"/>
       <c r="D12" s="51"/>
@@ -7059,7 +7059,7 @@
       <c r="R12" s="51"/>
       <c r="S12" s="52"/>
     </row>
-    <row r="13" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="51"/>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
@@ -7079,7 +7079,7 @@
       <c r="R13" s="51"/>
       <c r="S13" s="52"/>
     </row>
-    <row r="14" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="51"/>
       <c r="C14" s="53"/>
       <c r="D14" s="51"/>
@@ -7099,7 +7099,7 @@
       <c r="R14" s="51"/>
       <c r="S14" s="52"/>
     </row>
-    <row r="15" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="51"/>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
@@ -7119,7 +7119,7 @@
       <c r="R15" s="51"/>
       <c r="S15" s="52"/>
     </row>
-    <row r="16" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="51"/>
       <c r="C16" s="53"/>
       <c r="D16" s="51"/>
@@ -7139,7 +7139,7 @@
       <c r="R16" s="51"/>
       <c r="S16" s="52"/>
     </row>
-    <row r="17" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="51"/>
       <c r="C17" s="53"/>
       <c r="D17" s="51"/>
@@ -7159,7 +7159,7 @@
       <c r="R17" s="51"/>
       <c r="S17" s="52"/>
     </row>
-    <row r="18" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="51"/>
       <c r="C18" s="53"/>
       <c r="D18" s="51"/>
@@ -7179,7 +7179,7 @@
       <c r="R18" s="51"/>
       <c r="S18" s="52"/>
     </row>
-    <row r="19" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="51"/>
       <c r="C19" s="53"/>
       <c r="D19" s="51"/>
@@ -7199,7 +7199,7 @@
       <c r="R19" s="51"/>
       <c r="S19" s="52"/>
     </row>
-    <row r="20" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="51"/>
       <c r="C20" s="53"/>
       <c r="D20" s="51"/>
@@ -7219,7 +7219,7 @@
       <c r="R20" s="51"/>
       <c r="S20" s="52"/>
     </row>
-    <row r="21" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="51"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
@@ -7239,7 +7239,7 @@
       <c r="R21" s="51"/>
       <c r="S21" s="52"/>
     </row>
-    <row r="22" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="51"/>
       <c r="C22" s="53"/>
       <c r="D22" s="51"/>
@@ -7259,7 +7259,7 @@
       <c r="R22" s="51"/>
       <c r="S22" s="52"/>
     </row>
-    <row r="23" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="51"/>
       <c r="C23" s="53"/>
       <c r="D23" s="51"/>
@@ -7279,7 +7279,7 @@
       <c r="R23" s="51"/>
       <c r="S23" s="52"/>
     </row>
-    <row r="24" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="51"/>
       <c r="C24" s="53"/>
       <c r="D24" s="51"/>
@@ -7299,7 +7299,7 @@
       <c r="R24" s="51"/>
       <c r="S24" s="52"/>
     </row>
-    <row r="25" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="51"/>
       <c r="C25" s="53"/>
       <c r="D25" s="51"/>
@@ -7319,7 +7319,7 @@
       <c r="R25" s="51"/>
       <c r="S25" s="52"/>
     </row>
-    <row r="26" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="51"/>
       <c r="C26" s="53"/>
       <c r="D26" s="51"/>
@@ -7339,7 +7339,7 @@
       <c r="R26" s="51"/>
       <c r="S26" s="52"/>
     </row>
-    <row r="27" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="51"/>
       <c r="C27" s="53"/>
       <c r="D27" s="51"/>
@@ -7359,7 +7359,7 @@
       <c r="R27" s="51"/>
       <c r="S27" s="52"/>
     </row>
-    <row r="28" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="51"/>
       <c r="C28" s="53"/>
       <c r="D28" s="51"/>
@@ -7396,27 +7396,27 @@
     <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M1:S1" r:id="rId1" tooltip="Link to the Checklist for Accessibility Assistants document" display="For a more detailed list of possible Accessibility errors view this Checklist for Accessibility Assistants document"/>
+    <hyperlink ref="M1" r:id="rId1" tooltip="Link to the Checklist for Accessibility Assistants document"/>
     <hyperlink ref="C6" r:id="rId2" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="C7" r:id="rId3" tooltip="How to meet the guidelines" display="Images that do not convey content, are decorative [i.e. banners], or contain content that is already conveyed in text are given null alt text (alt=&quot;&quot;). All linked images have descriptive alternative text."/>
-    <hyperlink ref="E6" r:id="rId4" tooltip="How to meet the guideline"/>
-    <hyperlink ref="C8" r:id="rId5" tooltip="How to meet the guidelines" display="Equivalent alternatives to complex images are provided in context or on a separate (linked and/or referenced via longdesc) page."/>
-    <hyperlink ref="E7" r:id="rId6" tooltip="How to meet the guideline"/>
-    <hyperlink ref="G7" r:id="rId7" tooltip="How to meet the guideline"/>
-    <hyperlink ref="G8" r:id="rId8" tooltip="How to meet the guidelines" display="Keyboard focus is never locked or trapped at one particular page element. The user can navigate to and from all navigable page elements using only a keyboard. All page functionality is available using the keyboard, unless the functionality cannot be accom"/>
-    <hyperlink ref="I6" r:id="rId9" tooltip="How to meet the guideline" display="Screen reader correctly reads information back to user. (Mainly check on videos, tables, interactive elements, forms, buttons, etc.). Text labels are associated with form input elements. Related form elements are grouped with fieldset/legend. Sufficient l"/>
-    <hyperlink ref="M7" r:id="rId10" tooltip="How to meet the guideline"/>
-    <hyperlink ref="M8" r:id="rId11" tooltip="How to meet the guidelines" display="Emphasized text should use &lt;em&gt;, not &lt;i&gt;. Bold text should use &lt;strong&gt;, not &lt;b&gt;. This is the case unless bold or italic formating is being used for a citation. Even then, consider using a &lt;cite&gt; tag."/>
-    <hyperlink ref="G6" r:id="rId12" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="O6" r:id="rId13" tooltip="How to meet the guideline" display=" Make sure link text is descriptive. The purpose of each link can be determined from the link text alone, or from the link text and its context. Links don’t use click here method. Also links should not use full URLs unless very short. Links with the same "/>
-    <hyperlink ref="O7" r:id="rId14" tooltip="How to follow the guideline" display="A link is either in accessable or leads to a &quot;404 Error&quot;. In any way, the link cannot be used."/>
-    <hyperlink ref="S6" r:id="rId15" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="S7" r:id="rId16" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="K6" r:id="rId17" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="M6" r:id="rId18" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="E6" r:id="rId3" tooltip="How to meet the guideline"/>
+    <hyperlink ref="G6" r:id="rId4" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="I6" r:id="rId5" tooltip="How to meet the guideline"/>
+    <hyperlink ref="K6" r:id="rId6" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="M6" r:id="rId7" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="O6" r:id="rId8" tooltip="How to meet the guideline"/>
+    <hyperlink ref="S6" r:id="rId9" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="C7" r:id="rId10" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="E7" r:id="rId11" tooltip="How to meet the guideline"/>
+    <hyperlink ref="G7" r:id="rId12" tooltip="How to meet the guideline"/>
+    <hyperlink ref="M7" r:id="rId13" tooltip="How to meet the guideline"/>
+    <hyperlink ref="O7" r:id="rId14" tooltip="How to follow the guideline"/>
+    <hyperlink ref="S7" r:id="rId15" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="C8" r:id="rId16" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="G8" r:id="rId17" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="M8" r:id="rId18" tooltip="How to meet the guidelines"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>
 
@@ -7438,104 +7438,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>86</v>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>87</v>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>88</v>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>89</v>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>90</v>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>91</v>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>92</v>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>93</v>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>94</v>
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>95</v>
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>96</v>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -7563,194 +7563,195 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="20.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="4" customWidth="1"/>
-    <col min="11" max="26" width="30.7109375" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="11.140625" style="4"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
+    <col min="11" max="26" width="30.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="11.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="35" t="s">
-        <v>28</v>
+      <c r="C3" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="F3" s="91"/>
       <c r="G3" s="91"/>
       <c r="I3" s="47" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>21</v>
+      <c r="B4" s="6"/>
+      <c r="C4" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="I4" s="48">
         <v>1</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>23</v>
+      <c r="B5" s="6"/>
+      <c r="C5" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="I5" s="48">
         <v>3</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>25</v>
+      <c r="B6" s="6"/>
+      <c r="C6" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>117</v>
       </c>
       <c r="I6" s="48">
         <v>5</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="38" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="39" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="34"/>
+      <c r="E10" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="34"/>
+      <c r="E11" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="33"/>
-      <c r="E8" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="33"/>
-      <c r="E9" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="33"/>
-      <c r="E10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="33"/>
-      <c r="E11" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="100" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG100" s="4" t="s">
-        <v>6</v>
+      <c r="AG100" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7763,6 +7764,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility Review" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
@@ -53,7 +53,6 @@
     <definedName name="YesOrNo">'DD Menu'!$K$4:$K$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -93,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issue_Severity">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -102,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -111,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues Location" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -2421,12 +2420,7 @@
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4248,7 +4242,7 @@
   </sheetPr>
   <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -6526,8 +6520,8 @@
   </sheetPr>
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility Review" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity" hidden="1">Charts!$B$4:$C$12</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
@@ -92,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issue_Severity">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -101,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -110,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues Location" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1859,6 +1859,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFD505"/>
       <color rgb="FFFF4747"/>
       <color rgb="FFFF2525"/>
       <color rgb="FFFF4F4F"/>
@@ -1867,7 +1868,6 @@
       <color rgb="FF00D661"/>
       <color rgb="FFBC0000"/>
       <color rgb="FFFF6161"/>
-      <color rgb="FFFFD505"/>
       <color rgb="FF91CE4E"/>
     </mruColors>
   </colors>
@@ -3352,14 +3352,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -3370,7 +3370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11601450" y="9458324"/>
+          <a:off x="11601450" y="11477624"/>
           <a:ext cx="4095750" cy="8486776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3444,9 +3444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>457202</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3456,9 +3456,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="11582400" y="3467098"/>
-          <a:ext cx="4143375" cy="5667377"/>
-          <a:chOff x="12668250" y="3733798"/>
-          <a:chExt cx="2423774" cy="5667377"/>
+          <a:ext cx="4143377" cy="7772402"/>
+          <a:chOff x="12668249" y="3733798"/>
+          <a:chExt cx="2423775" cy="7772402"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3695,7 +3695,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12668250" y="8258175"/>
+            <a:off x="12668249" y="10363200"/>
             <a:ext cx="2419350" cy="1143000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3823,6 +3823,114 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>459163</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591925" y="8000999"/>
+          <a:ext cx="4135813" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD505"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The report generator does not check Quizzes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> or Assignments</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="628650" lvl="1" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>These will have to be manually checked</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> along with fixing the issues found</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>If you used this program to check a directory of files this of course does not check any content that is online (in Buzz</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> this would mean and Rich Text Content / Quizzes / Assessments)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>This does not check color.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4242,8 +4350,8 @@
   </sheetPr>
   <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6520,7 +6628,7 @@
   </sheetPr>
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="S27" sqref="S27:S28"/>
     </sheetView>
   </sheetViews>
@@ -6665,8 +6773,8 @@
   </sheetPr>
   <dimension ref="B1:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P10"/>
+    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7566,8 +7674,8 @@
     <col min="9" max="9" width="21.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
     <col min="11" max="26" width="30.7109375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="2"/>
+    <col min="27" max="28" width="11.140625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="11.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -19,9 +19,9 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
@@ -92,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issue_Severity">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -101,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -110,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues Location" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1926,7 +1926,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2314,9 +2313,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2417,7 +2414,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3929,6 +3925,33 @@
             <a:t>This does not check color.</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>This report is not perfect and is to be used as a guide</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="628650" lvl="1" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Some items may not need to be changed, as well as some items that should be changed may not be found</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -19,9 +19,9 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity" hidden="1">Charts!$B$4:$C$12</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
@@ -92,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issue_Severity">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -101,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -110,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues Location" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1926,6 +1926,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2313,7 +2314,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2414,6 +2417,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3874,34 +3878,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>The report generator does not check Quizzes</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> or Assignments</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="628650" lvl="1" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>These will have to be manually checked</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> along with fixing the issues found</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr marL="171450" lvl="0" indent="-171450">
             <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:buChar char="•"/>
@@ -3950,7 +3926,10 @@
             <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:buChar char="•"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The report can only check quizzes if your account has the correct authorization</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4373,8 +4352,8 @@
   </sheetPr>
   <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -19,9 +19,9 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
@@ -92,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issue_Severity">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -101,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -110,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues Location" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1926,7 +1926,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2314,9 +2313,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2417,7 +2414,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3928,7 +3924,17 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The report can only check quizzes if your account has the correct authorization</a:t>
+            <a:t>The program can only check quizzes if your account has the correct authorization</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The program can not check if rubric tables are accessible</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4352,7 +4358,7 @@
   </sheetPr>
   <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -19,9 +19,9 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity" hidden="1">Charts!$B$4:$C$12</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
@@ -92,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issue_Severity">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -101,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -110,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues Location" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1926,6 +1926,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2313,7 +2314,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2414,6 +2417,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3348,14 +3352,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -3366,7 +3370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11601450" y="11477624"/>
+          <a:off x="11601450" y="11725274"/>
           <a:ext cx="4095750" cy="8486776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3434,14 +3438,14 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>457202</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3451,7 +3455,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11582400" y="3467098"/>
+          <a:off x="11591925" y="3848098"/>
           <a:ext cx="4143377" cy="7772402"/>
           <a:chOff x="12668249" y="3733798"/>
           <a:chExt cx="2423775" cy="7772402"/>
@@ -3823,16 +3827,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>459163</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>468688</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3841,8 +3845,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11591925" y="8000999"/>
-          <a:ext cx="4135813" cy="1990725"/>
+          <a:off x="11601450" y="7934324"/>
+          <a:ext cx="4135813" cy="2419351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3934,7 +3938,21 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The program can not check if rubric tables are accessible</a:t>
+            <a:t>The program can not check if rubric tables are accessibl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>e</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>The program also cannot tell if a Language course is using the correct language tags for screen readers</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4358,8 +4376,8 @@
   </sheetPr>
   <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6637,7 +6655,7 @@
   <dimension ref="B2:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27:S28"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -19,9 +19,9 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
@@ -92,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issue_Severity">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -101,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -110,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues Location" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1315,9 +1315,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1396,6 +1393,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1926,7 +1926,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2314,9 +2313,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2417,7 +2414,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3126,14 +3122,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>189297</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>532202</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>64413</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3143,7 +3139,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="11581197" y="190500"/>
-          <a:ext cx="4219580" cy="3207663"/>
+          <a:ext cx="4219580" cy="2362200"/>
           <a:chOff x="10086057" y="-16668"/>
           <a:chExt cx="3886226" cy="3714407"/>
         </a:xfrm>
@@ -3173,8 +3169,8 @@
           </a:xfrm>
           <a:grpFill/>
         </xdr:grpSpPr>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-          <mc:Choice Requires="sle15">
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
             <xdr:graphicFrame macro="">
               <xdr:nvGraphicFramePr>
                 <xdr:cNvPr id="3" name="Issue Type"/>
@@ -3191,7 +3187,7 @@
               </a:graphic>
             </xdr:graphicFrame>
           </mc:Choice>
-          <mc:Fallback xmlns="">
+          <mc:Fallback>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="0" name=""/>
@@ -3201,8 +3197,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="13616031" y="378758"/>
-                  <a:ext cx="2184746" cy="3202642"/>
+                  <a:off x="13616031" y="195847"/>
+                  <a:ext cx="2184746" cy="2351520"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -3230,8 +3226,8 @@
             </xdr:sp>
           </mc:Fallback>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-          <mc:Choice Requires="sle15">
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
             <xdr:graphicFrame macro="">
               <xdr:nvGraphicFramePr>
                 <xdr:cNvPr id="4" name="Severity"/>
@@ -3248,7 +3244,7 @@
               </a:graphic>
             </xdr:graphicFrame>
           </mc:Choice>
-          <mc:Fallback xmlns="">
+          <mc:Fallback>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="0" name=""/>
@@ -3258,8 +3254,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="11590726" y="371475"/>
-                  <a:ext cx="1990555" cy="1591348"/>
+                  <a:off x="11590726" y="190500"/>
+                  <a:ext cx="1990555" cy="1168437"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -3288,8 +3284,8 @@
           </mc:Fallback>
         </mc:AlternateContent>
       </xdr:grpSp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-        <mc:Choice Requires="sle15">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="8" name="Completion"/>
@@ -3306,7 +3302,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback xmlns="">
+        <mc:Fallback>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -3316,8 +3312,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="11581197" y="2005271"/>
-                <a:ext cx="1991931" cy="1583392"/>
+                <a:off x="11581197" y="1390104"/>
+                <a:ext cx="1991931" cy="1162596"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3351,116 +3347,101 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:colOff>506787</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9" title="Review Overview"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11601450" y="11725274"/>
-          <a:ext cx="4095750" cy="8486776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln/>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="0"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="548640" tIns="182880" rIns="274320" bIns="182880" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Overview Notes:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>
-            </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>466727</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvPr id="2" name="Group 1"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11591925" y="3848098"/>
-          <a:ext cx="4143377" cy="7772402"/>
-          <a:chOff x="12668249" y="3733798"/>
-          <a:chExt cx="2423775" cy="7772402"/>
+          <a:off x="11639549" y="2628898"/>
+          <a:ext cx="4135813" cy="16630652"/>
+          <a:chOff x="11639549" y="2628898"/>
+          <a:chExt cx="4135813" cy="16630652"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="" fLocksText="0">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9" title="Review Overview"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11659580" y="10772774"/>
+            <a:ext cx="4095750" cy="8486776"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln/>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="548640" tIns="182880" rIns="274320" bIns="182880" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1"/>
+              <a:t>Overview Notes:</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr lvl="0"/>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr lvl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>
+            </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -3468,8 +3449,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12668250" y="3733798"/>
-            <a:ext cx="2419350" cy="3343276"/>
+            <a:off x="11639549" y="2628898"/>
+            <a:ext cx="4135812" cy="3343276"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3615,8 +3596,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12672674" y="7191375"/>
-            <a:ext cx="2419350" cy="952500"/>
+            <a:off x="11639549" y="6057900"/>
+            <a:ext cx="4135812" cy="952500"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3695,8 +3676,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12668249" y="10363200"/>
-            <a:ext cx="2419350" cy="1143000"/>
+            <a:off x="11639549" y="9553575"/>
+            <a:ext cx="4135812" cy="1143000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3822,141 +3803,126 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11639549" y="7077074"/>
+            <a:ext cx="4135813" cy="2419351"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFD505"/>
+          </a:solidFill>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="171450" lvl="0" indent="-171450">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>If you used this program to check a directory of files this of course does not check any content that is online (in Buzz</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> this would mean and Rich Text Content / Quizzes / Assessments)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="171450" lvl="0" indent="-171450">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>This does not check color.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="171450" lvl="0" indent="-171450">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>This report is not perfect and is to be used as a guide</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="628650" lvl="1" indent="-171450">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Some items may not need to be changed, as well as some items that should be changed may not be found</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="171450" lvl="0" indent="-171450">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>The program can only check quizzes if your account has the correct authorization</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="171450" lvl="0" indent="-171450">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>The program can not check if rubric tables are accessibl</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+              <a:t>e</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="171450" lvl="0" indent="-171450">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>The program also cannot tell if a Language course is using the correct language tags for screen readers</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>468688</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11601450" y="7934324"/>
-          <a:ext cx="4135813" cy="2419351"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD505"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="171450" lvl="0" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>If you used this program to check a directory of files this of course does not check any content that is online (in Buzz</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> this would mean and Rich Text Content / Quizzes / Assessments)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" lvl="0" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>This does not check color.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" lvl="0" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>This report is not perfect and is to be used as a guide</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="628650" lvl="1" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Some items may not need to be changed, as well as some items that should be changed may not be found</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" lvl="0" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The program can only check quizzes if your account has the correct authorization</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" lvl="0" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The program can not check if rubric tables are accessibl</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>e</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" lvl="0" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>The program also cannot tell if a Language course is using the correct language tags for screen readers</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4377,7 +4343,7 @@
   <dimension ref="B1:L155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4387,7 +4353,7 @@
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="43" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
@@ -4432,7 +4398,7 @@
       <c r="J3" s="80"/>
     </row>
     <row r="4" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="77"/>
@@ -4465,10 +4431,10 @@
       <c r="D6" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4497,10 +4463,10 @@
       <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G8" s="16" t="s">
@@ -4525,7 +4491,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="50">
+      <c r="J9" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4540,7 +4506,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="50">
+      <c r="J10" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4555,7 +4521,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="50">
+      <c r="J11" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4570,7 +4536,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="50">
+      <c r="J12" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4585,7 +4551,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="50">
+      <c r="J13" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4601,7 +4567,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="50">
+      <c r="J14" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4617,7 +4583,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="50">
+      <c r="J15" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4633,7 +4599,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="50">
+      <c r="J16" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4649,7 +4615,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="50">
+      <c r="J17" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4665,7 +4631,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="50">
+      <c r="J18" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4681,7 +4647,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="50">
+      <c r="J19" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4697,7 +4663,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="50">
+      <c r="J20" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4713,7 +4679,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="50">
+      <c r="J21" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4728,7 +4694,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="50">
+      <c r="J22" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4743,7 +4709,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="50">
+      <c r="J23" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4758,7 +4724,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="50">
+      <c r="J24" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4773,7 +4739,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="50">
+      <c r="J25" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4788,7 +4754,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="50">
+      <c r="J26" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4803,7 +4769,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="50">
+      <c r="J27" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4818,7 +4784,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="50">
+      <c r="J28" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
@@ -4833,1735 +4799,1735 @@
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="50">
+      <c r="J29" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
-      <c r="C30" s="58"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="60"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="50">
+      <c r="J30" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
-      <c r="C31" s="58"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="60"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="50">
+      <c r="J31" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
-      <c r="C32" s="58"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="50">
+      <c r="J32" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
-      <c r="C33" s="58"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="60"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="50">
+      <c r="J33" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="17"/>
-      <c r="C34" s="58"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="60"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="50">
+      <c r="J34" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
-      <c r="C35" s="58"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="60"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="50">
+      <c r="J35" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
-      <c r="C36" s="58"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="60"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="50">
+      <c r="J36" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="17"/>
-      <c r="C37" s="58"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="50">
+      <c r="J37" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
-      <c r="C38" s="58"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="60"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="50">
+      <c r="J38" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
-      <c r="C39" s="58"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="60"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="59"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="50">
+      <c r="J39" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
-      <c r="C40" s="58"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="26"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="60"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="50">
+      <c r="J40" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="17"/>
-      <c r="C41" s="58"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="26"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="60"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="59"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="50">
+      <c r="J41" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
-      <c r="C42" s="58"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="26"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="60"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="50">
+      <c r="J42" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="17"/>
-      <c r="C43" s="58"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="60"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="59"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="50">
+      <c r="J43" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
-      <c r="C44" s="58"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="60"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="50">
+      <c r="J44" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="17"/>
-      <c r="C45" s="58"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="60"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="50">
+      <c r="J45" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
-      <c r="C46" s="58"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="61"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="50">
+      <c r="J46" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
-      <c r="C47" s="58"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="26"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="61"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="60"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="64">
+      <c r="J47" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
-      <c r="C48" s="58"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="61"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="50">
+      <c r="J48" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
-      <c r="C49" s="58"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="61"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="50">
+      <c r="J49" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
-      <c r="C50" s="58"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="61"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="50">
+      <c r="J50" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="17"/>
-      <c r="C51" s="58"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="61"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="60"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="50">
+      <c r="J51" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="17"/>
-      <c r="C52" s="58"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="26"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="61"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="60"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="50">
+      <c r="J52" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
-      <c r="C53" s="58"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="26"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="61"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="50">
+      <c r="J53" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="17"/>
-      <c r="C54" s="58"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="26"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="61"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="60"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="50">
+      <c r="J54" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
-      <c r="C55" s="58"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="26"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="61"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="60"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="50">
+      <c r="J55" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="17"/>
-      <c r="C56" s="58"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="26"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="61"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="60"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="50">
+      <c r="J56" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="17"/>
-      <c r="C57" s="58"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="26"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="61"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="60"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
-      <c r="J57" s="50">
+      <c r="J57" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="17"/>
-      <c r="C58" s="58"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="26"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="61"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="60"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
-      <c r="J58" s="50">
+      <c r="J58" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" s="17"/>
-      <c r="C59" s="58"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="26"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="61"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="60"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
-      <c r="J59" s="50">
+      <c r="J59" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" s="17"/>
-      <c r="C60" s="58"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="26"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="61"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="60"/>
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
-      <c r="J60" s="50">
+      <c r="J60" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="17"/>
-      <c r="C61" s="58"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="26"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="61"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
-      <c r="J61" s="50">
+      <c r="J61" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B62" s="17"/>
-      <c r="C62" s="58"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="26"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="61"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
-      <c r="J62" s="50">
+      <c r="J62" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
-      <c r="C63" s="58"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="26"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="61"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="60"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
-      <c r="J63" s="50">
+      <c r="J63" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B64" s="17"/>
-      <c r="C64" s="58"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="26"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="61"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="60"/>
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
-      <c r="J64" s="50">
+      <c r="J64" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B65" s="17"/>
-      <c r="C65" s="58"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="26"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="61"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="60"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
-      <c r="J65" s="50">
+      <c r="J65" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B66" s="17"/>
-      <c r="C66" s="58"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="26"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="61"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="60"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
-      <c r="J66" s="50">
+      <c r="J66" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B67" s="17"/>
-      <c r="C67" s="58"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="26"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="61"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="60"/>
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
-      <c r="J67" s="50">
+      <c r="J67" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B68" s="17"/>
-      <c r="C68" s="58"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="26"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="61"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="60"/>
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
-      <c r="J68" s="50">
+      <c r="J68" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B69" s="17"/>
-      <c r="C69" s="58"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="26"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="61"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="60"/>
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
-      <c r="J69" s="50">
+      <c r="J69" s="49">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B70" s="17"/>
-      <c r="C70" s="59"/>
+      <c r="C70" s="58"/>
       <c r="D70" s="26"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="64">
+      <c r="E70" s="58"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B71" s="17"/>
-      <c r="C71" s="59"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="26"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="64">
+      <c r="E71" s="58"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B72" s="17"/>
-      <c r="C72" s="59"/>
+      <c r="C72" s="58"/>
       <c r="D72" s="26"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="64">
+      <c r="E72" s="58"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B73" s="17"/>
-      <c r="C73" s="59"/>
+      <c r="C73" s="58"/>
       <c r="D73" s="26"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="64">
+      <c r="E73" s="58"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B74" s="17"/>
-      <c r="C74" s="59"/>
+      <c r="C74" s="58"/>
       <c r="D74" s="26"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="64">
+      <c r="E74" s="58"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B75" s="17"/>
-      <c r="C75" s="59"/>
+      <c r="C75" s="58"/>
       <c r="D75" s="26"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="64">
+      <c r="E75" s="58"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B76" s="17"/>
-      <c r="C76" s="59"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="26"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="64">
+      <c r="E76" s="58"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B77" s="17"/>
-      <c r="C77" s="59"/>
+      <c r="C77" s="58"/>
       <c r="D77" s="26"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="64">
+      <c r="E77" s="58"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
-      <c r="C78" s="59"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="26"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="64">
+      <c r="E78" s="58"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B79" s="17"/>
-      <c r="C79" s="59"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="26"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="64">
+      <c r="E79" s="58"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B80" s="17"/>
-      <c r="C80" s="59"/>
+      <c r="C80" s="58"/>
       <c r="D80" s="26"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="64">
+      <c r="E80" s="58"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
-      <c r="C81" s="59"/>
+      <c r="C81" s="58"/>
       <c r="D81" s="26"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="64">
+      <c r="E81" s="58"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B82" s="17"/>
-      <c r="C82" s="59"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="26"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="64">
+      <c r="E82" s="58"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
-      <c r="C83" s="59"/>
+      <c r="C83" s="58"/>
       <c r="D83" s="26"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="64">
+      <c r="E83" s="58"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B84" s="17"/>
-      <c r="C84" s="59"/>
+      <c r="C84" s="58"/>
       <c r="D84" s="26"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="64">
+      <c r="E84" s="58"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B85" s="17"/>
-      <c r="C85" s="59"/>
+      <c r="C85" s="58"/>
       <c r="D85" s="26"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="63"/>
-      <c r="H85" s="63"/>
-      <c r="I85" s="63"/>
-      <c r="J85" s="64">
+      <c r="E85" s="58"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B86" s="17"/>
-      <c r="C86" s="59"/>
+      <c r="C86" s="58"/>
       <c r="D86" s="26"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="64">
+      <c r="E86" s="58"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B87" s="17"/>
-      <c r="C87" s="59"/>
+      <c r="C87" s="58"/>
       <c r="D87" s="26"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="63"/>
-      <c r="J87" s="64">
+      <c r="E87" s="58"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
-      <c r="C88" s="59"/>
+      <c r="C88" s="58"/>
       <c r="D88" s="26"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="64">
+      <c r="E88" s="58"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B89" s="17"/>
-      <c r="C89" s="59"/>
+      <c r="C89" s="58"/>
       <c r="D89" s="26"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
-      <c r="J89" s="64">
+      <c r="E89" s="58"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B90" s="17"/>
-      <c r="C90" s="59"/>
+      <c r="C90" s="58"/>
       <c r="D90" s="26"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="64">
+      <c r="E90" s="58"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B91" s="17"/>
-      <c r="C91" s="59"/>
+      <c r="C91" s="58"/>
       <c r="D91" s="26"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="63"/>
-      <c r="H91" s="63"/>
-      <c r="I91" s="63"/>
-      <c r="J91" s="64">
+      <c r="E91" s="58"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="62"/>
+      <c r="I91" s="62"/>
+      <c r="J91" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B92" s="17"/>
-      <c r="C92" s="59"/>
+      <c r="C92" s="58"/>
       <c r="D92" s="26"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="63"/>
-      <c r="H92" s="63"/>
-      <c r="I92" s="63"/>
-      <c r="J92" s="64">
+      <c r="E92" s="58"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
-      <c r="C93" s="59"/>
+      <c r="C93" s="58"/>
       <c r="D93" s="26"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="63"/>
-      <c r="H93" s="63"/>
-      <c r="I93" s="63"/>
-      <c r="J93" s="64">
+      <c r="E93" s="58"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="62"/>
+      <c r="J93" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B94" s="17"/>
-      <c r="C94" s="59"/>
+      <c r="C94" s="58"/>
       <c r="D94" s="26"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="62"/>
-      <c r="G94" s="63"/>
-      <c r="H94" s="63"/>
-      <c r="I94" s="63"/>
-      <c r="J94" s="64">
+      <c r="E94" s="58"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="62"/>
+      <c r="I94" s="62"/>
+      <c r="J94" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
-      <c r="C95" s="59"/>
+      <c r="C95" s="58"/>
       <c r="D95" s="26"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="63"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="63"/>
-      <c r="J95" s="64">
+      <c r="E95" s="58"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="62"/>
+      <c r="I95" s="62"/>
+      <c r="J95" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B96" s="17"/>
-      <c r="C96" s="59"/>
+      <c r="C96" s="58"/>
       <c r="D96" s="26"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="63"/>
-      <c r="H96" s="63"/>
-      <c r="I96" s="63"/>
-      <c r="J96" s="64">
+      <c r="E96" s="58"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B97" s="17"/>
-      <c r="C97" s="59"/>
+      <c r="C97" s="58"/>
       <c r="D97" s="26"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="63"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="63"/>
-      <c r="J97" s="64">
+      <c r="E97" s="58"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B98" s="17"/>
-      <c r="C98" s="59"/>
+      <c r="C98" s="58"/>
       <c r="D98" s="26"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="63"/>
-      <c r="H98" s="63"/>
-      <c r="I98" s="63"/>
-      <c r="J98" s="64">
+      <c r="E98" s="58"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="62"/>
+      <c r="J98" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B99" s="17"/>
-      <c r="C99" s="59"/>
+      <c r="C99" s="58"/>
       <c r="D99" s="26"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="63"/>
-      <c r="J99" s="64">
+      <c r="E99" s="58"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="62"/>
+      <c r="J99" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B100" s="17"/>
-      <c r="C100" s="59"/>
+      <c r="C100" s="58"/>
       <c r="D100" s="26"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="63"/>
-      <c r="I100" s="63"/>
-      <c r="J100" s="64">
+      <c r="E100" s="58"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="62"/>
+      <c r="J100" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B101" s="17"/>
-      <c r="C101" s="59"/>
+      <c r="C101" s="58"/>
       <c r="D101" s="26"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="63"/>
-      <c r="J101" s="64">
+      <c r="E101" s="58"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="62"/>
+      <c r="I101" s="62"/>
+      <c r="J101" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B102" s="17"/>
-      <c r="C102" s="59"/>
+      <c r="C102" s="58"/>
       <c r="D102" s="26"/>
-      <c r="E102" s="59"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="63"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="63"/>
-      <c r="J102" s="64">
+      <c r="E102" s="58"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="62"/>
+      <c r="J102" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B103" s="17"/>
-      <c r="C103" s="59"/>
+      <c r="C103" s="58"/>
       <c r="D103" s="26"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="63"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="63"/>
-      <c r="J103" s="64">
+      <c r="E103" s="58"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="62"/>
+      <c r="J103" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
-      <c r="C104" s="59"/>
+      <c r="C104" s="58"/>
       <c r="D104" s="26"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="63"/>
-      <c r="H104" s="63"/>
-      <c r="I104" s="63"/>
-      <c r="J104" s="64">
+      <c r="E104" s="58"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="62"/>
+      <c r="H104" s="62"/>
+      <c r="I104" s="62"/>
+      <c r="J104" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
-      <c r="C105" s="59"/>
+      <c r="C105" s="58"/>
       <c r="D105" s="26"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="63"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="64">
+      <c r="E105" s="58"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B106" s="17"/>
-      <c r="C106" s="59"/>
+      <c r="C106" s="58"/>
       <c r="D106" s="26"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="63"/>
-      <c r="H106" s="63"/>
-      <c r="I106" s="63"/>
-      <c r="J106" s="64">
+      <c r="E106" s="58"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="62"/>
+      <c r="J106" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
-      <c r="C107" s="59"/>
+      <c r="C107" s="58"/>
       <c r="D107" s="26"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="63"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="63"/>
-      <c r="J107" s="64">
+      <c r="E107" s="58"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="62"/>
+      <c r="J107" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B108" s="17"/>
-      <c r="C108" s="59"/>
+      <c r="C108" s="58"/>
       <c r="D108" s="26"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="62"/>
-      <c r="G108" s="63"/>
-      <c r="H108" s="63"/>
-      <c r="I108" s="63"/>
-      <c r="J108" s="64">
+      <c r="E108" s="58"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="62"/>
+      <c r="J108" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
-      <c r="C109" s="59"/>
+      <c r="C109" s="58"/>
       <c r="D109" s="26"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="62"/>
-      <c r="G109" s="63"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="63"/>
-      <c r="J109" s="64">
+      <c r="E109" s="58"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B110" s="17"/>
-      <c r="C110" s="59"/>
+      <c r="C110" s="58"/>
       <c r="D110" s="26"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="63"/>
-      <c r="H110" s="63"/>
-      <c r="I110" s="63"/>
-      <c r="J110" s="64">
+      <c r="E110" s="58"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="62"/>
+      <c r="I110" s="62"/>
+      <c r="J110" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B111" s="17"/>
-      <c r="C111" s="59"/>
+      <c r="C111" s="58"/>
       <c r="D111" s="26"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="63"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="63"/>
-      <c r="J111" s="64">
+      <c r="E111" s="58"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B112" s="17"/>
-      <c r="C112" s="59"/>
+      <c r="C112" s="58"/>
       <c r="D112" s="26"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="63"/>
-      <c r="H112" s="63"/>
-      <c r="I112" s="63"/>
-      <c r="J112" s="64">
+      <c r="E112" s="58"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62"/>
+      <c r="I112" s="62"/>
+      <c r="J112" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B113" s="17"/>
-      <c r="C113" s="59"/>
+      <c r="C113" s="58"/>
       <c r="D113" s="26"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="63"/>
-      <c r="J113" s="64">
+      <c r="E113" s="58"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="62"/>
+      <c r="J113" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B114" s="17"/>
-      <c r="C114" s="59"/>
+      <c r="C114" s="58"/>
       <c r="D114" s="26"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="62"/>
-      <c r="G114" s="63"/>
-      <c r="H114" s="63"/>
-      <c r="I114" s="63"/>
-      <c r="J114" s="64">
+      <c r="E114" s="58"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
+      <c r="I114" s="62"/>
+      <c r="J114" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B115" s="17"/>
-      <c r="C115" s="59"/>
+      <c r="C115" s="58"/>
       <c r="D115" s="26"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="63"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="63"/>
-      <c r="J115" s="64">
+      <c r="E115" s="58"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62"/>
+      <c r="I115" s="62"/>
+      <c r="J115" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B116" s="17"/>
-      <c r="C116" s="59"/>
+      <c r="C116" s="58"/>
       <c r="D116" s="26"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="62"/>
-      <c r="G116" s="63"/>
-      <c r="H116" s="63"/>
-      <c r="I116" s="63"/>
-      <c r="J116" s="64">
+      <c r="E116" s="58"/>
+      <c r="F116" s="61"/>
+      <c r="G116" s="62"/>
+      <c r="H116" s="62"/>
+      <c r="I116" s="62"/>
+      <c r="J116" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B117" s="17"/>
-      <c r="C117" s="59"/>
+      <c r="C117" s="58"/>
       <c r="D117" s="26"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="63"/>
-      <c r="H117" s="63"/>
-      <c r="I117" s="63"/>
-      <c r="J117" s="64">
+      <c r="E117" s="58"/>
+      <c r="F117" s="61"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="62"/>
+      <c r="I117" s="62"/>
+      <c r="J117" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B118" s="17"/>
-      <c r="C118" s="59"/>
+      <c r="C118" s="58"/>
       <c r="D118" s="26"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="62"/>
-      <c r="G118" s="63"/>
-      <c r="H118" s="63"/>
-      <c r="I118" s="63"/>
-      <c r="J118" s="64">
+      <c r="E118" s="58"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="62"/>
+      <c r="H118" s="62"/>
+      <c r="I118" s="62"/>
+      <c r="J118" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B119" s="17"/>
-      <c r="C119" s="59"/>
+      <c r="C119" s="58"/>
       <c r="D119" s="26"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="63"/>
-      <c r="H119" s="63"/>
-      <c r="I119" s="63"/>
-      <c r="J119" s="64">
+      <c r="E119" s="58"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
+      <c r="I119" s="62"/>
+      <c r="J119" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B120" s="17"/>
-      <c r="C120" s="59"/>
+      <c r="C120" s="58"/>
       <c r="D120" s="26"/>
-      <c r="E120" s="59"/>
-      <c r="F120" s="62"/>
-      <c r="G120" s="63"/>
-      <c r="H120" s="63"/>
-      <c r="I120" s="63"/>
-      <c r="J120" s="64">
+      <c r="E120" s="58"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="62"/>
+      <c r="H120" s="62"/>
+      <c r="I120" s="62"/>
+      <c r="J120" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B121" s="17"/>
-      <c r="C121" s="59"/>
+      <c r="C121" s="58"/>
       <c r="D121" s="26"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="62"/>
-      <c r="G121" s="63"/>
-      <c r="H121" s="63"/>
-      <c r="I121" s="63"/>
-      <c r="J121" s="64">
+      <c r="E121" s="58"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="62"/>
+      <c r="I121" s="62"/>
+      <c r="J121" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B122" s="17"/>
-      <c r="C122" s="59"/>
+      <c r="C122" s="58"/>
       <c r="D122" s="26"/>
-      <c r="E122" s="59"/>
-      <c r="F122" s="62"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="64">
+      <c r="E122" s="58"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="62"/>
+      <c r="I122" s="62"/>
+      <c r="J122" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B123" s="17"/>
-      <c r="C123" s="59"/>
+      <c r="C123" s="58"/>
       <c r="D123" s="26"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="62"/>
-      <c r="G123" s="63"/>
-      <c r="H123" s="63"/>
-      <c r="I123" s="63"/>
-      <c r="J123" s="64">
+      <c r="E123" s="58"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="62"/>
+      <c r="I123" s="62"/>
+      <c r="J123" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B124" s="17"/>
-      <c r="C124" s="59"/>
+      <c r="C124" s="58"/>
       <c r="D124" s="26"/>
-      <c r="E124" s="59"/>
-      <c r="F124" s="62"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="64">
+      <c r="E124" s="58"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="62"/>
+      <c r="H124" s="62"/>
+      <c r="I124" s="62"/>
+      <c r="J124" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B125" s="17"/>
-      <c r="C125" s="59"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="26"/>
-      <c r="E125" s="59"/>
-      <c r="F125" s="62"/>
-      <c r="G125" s="63"/>
-      <c r="H125" s="63"/>
-      <c r="I125" s="63"/>
-      <c r="J125" s="64">
+      <c r="E125" s="58"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="62"/>
+      <c r="I125" s="62"/>
+      <c r="J125" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B126" s="17"/>
-      <c r="C126" s="59"/>
+      <c r="C126" s="58"/>
       <c r="D126" s="26"/>
-      <c r="E126" s="59"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="64">
+      <c r="E126" s="58"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="62"/>
+      <c r="H126" s="62"/>
+      <c r="I126" s="62"/>
+      <c r="J126" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B127" s="17"/>
-      <c r="C127" s="59"/>
+      <c r="C127" s="58"/>
       <c r="D127" s="26"/>
-      <c r="E127" s="59"/>
-      <c r="F127" s="62"/>
-      <c r="G127" s="63"/>
-      <c r="H127" s="63"/>
-      <c r="I127" s="63"/>
-      <c r="J127" s="64">
+      <c r="E127" s="58"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="62"/>
+      <c r="H127" s="62"/>
+      <c r="I127" s="62"/>
+      <c r="J127" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B128" s="17"/>
-      <c r="C128" s="59"/>
+      <c r="C128" s="58"/>
       <c r="D128" s="26"/>
-      <c r="E128" s="59"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="63"/>
-      <c r="H128" s="63"/>
-      <c r="I128" s="63"/>
-      <c r="J128" s="64">
+      <c r="E128" s="58"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="62"/>
+      <c r="H128" s="62"/>
+      <c r="I128" s="62"/>
+      <c r="J128" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B129" s="17"/>
-      <c r="C129" s="59"/>
+      <c r="C129" s="58"/>
       <c r="D129" s="26"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="62"/>
-      <c r="G129" s="63"/>
-      <c r="H129" s="63"/>
-      <c r="I129" s="63"/>
-      <c r="J129" s="64">
+      <c r="E129" s="58"/>
+      <c r="F129" s="61"/>
+      <c r="G129" s="62"/>
+      <c r="H129" s="62"/>
+      <c r="I129" s="62"/>
+      <c r="J129" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B130" s="17"/>
-      <c r="C130" s="59"/>
+      <c r="C130" s="58"/>
       <c r="D130" s="26"/>
-      <c r="E130" s="59"/>
-      <c r="F130" s="62"/>
-      <c r="G130" s="63"/>
-      <c r="H130" s="63"/>
-      <c r="I130" s="63"/>
-      <c r="J130" s="64">
+      <c r="E130" s="58"/>
+      <c r="F130" s="61"/>
+      <c r="G130" s="62"/>
+      <c r="H130" s="62"/>
+      <c r="I130" s="62"/>
+      <c r="J130" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B131" s="17"/>
-      <c r="C131" s="59"/>
+      <c r="C131" s="58"/>
       <c r="D131" s="26"/>
-      <c r="E131" s="59"/>
-      <c r="F131" s="62"/>
-      <c r="G131" s="63"/>
-      <c r="H131" s="63"/>
-      <c r="I131" s="63"/>
-      <c r="J131" s="64">
+      <c r="E131" s="58"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="62"/>
+      <c r="H131" s="62"/>
+      <c r="I131" s="62"/>
+      <c r="J131" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B132" s="17"/>
-      <c r="C132" s="59"/>
+      <c r="C132" s="58"/>
       <c r="D132" s="26"/>
-      <c r="E132" s="59"/>
-      <c r="F132" s="62"/>
-      <c r="G132" s="63"/>
-      <c r="H132" s="63"/>
-      <c r="I132" s="63"/>
-      <c r="J132" s="64">
+      <c r="E132" s="58"/>
+      <c r="F132" s="61"/>
+      <c r="G132" s="62"/>
+      <c r="H132" s="62"/>
+      <c r="I132" s="62"/>
+      <c r="J132" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B133" s="17"/>
-      <c r="C133" s="59"/>
+      <c r="C133" s="58"/>
       <c r="D133" s="26"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="62"/>
-      <c r="G133" s="63"/>
-      <c r="H133" s="63"/>
-      <c r="I133" s="63"/>
-      <c r="J133" s="64">
+      <c r="E133" s="58"/>
+      <c r="F133" s="61"/>
+      <c r="G133" s="62"/>
+      <c r="H133" s="62"/>
+      <c r="I133" s="62"/>
+      <c r="J133" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B134" s="17"/>
-      <c r="C134" s="59"/>
+      <c r="C134" s="58"/>
       <c r="D134" s="26"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="63"/>
-      <c r="H134" s="63"/>
-      <c r="I134" s="63"/>
-      <c r="J134" s="64">
+      <c r="E134" s="58"/>
+      <c r="F134" s="61"/>
+      <c r="G134" s="62"/>
+      <c r="H134" s="62"/>
+      <c r="I134" s="62"/>
+      <c r="J134" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B135" s="17"/>
-      <c r="C135" s="59"/>
+      <c r="C135" s="58"/>
       <c r="D135" s="26"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="62"/>
-      <c r="G135" s="63"/>
-      <c r="H135" s="63"/>
-      <c r="I135" s="63"/>
-      <c r="J135" s="64">
+      <c r="E135" s="58"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="62"/>
+      <c r="H135" s="62"/>
+      <c r="I135" s="62"/>
+      <c r="J135" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B136" s="17"/>
-      <c r="C136" s="59"/>
+      <c r="C136" s="58"/>
       <c r="D136" s="26"/>
-      <c r="E136" s="59"/>
-      <c r="F136" s="62"/>
-      <c r="G136" s="63"/>
-      <c r="H136" s="63"/>
-      <c r="I136" s="63"/>
-      <c r="J136" s="64">
+      <c r="E136" s="58"/>
+      <c r="F136" s="61"/>
+      <c r="G136" s="62"/>
+      <c r="H136" s="62"/>
+      <c r="I136" s="62"/>
+      <c r="J136" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B137" s="17"/>
-      <c r="C137" s="59"/>
+      <c r="C137" s="58"/>
       <c r="D137" s="26"/>
-      <c r="E137" s="59"/>
-      <c r="F137" s="62"/>
-      <c r="G137" s="63"/>
-      <c r="H137" s="63"/>
-      <c r="I137" s="63"/>
-      <c r="J137" s="64">
+      <c r="E137" s="58"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="62"/>
+      <c r="H137" s="62"/>
+      <c r="I137" s="62"/>
+      <c r="J137" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B138" s="17"/>
-      <c r="C138" s="59"/>
+      <c r="C138" s="58"/>
       <c r="D138" s="26"/>
-      <c r="E138" s="59"/>
-      <c r="F138" s="62"/>
-      <c r="G138" s="63"/>
-      <c r="H138" s="63"/>
-      <c r="I138" s="63"/>
-      <c r="J138" s="64">
+      <c r="E138" s="58"/>
+      <c r="F138" s="61"/>
+      <c r="G138" s="62"/>
+      <c r="H138" s="62"/>
+      <c r="I138" s="62"/>
+      <c r="J138" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B139" s="17"/>
-      <c r="C139" s="59"/>
+      <c r="C139" s="58"/>
       <c r="D139" s="26"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="62"/>
-      <c r="G139" s="63"/>
-      <c r="H139" s="63"/>
-      <c r="I139" s="63"/>
-      <c r="J139" s="64">
+      <c r="E139" s="58"/>
+      <c r="F139" s="61"/>
+      <c r="G139" s="62"/>
+      <c r="H139" s="62"/>
+      <c r="I139" s="62"/>
+      <c r="J139" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B140" s="17"/>
-      <c r="C140" s="59"/>
+      <c r="C140" s="58"/>
       <c r="D140" s="26"/>
-      <c r="E140" s="59"/>
-      <c r="F140" s="62"/>
-      <c r="G140" s="63"/>
-      <c r="H140" s="63"/>
-      <c r="I140" s="63"/>
-      <c r="J140" s="64">
+      <c r="E140" s="58"/>
+      <c r="F140" s="61"/>
+      <c r="G140" s="62"/>
+      <c r="H140" s="62"/>
+      <c r="I140" s="62"/>
+      <c r="J140" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B141" s="17"/>
-      <c r="C141" s="59"/>
+      <c r="C141" s="58"/>
       <c r="D141" s="26"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="62"/>
-      <c r="G141" s="63"/>
-      <c r="H141" s="63"/>
-      <c r="I141" s="63"/>
-      <c r="J141" s="64">
+      <c r="E141" s="58"/>
+      <c r="F141" s="61"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="62"/>
+      <c r="I141" s="62"/>
+      <c r="J141" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
-      <c r="C142" s="59"/>
+      <c r="C142" s="58"/>
       <c r="D142" s="26"/>
-      <c r="E142" s="59"/>
-      <c r="F142" s="62"/>
-      <c r="G142" s="63"/>
-      <c r="H142" s="63"/>
-      <c r="I142" s="63"/>
-      <c r="J142" s="64">
+      <c r="E142" s="58"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="62"/>
+      <c r="H142" s="62"/>
+      <c r="I142" s="62"/>
+      <c r="J142" s="63">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
-      <c r="C143" s="66"/>
+      <c r="C143" s="65"/>
       <c r="D143" s="26"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="63"/>
-      <c r="H143" s="63"/>
-      <c r="I143" s="63"/>
-      <c r="J143" s="64"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="66"/>
+      <c r="G143" s="62"/>
+      <c r="H143" s="62"/>
+      <c r="I143" s="62"/>
+      <c r="J143" s="63"/>
     </row>
     <row r="144" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B144" s="17"/>
-      <c r="C144" s="66"/>
+      <c r="C144" s="65"/>
       <c r="D144" s="26"/>
-      <c r="E144" s="66"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="63"/>
-      <c r="H144" s="63"/>
-      <c r="I144" s="63"/>
-      <c r="J144" s="64"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="66"/>
+      <c r="G144" s="62"/>
+      <c r="H144" s="62"/>
+      <c r="I144" s="62"/>
+      <c r="J144" s="63"/>
     </row>
     <row r="145" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
-      <c r="C145" s="66"/>
+      <c r="C145" s="65"/>
       <c r="D145" s="26"/>
-      <c r="E145" s="66"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="63"/>
-      <c r="H145" s="63"/>
-      <c r="I145" s="63"/>
-      <c r="J145" s="64"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="66"/>
+      <c r="G145" s="62"/>
+      <c r="H145" s="62"/>
+      <c r="I145" s="62"/>
+      <c r="J145" s="63"/>
     </row>
     <row r="146" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B146" s="17"/>
-      <c r="C146" s="66"/>
+      <c r="C146" s="65"/>
       <c r="D146" s="26"/>
-      <c r="E146" s="66"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="63"/>
-      <c r="H146" s="63"/>
-      <c r="I146" s="63"/>
-      <c r="J146" s="64"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="66"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="62"/>
+      <c r="I146" s="62"/>
+      <c r="J146" s="63"/>
     </row>
     <row r="147" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B147" s="17"/>
-      <c r="C147" s="66"/>
+      <c r="C147" s="65"/>
       <c r="D147" s="26"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="63"/>
-      <c r="H147" s="63"/>
-      <c r="I147" s="63"/>
-      <c r="J147" s="64"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="66"/>
+      <c r="G147" s="62"/>
+      <c r="H147" s="62"/>
+      <c r="I147" s="62"/>
+      <c r="J147" s="63"/>
     </row>
     <row r="148" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B148" s="17"/>
-      <c r="C148" s="66"/>
+      <c r="C148" s="65"/>
       <c r="D148" s="26"/>
-      <c r="E148" s="66"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="63"/>
-      <c r="H148" s="63"/>
-      <c r="I148" s="63"/>
-      <c r="J148" s="64"/>
+      <c r="E148" s="65"/>
+      <c r="F148" s="66"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="62"/>
+      <c r="I148" s="62"/>
+      <c r="J148" s="63"/>
     </row>
     <row r="149" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B149" s="17"/>
-      <c r="C149" s="66"/>
+      <c r="C149" s="65"/>
       <c r="D149" s="26"/>
-      <c r="E149" s="66"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="63"/>
-      <c r="H149" s="63"/>
-      <c r="I149" s="63"/>
-      <c r="J149" s="64"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="66"/>
+      <c r="G149" s="62"/>
+      <c r="H149" s="62"/>
+      <c r="I149" s="62"/>
+      <c r="J149" s="63"/>
     </row>
     <row r="150" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
-      <c r="C150" s="66"/>
+      <c r="C150" s="65"/>
       <c r="D150" s="26"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="67"/>
-      <c r="G150" s="63"/>
-      <c r="H150" s="63"/>
-      <c r="I150" s="63"/>
-      <c r="J150" s="64"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="66"/>
+      <c r="G150" s="62"/>
+      <c r="H150" s="62"/>
+      <c r="I150" s="62"/>
+      <c r="J150" s="63"/>
     </row>
     <row r="151" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B151" s="17"/>
-      <c r="C151" s="66"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="66"/>
-      <c r="F151" s="67"/>
-      <c r="G151" s="63"/>
-      <c r="H151" s="63"/>
-      <c r="I151" s="63"/>
-      <c r="J151" s="64"/>
+      <c r="C151" s="65"/>
+      <c r="D151" s="67"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="66"/>
+      <c r="G151" s="62"/>
+      <c r="H151" s="62"/>
+      <c r="I151" s="62"/>
+      <c r="J151" s="63"/>
     </row>
     <row r="152" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B152" s="17"/>
-      <c r="C152" s="66"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="67"/>
-      <c r="G152" s="63"/>
-      <c r="H152" s="63"/>
-      <c r="I152" s="63"/>
-      <c r="J152" s="64"/>
+      <c r="C152" s="65"/>
+      <c r="D152" s="67"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="66"/>
+      <c r="G152" s="62"/>
+      <c r="H152" s="62"/>
+      <c r="I152" s="62"/>
+      <c r="J152" s="63"/>
     </row>
     <row r="153" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B153" s="17"/>
-      <c r="C153" s="66"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="63"/>
-      <c r="H153" s="63"/>
-      <c r="I153" s="63"/>
-      <c r="J153" s="64"/>
+      <c r="C153" s="65"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="65"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="62"/>
+      <c r="H153" s="62"/>
+      <c r="I153" s="62"/>
+      <c r="J153" s="63"/>
     </row>
     <row r="154" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
-      <c r="C154" s="66"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="67"/>
-      <c r="G154" s="63"/>
-      <c r="H154" s="63"/>
-      <c r="I154" s="63"/>
-      <c r="J154" s="64"/>
+      <c r="C154" s="65"/>
+      <c r="D154" s="67"/>
+      <c r="E154" s="65"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="62"/>
+      <c r="H154" s="62"/>
+      <c r="I154" s="62"/>
+      <c r="J154" s="63"/>
     </row>
     <row r="155" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
-      <c r="C155" s="66"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="66"/>
-      <c r="F155" s="67"/>
-      <c r="G155" s="63"/>
-      <c r="H155" s="63"/>
-      <c r="I155" s="63"/>
-      <c r="J155" s="64"/>
+      <c r="C155" s="65"/>
+      <c r="D155" s="67"/>
+      <c r="E155" s="65"/>
+      <c r="F155" s="66"/>
+      <c r="G155" s="62"/>
+      <c r="H155" s="62"/>
+      <c r="I155" s="62"/>
+      <c r="J155" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6770,10 +6736,10 @@
     </row>
     <row r="26" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="69"/>
+      <c r="B28" s="68"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
+      <c r="B29" s="68"/>
       <c r="O29" t="str">
         <f>IFERROR(INDEX(Issues[Location],MATCH(0,COUNTIF(#REF!,Issues[Location]),0)),"")</f>
         <v/>
@@ -6940,572 +6906,572 @@
       <c r="S5" s="85"/>
     </row>
     <row r="6" spans="2:19" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="57" t="s">
+      <c r="P6" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="56" t="s">
+      <c r="Q6" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="51" t="s">
+      <c r="R6" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="S6" s="51" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="51" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="51" t="s">
+      <c r="K7" s="51"/>
+      <c r="L7" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="57" t="s">
+      <c r="P7" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="56" t="s">
+      <c r="Q7" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="R7" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="52" t="s">
+      <c r="S7" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="51" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="M8" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="57" t="s">
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="Q8" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="51" t="s">
+      <c r="R8" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="51" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="51" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="M9" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="57" t="s">
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="51" t="s">
+      <c r="Q9" s="55"/>
+      <c r="R9" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="51" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="52" t="s">
+      <c r="M10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="51" t="s">
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="51" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="52"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="51"/>
     </row>
     <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="51"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="52"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
     </row>
     <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="51"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
     </row>
     <row r="14" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="51"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="52"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="51"/>
     </row>
     <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="51"/>
     </row>
     <row r="16" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="51"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="52"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="51"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="52"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="51"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="52"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="51"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="51"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="52"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="51"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="51"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="52"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="51"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="51"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="52"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="51"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="52"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="51"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="51"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="52"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="51"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="51"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="52"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="51"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="52"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="51"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="51"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="52"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="51"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="51"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="52"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="51"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="51"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="52"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7716,10 +7682,10 @@
       </c>
       <c r="F3" s="91"/>
       <c r="G3" s="91"/>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="46" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7737,10 +7703,10 @@
       <c r="G4" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="47">
         <v>1</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="47" t="s">
         <v>110</v>
       </c>
     </row>
@@ -7758,10 +7724,10 @@
       <c r="G5" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="47">
         <v>3</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="47" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7779,10 +7745,10 @@
       <c r="G6" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="47">
         <v>5</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>2</v>
       </c>
     </row>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwilli48\Documents\CanvasReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nltingey\Desktop\AccessibilityTools\CanvasReport-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility Review" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity" hidden="1">Charts!$B$4:$C$12</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
-    <definedName name="Completion">'DD Menu'!$G$5:$G$9</definedName>
+    <definedName name="Completion">'DD Menu'!$G$5:$G$10</definedName>
     <definedName name="Course">'Accessibility Review'!$F$2</definedName>
     <definedName name="CourseComponents">'DD Menu'!$E$5:$E$11</definedName>
     <definedName name="Date">'Accessibility Review'!$I$3</definedName>
@@ -92,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issue_Severity">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -101,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -110,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues Location" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
   <si>
     <t>Complete?</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Exceljet.net</t>
+  </si>
+  <si>
+    <t>Acceptable</t>
   </si>
 </sst>
 </file>
@@ -3169,8 +3172,8 @@
           </a:xfrm>
           <a:grpFill/>
         </xdr:grpSpPr>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+          <mc:Choice Requires="sle15">
             <xdr:graphicFrame macro="">
               <xdr:nvGraphicFramePr>
                 <xdr:cNvPr id="3" name="Issue Type"/>
@@ -3187,7 +3190,7 @@
               </a:graphic>
             </xdr:graphicFrame>
           </mc:Choice>
-          <mc:Fallback>
+          <mc:Fallback xmlns="">
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="0" name=""/>
@@ -3226,8 +3229,8 @@
             </xdr:sp>
           </mc:Fallback>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+          <mc:Choice Requires="sle15">
             <xdr:graphicFrame macro="">
               <xdr:nvGraphicFramePr>
                 <xdr:cNvPr id="4" name="Severity"/>
@@ -3244,7 +3247,7 @@
               </a:graphic>
             </xdr:graphicFrame>
           </mc:Choice>
-          <mc:Fallback>
+          <mc:Fallback xmlns="">
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="0" name=""/>
@@ -3284,8 +3287,8 @@
           </mc:Fallback>
         </mc:AlternateContent>
       </xdr:grpSp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+        <mc:Choice Requires="sle15">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="8" name="Completion"/>
@@ -3302,7 +3305,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -4342,7 +4345,7 @@
   </sheetPr>
   <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -7651,8 +7654,8 @@
   </sheetPr>
   <dimension ref="B2:AG100"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7742,8 +7745,8 @@
       <c r="F6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>117</v>
+      <c r="G6" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="I6" s="47">
         <v>5</v>
@@ -7763,8 +7766,8 @@
       <c r="F7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>119</v>
+      <c r="G7" s="34" t="s">
+        <v>117</v>
       </c>
       <c r="I7" s="40"/>
     </row>
@@ -7776,8 +7779,8 @@
       <c r="F8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="35" t="s">
-        <v>121</v>
+      <c r="G8" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="I8" s="34"/>
     </row>
@@ -7790,7 +7793,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="I9" s="34"/>
     </row>
@@ -7802,7 +7805,9 @@
       <c r="F10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="35" t="s">
+        <v>2</v>
+      </c>
       <c r="I10" s="34"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nltingey\Desktop\AccessibilityTools\CanvasReport-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwilli48\Documents\CanvasReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility Review" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
@@ -92,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issue_Severity">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -101,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -110,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues Location" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -4345,7 +4345,7 @@
   </sheetPr>
   <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -7654,7 +7654,7 @@
   </sheetPr>
   <dimension ref="B2:AG100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwilli48\Documents\CanvasReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nltingey\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility Review" sheetId="2" r:id="rId1"/>
@@ -24,32 +24,32 @@
     <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
-    <definedName name="Color">'Error &amp; Descriptions'!$D$6:$D$8</definedName>
+    <definedName name="Color">'Error &amp; Descriptions'!$D$7:$D$9</definedName>
     <definedName name="Completion">'DD Menu'!$G$5:$G$10</definedName>
     <definedName name="Course">'Accessibility Review'!$F$2</definedName>
     <definedName name="CourseComponents">'DD Menu'!$E$5:$E$11</definedName>
     <definedName name="Date">'Accessibility Review'!$I$3</definedName>
-    <definedName name="DescriptiveErrors">'Error &amp; Descriptions'!$B$2:$S$28</definedName>
+    <definedName name="DescriptiveErrors">'Error &amp; Descriptions'!$B$3:$S$11</definedName>
     <definedName name="Hyperlink">'Accessibility Review'!$D$5</definedName>
-    <definedName name="Image">'Error &amp; Descriptions'!$B$6:$B$10</definedName>
-    <definedName name="Issue_Type">'Error &amp; Descriptions'!$B$4:$R$4</definedName>
+    <definedName name="Image">'Error &amp; Descriptions'!$B$7:$B$11</definedName>
+    <definedName name="Issue_Type">'Error &amp; Descriptions'!$B$5:$R$5</definedName>
     <definedName name="IssueTypes">'DD Menu'!$F$5:$F$14</definedName>
-    <definedName name="Keyboard">'Error &amp; Descriptions'!$F$6:$F$8</definedName>
-    <definedName name="Link">'Error &amp; Descriptions'!$N$6:$N$8</definedName>
-    <definedName name="Media">'Error &amp; Descriptions'!$J$6:$J$8</definedName>
+    <definedName name="Keyboard">'Error &amp; Descriptions'!$F$7:$F$9</definedName>
+    <definedName name="Link">'Error &amp; Descriptions'!$N$7:$N$9</definedName>
+    <definedName name="Media">'Error &amp; Descriptions'!$J$7:$J$9</definedName>
     <definedName name="Method">'Accessibility Review'!$C$4</definedName>
-    <definedName name="Misc">'Error &amp; Descriptions'!$R$6:$R$10</definedName>
+    <definedName name="Misc">'Error &amp; Descriptions'!$R$7:$R$11</definedName>
     <definedName name="Reviewer">'Accessibility Review'!$D$3</definedName>
     <definedName name="Reviewers">'DD Menu'!$C$4:$C$7</definedName>
     <definedName name="RowTitleRegion1..C7">'Accessibility Review'!$B$3</definedName>
     <definedName name="RowTitleRegion2..H4">'Accessibility Review'!$I$3</definedName>
     <definedName name="ScaleValues">'DD Menu'!$I$4:$I$6</definedName>
-    <definedName name="ScreenReader">'Error &amp; Descriptions'!$H$6:$H$8</definedName>
-    <definedName name="Semantics">'Error &amp; Descriptions'!$L$6:$L$9</definedName>
+    <definedName name="ScreenReader">'Error &amp; Descriptions'!$H$7:$H$9</definedName>
+    <definedName name="Semantics">'Error &amp; Descriptions'!$L$7:$L$10</definedName>
     <definedName name="Slicer_Issue_Type">#N/A</definedName>
     <definedName name="Slicer_Severity">#N/A</definedName>
     <definedName name="Slicer_ü?__Y_or_N">#N/A</definedName>
-    <definedName name="Table">'Error &amp; Descriptions'!$P$6:$P$10</definedName>
+    <definedName name="Table">'Error &amp; Descriptions'!$P$7:$P$11</definedName>
     <definedName name="YesOrNo">'DD Menu'!$K$4:$K$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
   <si>
     <t>Complete?</t>
   </si>
@@ -226,21 +226,12 @@
     <t>Focus lost</t>
   </si>
   <si>
-    <t>It is visually apparent which page element has the current keyboard focus (i.e., as you tab through the page, you can see where you are). When a page element receives focus, it does not result in a substantial change to the page, the spawning of a pop-up window, an additional change of keyboard focus, or any other change that could confuse or disorient the user.</t>
-  </si>
-  <si>
     <t>In-sufficient instructions/labels for interactive elements</t>
   </si>
   <si>
-    <t>Screen reader correctly reads information back to user. (Mainly check on videos, tables, interactive elements, forms, buttons, etc.). Text labels are associated with form input elements. Related form elements are grouped with field set/legend. Sufficient labels, cues, and instructions for required interactive elements are provided via instructions, examples, properly positioned form labels, and/or field sets/legends</t>
-  </si>
-  <si>
     <t>Transcript needed</t>
   </si>
   <si>
-    <t>A descriptive text transcript (including all relevant visual and auditory clues and indicators) is provided for non-live, web-based audio (audio podcasts, MP3 files, etc.). Synchronized captions are provided for non-live, web-based video (YouTube videos, etc.). Audio descriptions are provided for all video content (NOTE: Only required if the video conveys content visually that is not available in the default audio track.). Embedded multimedia is identified via accessible text.</t>
-  </si>
-  <si>
     <t>Missing title/label</t>
   </si>
   <si>
@@ -250,15 +241,9 @@
     <t>Non-Descriptive Link</t>
   </si>
   <si>
-    <t>Make sure link text is descriptive. The purpose of each link can be determined from the link text alone, or from the link text and its context. Links don’t use click here method. Also links should not use full URLs unless very short. Links with the same text that go to different locations are readily distinguishable.</t>
-  </si>
-  <si>
     <t>Two-In-One</t>
   </si>
   <si>
-    <t>The table should be split into 2 tables so that there are not overlapping headings</t>
-  </si>
-  <si>
     <t>Flashing content</t>
   </si>
   <si>
@@ -274,9 +259,6 @@
     <t>Conveying Content</t>
   </si>
   <si>
-    <t>Color is not used as the sole method of conveying content or distinguishing visual elements. (Ex. red underline means error, click the green circle.) Color alone is also not used to distinguish links from surrounding text unless the luminance contrast between the link and the surrounding text is at least 3:1 and an additional differentiation (e.g., it becomes underlined) is provided when the link is hovered over or receives focus.</t>
-  </si>
-  <si>
     <t>Illogical order</t>
   </si>
   <si>
@@ -295,15 +277,9 @@
     <t>Broken Link</t>
   </si>
   <si>
-    <t>A link is either in accessible or leads to a "404 Error". In any way, the link cannot be used.</t>
-  </si>
-  <si>
     <t>Missing Headings</t>
   </si>
   <si>
-    <t>This is to help a screen reader read a table correctly</t>
-  </si>
-  <si>
     <t>Not readable when zoomed</t>
   </si>
   <si>
@@ -319,9 +295,6 @@
     <t>Page/Element not navigable</t>
   </si>
   <si>
-    <t>Keyboard focus is never locked or trapped at one particular page element. The user can navigate to and from all navigable page elements using only a keyboard. All page functionality is available using the keyboard, unless the functionality cannot be integrated easily</t>
-  </si>
-  <si>
     <t>Bad use of &lt;i&gt; and/or &lt;b&gt;</t>
   </si>
   <si>
@@ -497,6 +470,45 @@
   </si>
   <si>
     <t>Acceptable</t>
+  </si>
+  <si>
+    <t>Every Image have an alt attribute, even if it is null (alt="").</t>
+  </si>
+  <si>
+    <t>It may be best to link a separate alternative text page underneath the non-text. As a guideline, 250 characters should be sufficent for an alt -text before a long description is necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A descriptive text transcript (including all relevant visual and auditory clues and indicators) is provided for non-live, web-based audio (audio podcasts, MP3 files, etc.). Synchronized captions are provided for non-live, web-based video (YouTube videos, </t>
+  </si>
+  <si>
+    <t>Color is not used as the sole method of conveying content or distinguishing visual elements. (Ex. red underline means error, click the green circle.) Color alone is also not used to distinguish links from surrounding text unless the luminance contrast bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is visually apparent which page element has the current keyboard focus (i.e., as you tab through the page, you can see where you are). When a page element receives focus, it does not result in a substantial change to the page, the spawning of a pop-up </t>
+  </si>
+  <si>
+    <t>Keyboard focus is never locked or trapped at one particular page element. The user can navigate to and from all navigable page elements using only a keyboard. All page functionality is available using the keyboard, unless the functionality cannot be integ</t>
+  </si>
+  <si>
+    <t>Audio descriptions (also called visual descriptions, because they are descriptions of visuals) detail the visually significant information that is taking place in the video. They describe the characters present on the screen and the actions being performe</t>
+  </si>
+  <si>
+    <t>A link is either inaccessible or leads to a "404 Error". In any way, the link cannot be used.</t>
+  </si>
+  <si>
+    <t>Make sure link text is descriptive. The purpose of each link can be determined from the link text alone, or from the link text and its context. Links don’t use click here method. Also links should not use full URLs unless very short.</t>
+  </si>
+  <si>
+    <t>A "row" tag should always go to the header that's for the rows of the table and a "col" tag should always go to the header that's for the columns of the table.</t>
+  </si>
+  <si>
+    <t>The table should be split into 2 tables so that there are not overlapping headings.</t>
+  </si>
+  <si>
+    <t>This is to help a screen reader read a table correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen reader correctly reads information back to user. (Mainly check on videos, tables, interactive elements, forms, buttons, etc.). Text labels are associated with form input elements. Related form elements are grouped with field set/legend. Sufficient </t>
   </si>
 </sst>
 </file>
@@ -510,7 +522,7 @@
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -688,29 +700,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri Light"/>
@@ -724,14 +713,6 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="16"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -751,6 +732,50 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -800,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1075,15 +1100,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1207,7 +1223,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1339,41 +1355,20 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,35 +1431,53 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="24" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="24" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="24" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="25" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="29" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -3820,7 +3833,7 @@
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="FFD505"/>
+            <a:schemeClr val="accent5"/>
           </a:solidFill>
           <a:ln w="19050" cmpd="sng">
             <a:solidFill>
@@ -4340,13 +4353,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
-    <tabColor rgb="FF315D71"/>
+    <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4367,47 +4380,47 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="42"/>
-      <c r="F2" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="F2" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="2:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21"/>
       <c r="C3" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="31"/>
       <c r="H3" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="80"/>
+        <v>78</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="B4" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="25"/>
@@ -4416,13 +4429,13 @@
     <row r="5" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+        <v>81</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
@@ -4432,10 +4445,10 @@
       <c r="B6" s="13"/>
       <c r="C6" s="3"/>
       <c r="D6" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>83</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="3"/>
@@ -4444,45 +4457,45 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
+      <c r="B7" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
@@ -4809,10 +4822,10 @@
     </row>
     <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
-      <c r="C30" s="57"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -4823,10 +4836,10 @@
     </row>
     <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
-      <c r="C31" s="57"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="59"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -4837,10 +4850,10 @@
     </row>
     <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
-      <c r="C32" s="57"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -4851,10 +4864,10 @@
     </row>
     <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
-      <c r="C33" s="57"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -4865,10 +4878,10 @@
     </row>
     <row r="34" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="17"/>
-      <c r="C34" s="57"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -4879,10 +4892,10 @@
     </row>
     <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
-      <c r="C35" s="57"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="59"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -4893,10 +4906,10 @@
     </row>
     <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
-      <c r="C36" s="57"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="59"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -4907,10 +4920,10 @@
     </row>
     <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="17"/>
-      <c r="C37" s="57"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -4921,10 +4934,10 @@
     </row>
     <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
-      <c r="C38" s="57"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="59"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -4935,10 +4948,10 @@
     </row>
     <row r="39" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
-      <c r="C39" s="57"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="59"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -4949,10 +4962,10 @@
     </row>
     <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
-      <c r="C40" s="57"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="26"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="59"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
@@ -4963,10 +4976,10 @@
     </row>
     <row r="41" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="17"/>
-      <c r="C41" s="57"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="26"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="59"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
@@ -4977,10 +4990,10 @@
     </row>
     <row r="42" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
-      <c r="C42" s="57"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="26"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="59"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
@@ -4991,10 +5004,10 @@
     </row>
     <row r="43" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="17"/>
-      <c r="C43" s="57"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="59"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
@@ -5005,10 +5018,10 @@
     </row>
     <row r="44" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
-      <c r="C44" s="57"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
@@ -5019,10 +5032,10 @@
     </row>
     <row r="45" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="17"/>
-      <c r="C45" s="57"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="59"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
@@ -5033,10 +5046,10 @@
     </row>
     <row r="46" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
-      <c r="C46" s="57"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="60"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="53"/>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
@@ -5047,24 +5060,24 @@
     </row>
     <row r="47" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
-      <c r="C47" s="57"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="26"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="60"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="63">
+      <c r="J47" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
-      <c r="C48" s="57"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="60"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
@@ -5075,10 +5088,10 @@
     </row>
     <row r="49" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
-      <c r="C49" s="57"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="60"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
@@ -5089,10 +5102,10 @@
     </row>
     <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
-      <c r="C50" s="57"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="60"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
@@ -5103,10 +5116,10 @@
     </row>
     <row r="51" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="17"/>
-      <c r="C51" s="57"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="60"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
@@ -5117,10 +5130,10 @@
     </row>
     <row r="52" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="17"/>
-      <c r="C52" s="57"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="26"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="60"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="53"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
@@ -5131,10 +5144,10 @@
     </row>
     <row r="53" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
-      <c r="C53" s="57"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="26"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="60"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
@@ -5145,10 +5158,10 @@
     </row>
     <row r="54" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="17"/>
-      <c r="C54" s="57"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="26"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="60"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="53"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
@@ -5159,10 +5172,10 @@
     </row>
     <row r="55" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
-      <c r="C55" s="57"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="26"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="60"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="53"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
@@ -5173,10 +5186,10 @@
     </row>
     <row r="56" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="17"/>
-      <c r="C56" s="57"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="26"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="60"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="53"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
@@ -5187,10 +5200,10 @@
     </row>
     <row r="57" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="17"/>
-      <c r="C57" s="57"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="26"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="60"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="53"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
@@ -5201,10 +5214,10 @@
     </row>
     <row r="58" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="17"/>
-      <c r="C58" s="57"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="26"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="60"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
@@ -5215,10 +5228,10 @@
     </row>
     <row r="59" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" s="17"/>
-      <c r="C59" s="57"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="26"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="60"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="53"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
@@ -5229,10 +5242,10 @@
     </row>
     <row r="60" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" s="17"/>
-      <c r="C60" s="57"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="26"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="60"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="53"/>
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
@@ -5243,10 +5256,10 @@
     </row>
     <row r="61" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="17"/>
-      <c r="C61" s="57"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="26"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="60"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="53"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
@@ -5257,10 +5270,10 @@
     </row>
     <row r="62" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B62" s="17"/>
-      <c r="C62" s="57"/>
+      <c r="C62" s="50"/>
       <c r="D62" s="26"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="60"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="53"/>
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
@@ -5271,10 +5284,10 @@
     </row>
     <row r="63" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
-      <c r="C63" s="57"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="26"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="60"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="53"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
@@ -5285,10 +5298,10 @@
     </row>
     <row r="64" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B64" s="17"/>
-      <c r="C64" s="57"/>
+      <c r="C64" s="50"/>
       <c r="D64" s="26"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="60"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="53"/>
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
@@ -5299,10 +5312,10 @@
     </row>
     <row r="65" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B65" s="17"/>
-      <c r="C65" s="57"/>
+      <c r="C65" s="50"/>
       <c r="D65" s="26"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="60"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="53"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
@@ -5313,10 +5326,10 @@
     </row>
     <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B66" s="17"/>
-      <c r="C66" s="57"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="26"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="60"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
@@ -5327,10 +5340,10 @@
     </row>
     <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B67" s="17"/>
-      <c r="C67" s="57"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="26"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="60"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="53"/>
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
@@ -5341,10 +5354,10 @@
     </row>
     <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B68" s="17"/>
-      <c r="C68" s="57"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="26"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="60"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
@@ -5355,10 +5368,10 @@
     </row>
     <row r="69" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B69" s="17"/>
-      <c r="C69" s="57"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="26"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="60"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="53"/>
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
@@ -5369,1168 +5382,1168 @@
     </row>
     <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B70" s="17"/>
-      <c r="C70" s="58"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="26"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="63">
+      <c r="E70" s="51"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B71" s="17"/>
-      <c r="C71" s="58"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="26"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="63">
+      <c r="E71" s="51"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B72" s="17"/>
-      <c r="C72" s="58"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="26"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="63">
+      <c r="E72" s="51"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B73" s="17"/>
-      <c r="C73" s="58"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="26"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="63">
+      <c r="E73" s="51"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B74" s="17"/>
-      <c r="C74" s="58"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="26"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="63">
+      <c r="E74" s="51"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B75" s="17"/>
-      <c r="C75" s="58"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="26"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="63">
+      <c r="E75" s="51"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B76" s="17"/>
-      <c r="C76" s="58"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="26"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="63">
+      <c r="E76" s="51"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B77" s="17"/>
-      <c r="C77" s="58"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="26"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="63">
+      <c r="E77" s="51"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
-      <c r="C78" s="58"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="26"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="63">
+      <c r="E78" s="51"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B79" s="17"/>
-      <c r="C79" s="58"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="26"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="63">
+      <c r="E79" s="51"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B80" s="17"/>
-      <c r="C80" s="58"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="26"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="63">
+      <c r="E80" s="51"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
-      <c r="C81" s="58"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="26"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="63">
+      <c r="E81" s="51"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B82" s="17"/>
-      <c r="C82" s="58"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="26"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="63">
+      <c r="E82" s="51"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
-      <c r="C83" s="58"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="26"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="63">
+      <c r="E83" s="51"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B84" s="17"/>
-      <c r="C84" s="58"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="26"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="63">
+      <c r="E84" s="51"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B85" s="17"/>
-      <c r="C85" s="58"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="26"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="63">
+      <c r="E85" s="51"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B86" s="17"/>
-      <c r="C86" s="58"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="26"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="63">
+      <c r="E86" s="51"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B87" s="17"/>
-      <c r="C87" s="58"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="26"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="63">
+      <c r="E87" s="51"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
-      <c r="C88" s="58"/>
+      <c r="C88" s="51"/>
       <c r="D88" s="26"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="63">
+      <c r="E88" s="51"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B89" s="17"/>
-      <c r="C89" s="58"/>
+      <c r="C89" s="51"/>
       <c r="D89" s="26"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="62"/>
-      <c r="H89" s="62"/>
-      <c r="I89" s="62"/>
-      <c r="J89" s="63">
+      <c r="E89" s="51"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B90" s="17"/>
-      <c r="C90" s="58"/>
+      <c r="C90" s="51"/>
       <c r="D90" s="26"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="62"/>
-      <c r="J90" s="63">
+      <c r="E90" s="51"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B91" s="17"/>
-      <c r="C91" s="58"/>
+      <c r="C91" s="51"/>
       <c r="D91" s="26"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="62"/>
-      <c r="H91" s="62"/>
-      <c r="I91" s="62"/>
-      <c r="J91" s="63">
+      <c r="E91" s="51"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B92" s="17"/>
-      <c r="C92" s="58"/>
+      <c r="C92" s="51"/>
       <c r="D92" s="26"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="63">
+      <c r="E92" s="51"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
-      <c r="C93" s="58"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="26"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="62"/>
-      <c r="H93" s="62"/>
-      <c r="I93" s="62"/>
-      <c r="J93" s="63">
+      <c r="E93" s="51"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B94" s="17"/>
-      <c r="C94" s="58"/>
+      <c r="C94" s="51"/>
       <c r="D94" s="26"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="62"/>
-      <c r="H94" s="62"/>
-      <c r="I94" s="62"/>
-      <c r="J94" s="63">
+      <c r="E94" s="51"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
-      <c r="C95" s="58"/>
+      <c r="C95" s="51"/>
       <c r="D95" s="26"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="62"/>
-      <c r="I95" s="62"/>
-      <c r="J95" s="63">
+      <c r="E95" s="51"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B96" s="17"/>
-      <c r="C96" s="58"/>
+      <c r="C96" s="51"/>
       <c r="D96" s="26"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="63">
+      <c r="E96" s="51"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B97" s="17"/>
-      <c r="C97" s="58"/>
+      <c r="C97" s="51"/>
       <c r="D97" s="26"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="63">
+      <c r="E97" s="51"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B98" s="17"/>
-      <c r="C98" s="58"/>
+      <c r="C98" s="51"/>
       <c r="D98" s="26"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="62"/>
-      <c r="H98" s="62"/>
-      <c r="I98" s="62"/>
-      <c r="J98" s="63">
+      <c r="E98" s="51"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B99" s="17"/>
-      <c r="C99" s="58"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="26"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="61"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="62"/>
-      <c r="I99" s="62"/>
-      <c r="J99" s="63">
+      <c r="E99" s="51"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B100" s="17"/>
-      <c r="C100" s="58"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="26"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="62"/>
-      <c r="H100" s="62"/>
-      <c r="I100" s="62"/>
-      <c r="J100" s="63">
+      <c r="E100" s="51"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B101" s="17"/>
-      <c r="C101" s="58"/>
+      <c r="C101" s="51"/>
       <c r="D101" s="26"/>
-      <c r="E101" s="58"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="62"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="63">
+      <c r="E101" s="51"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B102" s="17"/>
-      <c r="C102" s="58"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="26"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="63">
+      <c r="E102" s="51"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B103" s="17"/>
-      <c r="C103" s="58"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="26"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="62"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="62"/>
-      <c r="J103" s="63">
+      <c r="E103" s="51"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
-      <c r="C104" s="58"/>
+      <c r="C104" s="51"/>
       <c r="D104" s="26"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="62"/>
-      <c r="H104" s="62"/>
-      <c r="I104" s="62"/>
-      <c r="J104" s="63">
+      <c r="E104" s="51"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
-      <c r="C105" s="58"/>
+      <c r="C105" s="51"/>
       <c r="D105" s="26"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="63">
+      <c r="E105" s="51"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B106" s="17"/>
-      <c r="C106" s="58"/>
+      <c r="C106" s="51"/>
       <c r="D106" s="26"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="61"/>
-      <c r="G106" s="62"/>
-      <c r="H106" s="62"/>
-      <c r="I106" s="62"/>
-      <c r="J106" s="63">
+      <c r="E106" s="51"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="55"/>
+      <c r="J106" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
-      <c r="C107" s="58"/>
+      <c r="C107" s="51"/>
       <c r="D107" s="26"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="62"/>
-      <c r="H107" s="62"/>
-      <c r="I107" s="62"/>
-      <c r="J107" s="63">
+      <c r="E107" s="51"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B108" s="17"/>
-      <c r="C108" s="58"/>
+      <c r="C108" s="51"/>
       <c r="D108" s="26"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="61"/>
-      <c r="G108" s="62"/>
-      <c r="H108" s="62"/>
-      <c r="I108" s="62"/>
-      <c r="J108" s="63">
+      <c r="E108" s="51"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
-      <c r="C109" s="58"/>
+      <c r="C109" s="51"/>
       <c r="D109" s="26"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="62"/>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="63">
+      <c r="E109" s="51"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B110" s="17"/>
-      <c r="C110" s="58"/>
+      <c r="C110" s="51"/>
       <c r="D110" s="26"/>
-      <c r="E110" s="58"/>
-      <c r="F110" s="61"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="63">
+      <c r="E110" s="51"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="55"/>
+      <c r="J110" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B111" s="17"/>
-      <c r="C111" s="58"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="26"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="62"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="63">
+      <c r="E111" s="51"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B112" s="17"/>
-      <c r="C112" s="58"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="26"/>
-      <c r="E112" s="58"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="62"/>
-      <c r="I112" s="62"/>
-      <c r="J112" s="63">
+      <c r="E112" s="51"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B113" s="17"/>
-      <c r="C113" s="58"/>
+      <c r="C113" s="51"/>
       <c r="D113" s="26"/>
-      <c r="E113" s="58"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="62"/>
-      <c r="J113" s="63">
+      <c r="E113" s="51"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="55"/>
+      <c r="J113" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B114" s="17"/>
-      <c r="C114" s="58"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="26"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="61"/>
-      <c r="G114" s="62"/>
-      <c r="H114" s="62"/>
-      <c r="I114" s="62"/>
-      <c r="J114" s="63">
+      <c r="E114" s="51"/>
+      <c r="F114" s="54"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B115" s="17"/>
-      <c r="C115" s="58"/>
+      <c r="C115" s="51"/>
       <c r="D115" s="26"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="62"/>
-      <c r="I115" s="62"/>
-      <c r="J115" s="63">
+      <c r="E115" s="51"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B116" s="17"/>
-      <c r="C116" s="58"/>
+      <c r="C116" s="51"/>
       <c r="D116" s="26"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="61"/>
-      <c r="G116" s="62"/>
-      <c r="H116" s="62"/>
-      <c r="I116" s="62"/>
-      <c r="J116" s="63">
+      <c r="E116" s="51"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B117" s="17"/>
-      <c r="C117" s="58"/>
+      <c r="C117" s="51"/>
       <c r="D117" s="26"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="61"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="62"/>
-      <c r="I117" s="62"/>
-      <c r="J117" s="63">
+      <c r="E117" s="51"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="55"/>
+      <c r="I117" s="55"/>
+      <c r="J117" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B118" s="17"/>
-      <c r="C118" s="58"/>
+      <c r="C118" s="51"/>
       <c r="D118" s="26"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="61"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="62"/>
-      <c r="I118" s="62"/>
-      <c r="J118" s="63">
+      <c r="E118" s="51"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B119" s="17"/>
-      <c r="C119" s="58"/>
+      <c r="C119" s="51"/>
       <c r="D119" s="26"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="61"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="62"/>
-      <c r="I119" s="62"/>
-      <c r="J119" s="63">
+      <c r="E119" s="51"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B120" s="17"/>
-      <c r="C120" s="58"/>
+      <c r="C120" s="51"/>
       <c r="D120" s="26"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="61"/>
-      <c r="G120" s="62"/>
-      <c r="H120" s="62"/>
-      <c r="I120" s="62"/>
-      <c r="J120" s="63">
+      <c r="E120" s="51"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B121" s="17"/>
-      <c r="C121" s="58"/>
+      <c r="C121" s="51"/>
       <c r="D121" s="26"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="61"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="62"/>
-      <c r="I121" s="62"/>
-      <c r="J121" s="63">
+      <c r="E121" s="51"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B122" s="17"/>
-      <c r="C122" s="58"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="26"/>
-      <c r="E122" s="58"/>
-      <c r="F122" s="61"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="62"/>
-      <c r="I122" s="62"/>
-      <c r="J122" s="63">
+      <c r="E122" s="51"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B123" s="17"/>
-      <c r="C123" s="58"/>
+      <c r="C123" s="51"/>
       <c r="D123" s="26"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="61"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="62"/>
-      <c r="I123" s="62"/>
-      <c r="J123" s="63">
+      <c r="E123" s="51"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B124" s="17"/>
-      <c r="C124" s="58"/>
+      <c r="C124" s="51"/>
       <c r="D124" s="26"/>
-      <c r="E124" s="58"/>
-      <c r="F124" s="61"/>
-      <c r="G124" s="62"/>
-      <c r="H124" s="62"/>
-      <c r="I124" s="62"/>
-      <c r="J124" s="63">
+      <c r="E124" s="51"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B125" s="17"/>
-      <c r="C125" s="58"/>
+      <c r="C125" s="51"/>
       <c r="D125" s="26"/>
-      <c r="E125" s="58"/>
-      <c r="F125" s="61"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="62"/>
-      <c r="I125" s="62"/>
-      <c r="J125" s="63">
+      <c r="E125" s="51"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B126" s="17"/>
-      <c r="C126" s="58"/>
+      <c r="C126" s="51"/>
       <c r="D126" s="26"/>
-      <c r="E126" s="58"/>
-      <c r="F126" s="61"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="63">
+      <c r="E126" s="51"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B127" s="17"/>
-      <c r="C127" s="58"/>
+      <c r="C127" s="51"/>
       <c r="D127" s="26"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="62"/>
-      <c r="H127" s="62"/>
-      <c r="I127" s="62"/>
-      <c r="J127" s="63">
+      <c r="E127" s="51"/>
+      <c r="F127" s="54"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="55"/>
+      <c r="J127" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B128" s="17"/>
-      <c r="C128" s="58"/>
+      <c r="C128" s="51"/>
       <c r="D128" s="26"/>
-      <c r="E128" s="58"/>
-      <c r="F128" s="61"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="62"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="63">
+      <c r="E128" s="51"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="55"/>
+      <c r="J128" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B129" s="17"/>
-      <c r="C129" s="58"/>
+      <c r="C129" s="51"/>
       <c r="D129" s="26"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="61"/>
-      <c r="G129" s="62"/>
-      <c r="H129" s="62"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="63">
+      <c r="E129" s="51"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="55"/>
+      <c r="J129" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B130" s="17"/>
-      <c r="C130" s="58"/>
+      <c r="C130" s="51"/>
       <c r="D130" s="26"/>
-      <c r="E130" s="58"/>
-      <c r="F130" s="61"/>
-      <c r="G130" s="62"/>
-      <c r="H130" s="62"/>
-      <c r="I130" s="62"/>
-      <c r="J130" s="63">
+      <c r="E130" s="51"/>
+      <c r="F130" s="54"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="55"/>
+      <c r="J130" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B131" s="17"/>
-      <c r="C131" s="58"/>
+      <c r="C131" s="51"/>
       <c r="D131" s="26"/>
-      <c r="E131" s="58"/>
-      <c r="F131" s="61"/>
-      <c r="G131" s="62"/>
-      <c r="H131" s="62"/>
-      <c r="I131" s="62"/>
-      <c r="J131" s="63">
+      <c r="E131" s="51"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="55"/>
+      <c r="I131" s="55"/>
+      <c r="J131" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B132" s="17"/>
-      <c r="C132" s="58"/>
+      <c r="C132" s="51"/>
       <c r="D132" s="26"/>
-      <c r="E132" s="58"/>
-      <c r="F132" s="61"/>
-      <c r="G132" s="62"/>
-      <c r="H132" s="62"/>
-      <c r="I132" s="62"/>
-      <c r="J132" s="63">
+      <c r="E132" s="51"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B133" s="17"/>
-      <c r="C133" s="58"/>
+      <c r="C133" s="51"/>
       <c r="D133" s="26"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="61"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="62"/>
-      <c r="I133" s="62"/>
-      <c r="J133" s="63">
+      <c r="E133" s="51"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B134" s="17"/>
-      <c r="C134" s="58"/>
+      <c r="C134" s="51"/>
       <c r="D134" s="26"/>
-      <c r="E134" s="58"/>
-      <c r="F134" s="61"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="62"/>
-      <c r="I134" s="62"/>
-      <c r="J134" s="63">
+      <c r="E134" s="51"/>
+      <c r="F134" s="54"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="55"/>
+      <c r="J134" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B135" s="17"/>
-      <c r="C135" s="58"/>
+      <c r="C135" s="51"/>
       <c r="D135" s="26"/>
-      <c r="E135" s="58"/>
-      <c r="F135" s="61"/>
-      <c r="G135" s="62"/>
-      <c r="H135" s="62"/>
-      <c r="I135" s="62"/>
-      <c r="J135" s="63">
+      <c r="E135" s="51"/>
+      <c r="F135" s="54"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="55"/>
+      <c r="I135" s="55"/>
+      <c r="J135" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B136" s="17"/>
-      <c r="C136" s="58"/>
+      <c r="C136" s="51"/>
       <c r="D136" s="26"/>
-      <c r="E136" s="58"/>
-      <c r="F136" s="61"/>
-      <c r="G136" s="62"/>
-      <c r="H136" s="62"/>
-      <c r="I136" s="62"/>
-      <c r="J136" s="63">
+      <c r="E136" s="51"/>
+      <c r="F136" s="54"/>
+      <c r="G136" s="55"/>
+      <c r="H136" s="55"/>
+      <c r="I136" s="55"/>
+      <c r="J136" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B137" s="17"/>
-      <c r="C137" s="58"/>
+      <c r="C137" s="51"/>
       <c r="D137" s="26"/>
-      <c r="E137" s="58"/>
-      <c r="F137" s="61"/>
-      <c r="G137" s="62"/>
-      <c r="H137" s="62"/>
-      <c r="I137" s="62"/>
-      <c r="J137" s="63">
+      <c r="E137" s="51"/>
+      <c r="F137" s="54"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="55"/>
+      <c r="I137" s="55"/>
+      <c r="J137" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B138" s="17"/>
-      <c r="C138" s="58"/>
+      <c r="C138" s="51"/>
       <c r="D138" s="26"/>
-      <c r="E138" s="58"/>
-      <c r="F138" s="61"/>
-      <c r="G138" s="62"/>
-      <c r="H138" s="62"/>
-      <c r="I138" s="62"/>
-      <c r="J138" s="63">
+      <c r="E138" s="51"/>
+      <c r="F138" s="54"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="55"/>
+      <c r="I138" s="55"/>
+      <c r="J138" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B139" s="17"/>
-      <c r="C139" s="58"/>
+      <c r="C139" s="51"/>
       <c r="D139" s="26"/>
-      <c r="E139" s="58"/>
-      <c r="F139" s="61"/>
-      <c r="G139" s="62"/>
-      <c r="H139" s="62"/>
-      <c r="I139" s="62"/>
-      <c r="J139" s="63">
+      <c r="E139" s="51"/>
+      <c r="F139" s="54"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="55"/>
+      <c r="J139" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B140" s="17"/>
-      <c r="C140" s="58"/>
+      <c r="C140" s="51"/>
       <c r="D140" s="26"/>
-      <c r="E140" s="58"/>
-      <c r="F140" s="61"/>
-      <c r="G140" s="62"/>
-      <c r="H140" s="62"/>
-      <c r="I140" s="62"/>
-      <c r="J140" s="63">
+      <c r="E140" s="51"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="55"/>
+      <c r="I140" s="55"/>
+      <c r="J140" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B141" s="17"/>
-      <c r="C141" s="58"/>
+      <c r="C141" s="51"/>
       <c r="D141" s="26"/>
-      <c r="E141" s="58"/>
-      <c r="F141" s="61"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="62"/>
-      <c r="J141" s="63">
+      <c r="E141" s="51"/>
+      <c r="F141" s="54"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="55"/>
+      <c r="I141" s="55"/>
+      <c r="J141" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
-      <c r="C142" s="58"/>
+      <c r="C142" s="51"/>
       <c r="D142" s="26"/>
-      <c r="E142" s="58"/>
-      <c r="F142" s="61"/>
-      <c r="G142" s="62"/>
-      <c r="H142" s="62"/>
-      <c r="I142" s="62"/>
-      <c r="J142" s="63">
+      <c r="E142" s="51"/>
+      <c r="F142" s="54"/>
+      <c r="G142" s="55"/>
+      <c r="H142" s="55"/>
+      <c r="I142" s="55"/>
+      <c r="J142" s="56">
         <f>Issues[[#This Row],[Severity *(1, 3, 5)]]*Issues[[#This Row],[Occurrence *(1, 3, 5)]]*Issues[[#This Row],[Detection *(1, 3, 5)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
-      <c r="C143" s="65"/>
+      <c r="C143" s="58"/>
       <c r="D143" s="26"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="66"/>
-      <c r="G143" s="62"/>
-      <c r="H143" s="62"/>
-      <c r="I143" s="62"/>
-      <c r="J143" s="63"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="59"/>
+      <c r="G143" s="55"/>
+      <c r="H143" s="55"/>
+      <c r="I143" s="55"/>
+      <c r="J143" s="56"/>
     </row>
     <row r="144" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B144" s="17"/>
-      <c r="C144" s="65"/>
+      <c r="C144" s="58"/>
       <c r="D144" s="26"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="66"/>
-      <c r="G144" s="62"/>
-      <c r="H144" s="62"/>
-      <c r="I144" s="62"/>
-      <c r="J144" s="63"/>
+      <c r="E144" s="58"/>
+      <c r="F144" s="59"/>
+      <c r="G144" s="55"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="55"/>
+      <c r="J144" s="56"/>
     </row>
     <row r="145" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
-      <c r="C145" s="65"/>
+      <c r="C145" s="58"/>
       <c r="D145" s="26"/>
-      <c r="E145" s="65"/>
-      <c r="F145" s="66"/>
-      <c r="G145" s="62"/>
-      <c r="H145" s="62"/>
-      <c r="I145" s="62"/>
-      <c r="J145" s="63"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="59"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="55"/>
+      <c r="J145" s="56"/>
     </row>
     <row r="146" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B146" s="17"/>
-      <c r="C146" s="65"/>
+      <c r="C146" s="58"/>
       <c r="D146" s="26"/>
-      <c r="E146" s="65"/>
-      <c r="F146" s="66"/>
-      <c r="G146" s="62"/>
-      <c r="H146" s="62"/>
-      <c r="I146" s="62"/>
-      <c r="J146" s="63"/>
+      <c r="E146" s="58"/>
+      <c r="F146" s="59"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="55"/>
+      <c r="I146" s="55"/>
+      <c r="J146" s="56"/>
     </row>
     <row r="147" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B147" s="17"/>
-      <c r="C147" s="65"/>
+      <c r="C147" s="58"/>
       <c r="D147" s="26"/>
-      <c r="E147" s="65"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="62"/>
-      <c r="H147" s="62"/>
-      <c r="I147" s="62"/>
-      <c r="J147" s="63"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="55"/>
+      <c r="I147" s="55"/>
+      <c r="J147" s="56"/>
     </row>
     <row r="148" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B148" s="17"/>
-      <c r="C148" s="65"/>
+      <c r="C148" s="58"/>
       <c r="D148" s="26"/>
-      <c r="E148" s="65"/>
-      <c r="F148" s="66"/>
-      <c r="G148" s="62"/>
-      <c r="H148" s="62"/>
-      <c r="I148" s="62"/>
-      <c r="J148" s="63"/>
+      <c r="E148" s="58"/>
+      <c r="F148" s="59"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="55"/>
+      <c r="J148" s="56"/>
     </row>
     <row r="149" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B149" s="17"/>
-      <c r="C149" s="65"/>
+      <c r="C149" s="58"/>
       <c r="D149" s="26"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="66"/>
-      <c r="G149" s="62"/>
-      <c r="H149" s="62"/>
-      <c r="I149" s="62"/>
-      <c r="J149" s="63"/>
+      <c r="E149" s="58"/>
+      <c r="F149" s="59"/>
+      <c r="G149" s="55"/>
+      <c r="H149" s="55"/>
+      <c r="I149" s="55"/>
+      <c r="J149" s="56"/>
     </row>
     <row r="150" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
-      <c r="C150" s="65"/>
+      <c r="C150" s="58"/>
       <c r="D150" s="26"/>
-      <c r="E150" s="65"/>
-      <c r="F150" s="66"/>
-      <c r="G150" s="62"/>
-      <c r="H150" s="62"/>
-      <c r="I150" s="62"/>
-      <c r="J150" s="63"/>
+      <c r="E150" s="58"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="55"/>
+      <c r="H150" s="55"/>
+      <c r="I150" s="55"/>
+      <c r="J150" s="56"/>
     </row>
     <row r="151" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B151" s="17"/>
-      <c r="C151" s="65"/>
-      <c r="D151" s="67"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="66"/>
-      <c r="G151" s="62"/>
-      <c r="H151" s="62"/>
-      <c r="I151" s="62"/>
-      <c r="J151" s="63"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="55"/>
+      <c r="H151" s="55"/>
+      <c r="I151" s="55"/>
+      <c r="J151" s="56"/>
     </row>
     <row r="152" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B152" s="17"/>
-      <c r="C152" s="65"/>
-      <c r="D152" s="67"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="66"/>
-      <c r="G152" s="62"/>
-      <c r="H152" s="62"/>
-      <c r="I152" s="62"/>
-      <c r="J152" s="63"/>
+      <c r="C152" s="58"/>
+      <c r="D152" s="60"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="55"/>
+      <c r="H152" s="55"/>
+      <c r="I152" s="55"/>
+      <c r="J152" s="56"/>
     </row>
     <row r="153" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B153" s="17"/>
-      <c r="C153" s="65"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="65"/>
-      <c r="F153" s="66"/>
-      <c r="G153" s="62"/>
-      <c r="H153" s="62"/>
-      <c r="I153" s="62"/>
-      <c r="J153" s="63"/>
+      <c r="C153" s="58"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="58"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="55"/>
+      <c r="H153" s="55"/>
+      <c r="I153" s="55"/>
+      <c r="J153" s="56"/>
     </row>
     <row r="154" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
-      <c r="C154" s="65"/>
-      <c r="D154" s="67"/>
-      <c r="E154" s="65"/>
-      <c r="F154" s="66"/>
-      <c r="G154" s="62"/>
-      <c r="H154" s="62"/>
-      <c r="I154" s="62"/>
-      <c r="J154" s="63"/>
+      <c r="C154" s="58"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="58"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="55"/>
+      <c r="H154" s="55"/>
+      <c r="I154" s="55"/>
+      <c r="J154" s="56"/>
     </row>
     <row r="155" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
-      <c r="C155" s="65"/>
-      <c r="D155" s="67"/>
-      <c r="E155" s="65"/>
-      <c r="F155" s="66"/>
-      <c r="G155" s="62"/>
-      <c r="H155" s="62"/>
-      <c r="I155" s="62"/>
-      <c r="J155" s="63"/>
+      <c r="C155" s="58"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="58"/>
+      <c r="F155" s="59"/>
+      <c r="G155" s="55"/>
+      <c r="H155" s="55"/>
+      <c r="I155" s="55"/>
+      <c r="J155" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6634,10 +6647,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="83"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -6739,10 +6752,10 @@
     </row>
     <row r="26" spans="2:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="68"/>
+      <c r="B28" s="61"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="68"/>
+      <c r="B29" s="61"/>
       <c r="O29" t="str">
         <f>IFERROR(INDEX(Issues[Location],MATCH(0,COUNTIF(#REF!,Issues[Location]),0)),"")</f>
         <v/>
@@ -6766,754 +6779,418 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:S28"/>
+  <dimension ref="B2:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:S28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" customWidth="1"/>
-    <col min="15" max="17" width="40.7109375" customWidth="1"/>
-    <col min="18" max="18" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="7" width="42.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="42.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="42.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="15" max="15" width="42.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="42.7109375" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" customWidth="1"/>
+    <col min="19" max="19" width="42.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M1" s="84" t="s">
+    <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-    </row>
-    <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="87" t="s">
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+    </row>
+    <row r="3" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-    </row>
-    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="85" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+    </row>
+    <row r="4" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+    </row>
+    <row r="5" spans="2:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86" t="s">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86" t="s">
+      <c r="G5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="I5" s="81"/>
+      <c r="J5" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86" t="s">
+      <c r="K5" s="81"/>
+      <c r="L5" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86" t="s">
+      <c r="M5" s="81"/>
+      <c r="N5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="86"/>
-      <c r="P4" s="89" t="s">
+      <c r="O5" s="81"/>
+      <c r="P5" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="86" t="s">
+      <c r="Q5" s="83"/>
+      <c r="R5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="86"/>
-    </row>
-    <row r="5" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="88" t="s">
+      <c r="S5" s="81"/>
+    </row>
+    <row r="6" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-    </row>
-    <row r="6" spans="2:19" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+    </row>
+    <row r="7" spans="2:19" ht="237" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C7" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D7" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E7" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F7" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G7" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="I7" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="K7" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="M7" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="N7" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="O7" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="Q7" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="R7" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="S7" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="51" t="s">
+    </row>
+    <row r="8" spans="2:19" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="56" t="s">
+      <c r="C8" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="55" t="s">
+      <c r="D8" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="E8" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="51" t="s">
+      <c r="G8" s="89" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="H8" s="85"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="K8" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="M8" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="N8" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="O8" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="Q8" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="R8" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="50" t="s">
+      <c r="S8" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="50" t="s">
+    </row>
+    <row r="9" spans="2:19" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="C9" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="D9" s="85"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="51" t="s">
+      <c r="G9" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="85"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="56" t="s">
+      <c r="M9" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="55" t="s">
+      <c r="N9" s="85"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="50" t="s">
+      <c r="Q9" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="51" t="s">
+      <c r="R9" s="85" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
+      <c r="S9" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="51" t="s">
+    </row>
+    <row r="10" spans="2:19" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="50" t="s">
+      <c r="C10" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="85"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="M10" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="50" t="s">
+      <c r="N10" s="85"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="Q10" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="56" t="s">
+      <c r="S10" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" s="55" t="s">
+    </row>
+    <row r="11" spans="2:19" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="50" t="s">
+      <c r="C11" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="S8" s="51" t="s">
+      <c r="M11" s="89" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="N11" s="85"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="50" t="s">
+      <c r="S11" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="S9" s="51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="S10" s="51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="51"/>
-    </row>
-    <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
-    </row>
-    <row r="14" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="51"/>
-    </row>
-    <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="51"/>
-    </row>
-    <row r="16" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="51"/>
-    </row>
-    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="51"/>
-    </row>
-    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="51"/>
-    </row>
-    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="51"/>
-    </row>
-    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="51"/>
-    </row>
-    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="51"/>
-    </row>
-    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
-    </row>
-    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="51"/>
-    </row>
-    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="51"/>
-    </row>
-    <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="51"/>
-    </row>
-    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="51"/>
-    </row>
-    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="51"/>
-    </row>
-    <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="51"/>
+    </row>
+    <row r="16" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="R5:S5"/>
     <mergeCell ref="B3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M1" r:id="rId1" tooltip="Link to the Checklist for Accessibility Assistants document"/>
-    <hyperlink ref="C6" r:id="rId2" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="E6" r:id="rId3" tooltip="How to meet the guideline"/>
-    <hyperlink ref="G6" r:id="rId4" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="I6" r:id="rId5" tooltip="How to meet the guideline"/>
-    <hyperlink ref="K6" r:id="rId6" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="M6" r:id="rId7" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="O6" r:id="rId8" tooltip="How to meet the guideline"/>
-    <hyperlink ref="S6" r:id="rId9" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="C7" r:id="rId10" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="E7" r:id="rId11" tooltip="How to meet the guideline"/>
-    <hyperlink ref="G7" r:id="rId12" tooltip="How to meet the guideline"/>
-    <hyperlink ref="M7" r:id="rId13" tooltip="How to meet the guideline"/>
-    <hyperlink ref="O7" r:id="rId14" tooltip="How to follow the guideline"/>
-    <hyperlink ref="S7" r:id="rId15" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="C8" r:id="rId16" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="G8" r:id="rId17" tooltip="How to meet the guidelines"/>
-    <hyperlink ref="M8" r:id="rId18" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="C7" r:id="rId1" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="E7" r:id="rId2" tooltip="How to meet the guideline"/>
+    <hyperlink ref="G7" r:id="rId3" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="I7" r:id="rId4" tooltip="How to meet the guideline"/>
+    <hyperlink ref="K7" r:id="rId5" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="M7" r:id="rId6" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="O7" r:id="rId7" tooltip="How to meet the guideline" display="Make sure link text is descriptive. The purpose of each link can be determined from the link text alone, or from the link text and its context. Links don’t use click here method. Also links should not use full URLs unless very short. Links with the same t"/>
+    <hyperlink ref="S7" r:id="rId8" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="E8" r:id="rId9" tooltip="How to meet the guideline"/>
+    <hyperlink ref="G8" r:id="rId10" tooltip="How to meet the guideline"/>
+    <hyperlink ref="M8" r:id="rId11" tooltip="How to meet the guideline"/>
+    <hyperlink ref="O8" r:id="rId12" tooltip="How to follow the guideline"/>
+    <hyperlink ref="S8" r:id="rId13" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="C9" r:id="rId14" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="G9" r:id="rId15" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="M9" r:id="rId16" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="C8" r:id="rId17" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="C11" r:id="rId18" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="C10" r:id="rId19" tooltip="How to meet the guidelines"/>
+    <hyperlink ref="K8" r:id="rId20"/>
+    <hyperlink ref="M10" r:id="rId21"/>
+    <hyperlink ref="M11" r:id="rId22"/>
+    <hyperlink ref="Q7" r:id="rId23" display="The table should be split into 2 tables so that there are not overlapping headings"/>
+    <hyperlink ref="Q8" r:id="rId24" display="This is to help a screen reader read a table correctly"/>
+    <hyperlink ref="Q9" r:id="rId25"/>
+    <hyperlink ref="Q10" r:id="rId26"/>
+    <hyperlink ref="S11" r:id="rId27"/>
+    <hyperlink ref="S10" r:id="rId28"/>
+    <hyperlink ref="S9" r:id="rId29"/>
+    <hyperlink ref="M2:S2" r:id="rId30" tooltip="Checklist for Accessibility Assistants" display="For a more detailed list of possible Accessibility errors view this &quot;Checklist for Accessibility Assistants&quot; document"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -7678,75 +7355,75 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
+        <v>93</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
       <c r="I3" s="46" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="35" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I4" s="47">
         <v>1</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="35" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I5" s="47">
         <v>3</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="35" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I6" s="47">
         <v>5</v>
@@ -7761,46 +7438,46 @@
         <v>2</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I7" s="40"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="34"/>
       <c r="E8" s="34" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>21</v>
@@ -7850,7 +7527,7 @@
     </row>
     <row r="100" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG100" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Accessibility Review" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="DD Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity" hidden="1">Charts!$B$4:$C$12</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1" hidden="1">Charts!$B$4:$C$12</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1" hidden="1">'Accessibility Review'!$B$9:$J$142</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1" hidden="1">'Accessibility Review'!$C$9:$C$142</definedName>
     <definedName name="category">'DD Menu'!$E$4:$G$4</definedName>
     <definedName name="Checklist">Checklist!$B$3:$C$14</definedName>
     <definedName name="Color">'Error &amp; Descriptions'!$D$7:$D$9</definedName>
@@ -37,7 +37,7 @@
     <definedName name="Keyboard">'Error &amp; Descriptions'!$F$7:$F$9</definedName>
     <definedName name="Link">'Error &amp; Descriptions'!$N$7:$N$9</definedName>
     <definedName name="Media">'Error &amp; Descriptions'!$J$7:$J$9</definedName>
-    <definedName name="Method">'Accessibility Review'!$C$4</definedName>
+    <definedName name="Method">'Accessibility Review'!$D$4</definedName>
     <definedName name="Misc">'Error &amp; Descriptions'!$R$7:$R$11</definedName>
     <definedName name="Reviewer">'Accessibility Review'!$D$3</definedName>
     <definedName name="Reviewers">'DD Menu'!$C$4:$C$7</definedName>
@@ -92,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issue_Severity">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssue_Severity1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -101,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssues1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -110,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Issues Location" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TESTAccessibilityReviewTemplate.xlsxIssuesLocation1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -337,9 +337,6 @@
     <t>Non-Native HTML tags</t>
   </si>
   <si>
-    <t>Screen Readers run off of HTML. When a screen reader comes across a undescriptive tag such as a &lt;div&gt;. It does not read correctly to the user. Please use the proper native HTML tag.</t>
-  </si>
-  <si>
     <t>How did this even happen?!</t>
   </si>
   <si>
@@ -478,21 +475,6 @@
     <t>It may be best to link a separate alternative text page underneath the non-text. As a guideline, 250 characters should be sufficent for an alt -text before a long description is necessary</t>
   </si>
   <si>
-    <t xml:space="preserve">A descriptive text transcript (including all relevant visual and auditory clues and indicators) is provided for non-live, web-based audio (audio podcasts, MP3 files, etc.). Synchronized captions are provided for non-live, web-based video (YouTube videos, </t>
-  </si>
-  <si>
-    <t>Color is not used as the sole method of conveying content or distinguishing visual elements. (Ex. red underline means error, click the green circle.) Color alone is also not used to distinguish links from surrounding text unless the luminance contrast bet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is visually apparent which page element has the current keyboard focus (i.e., as you tab through the page, you can see where you are). When a page element receives focus, it does not result in a substantial change to the page, the spawning of a pop-up </t>
-  </si>
-  <si>
-    <t>Keyboard focus is never locked or trapped at one particular page element. The user can navigate to and from all navigable page elements using only a keyboard. All page functionality is available using the keyboard, unless the functionality cannot be integ</t>
-  </si>
-  <si>
-    <t>Audio descriptions (also called visual descriptions, because they are descriptions of visuals) detail the visually significant information that is taking place in the video. They describe the characters present on the screen and the actions being performe</t>
-  </si>
-  <si>
     <t>A link is either inaccessible or leads to a "404 Error". In any way, the link cannot be used.</t>
   </si>
   <si>
@@ -508,7 +490,25 @@
     <t>This is to help a screen reader read a table correctly.</t>
   </si>
   <si>
-    <t xml:space="preserve">Screen reader correctly reads information back to user. (Mainly check on videos, tables, interactive elements, forms, buttons, etc.). Text labels are associated with form input elements. Related form elements are grouped with field set/legend. Sufficient </t>
+    <t>Screen Readers run off of HTML. When a screen reader comes across a undescriptive tag such as a &lt;div&gt;. It does not read correctly to the user. Please use the proper native HTML tags.</t>
+  </si>
+  <si>
+    <t>A descriptive text transcript (including all relevant visual and auditory clues and indicators) is provided for non-live, web-based audio (audio podcasts, MP3 files, etc.). Synchronized captions are provided for non-live, web-based video (YouTube videos, etc.). Audio descriptions are provided for all video content (NOTE: Only required if the video conveys content visually that is not available in the default audio track.). Embedded multimedia is identified via accessible text.</t>
+  </si>
+  <si>
+    <t>Audio descriptions (also called visual descriptions, because they are descriptions of visuals) detail the visually significant information that is taking place in the video. They describe the characters present on the screen and the actions being performed.</t>
+  </si>
+  <si>
+    <t>Screen reader correctly reads information back to user. (Mainly check on videos, tables, interactive elements, forms, buttons, etc.). Text labels are associated with form input elements. Related form elements are grouped with field set/legend. Sufficient labels, cues, and instructions for required interactive elements are provided via instructions, examples, properly positioned form labels, and/or field sets/legends.</t>
+  </si>
+  <si>
+    <t>It is visually apparent which page element has the current keyboard focus (i.e., as you tab through the page, you can see where you are). When a page element receives focus, it does not result in a substantial change to the page, the spawning of a pop-up window, an additional change of keyboard focus, or any other change that could confuse or disorient the user.</t>
+  </si>
+  <si>
+    <t>Keyboard focus is never locked or trapped at one particular page element. The user can navigate to and from all navigable page elements using only a keyboard. All page functionality is available using the keyboard, unless the functionality cannot be integrated easily.</t>
+  </si>
+  <si>
+    <t>Color is not used as the sole method of conveying content or distinguishing visual elements. (Ex. red underline means error, click the green circle.) Color alone is also not used to distinguish links from surrounding text unless the luminance contrast between the link and the surrounding text is at least 3:1 and an additional differentiation (e.g., it becomes underlined) is provided when the link is hovered over or receives focus.</t>
   </si>
 </sst>
 </file>
@@ -1395,6 +1395,24 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1416,9 +1434,6 @@
     <xf numFmtId="49" fontId="13" fillId="4" borderId="18" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1437,48 +1452,31 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="29" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="24" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="25" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="29" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="Bottom Border" xfId="1"/>
@@ -4358,8 +4356,8 @@
   </sheetPr>
   <dimension ref="B1:L155"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4380,47 +4378,46 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="2:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21"/>
       <c r="C3" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="31"/>
       <c r="H3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="J3" s="78"/>
+    </row>
+    <row r="4" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="57"/>
+      <c r="C4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="73"/>
-    </row>
-    <row r="4" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="D4" s="90"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="25"/>
@@ -4429,13 +4426,13 @@
     <row r="5" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
+        <v>80</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
@@ -4445,10 +4442,10 @@
       <c r="B6" s="13"/>
       <c r="C6" s="3"/>
       <c r="D6" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="62" t="s">
         <v>82</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>83</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="3"/>
@@ -4457,45 +4454,45 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="B7" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
     </row>
     <row r="8" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="G8" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
@@ -6546,11 +6543,10 @@
       <c r="J155" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C4:F4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="D5:F5"/>
@@ -6584,7 +6580,7 @@
       <formula1>3392</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" prompt="Title of this worksheet is in this cell" sqref="B2"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B4"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B4:C4"/>
     <dataValidation allowBlank="1" sqref="B3 C9:C56 B5 H33:H62"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the Title of the Course is in this cell" sqref="F2:J2"/>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reveiwer" error="Previously entered name is not one of the given choices" prompt="Select the name of Reviewer from drop-down menu" sqref="D3:F3">
@@ -6604,7 +6600,7 @@
       <formula1>IssueTypes</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the date this course was last revised. If you don't know check the last saved date one of the HTML documents in the Q:// drive" sqref="E6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Screen Reader, internet browser, and other programs used in this cell" sqref="C4:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Method" prompt="Enter Screen Reader, internet browser, and other programs used in this cell" sqref="D4"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E8" location="'Accessibility Review'!DescriptiveErrors" tooltip="Visit this link to view a list of more descriptive errors and definitions/help on the issue." display="Descriptive Errors "/>
@@ -6647,10 +6643,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -6781,8 +6777,8 @@
   </sheetPr>
   <dimension ref="B2:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:S2"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6808,338 +6804,338 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
     </row>
     <row r="3" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
     </row>
     <row r="5" spans="2:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81" t="s">
+      <c r="K5" s="84"/>
+      <c r="L5" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81" t="s">
+      <c r="M5" s="84"/>
+      <c r="N5" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82" t="s">
+      <c r="O5" s="84"/>
+      <c r="P5" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="81" t="s">
+      <c r="Q5" s="88"/>
+      <c r="R5" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="81"/>
+      <c r="S5" s="84"/>
     </row>
     <row r="6" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-    </row>
-    <row r="7" spans="2:19" ht="237" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="85" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+    </row>
+    <row r="7" spans="2:19" ht="298.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="89" t="s">
+      <c r="R7" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="276" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="89" t="s">
+      <c r="F8" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="P7" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="R7" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="89" t="s">
+      <c r="L8" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="64"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="64"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="89" t="s">
+      <c r="R10" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="R8" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8" s="89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="85"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9" s="89" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="85"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="R10" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10" s="89" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="89" t="s">
+      <c r="N11" s="64"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="85"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="85" t="s">
+      <c r="S11" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="S11" s="89" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="16" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="88"/>
+      <c r="E16" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7179,7 +7175,7 @@
     <hyperlink ref="C10" r:id="rId19" tooltip="How to meet the guidelines"/>
     <hyperlink ref="K8" r:id="rId20"/>
     <hyperlink ref="M10" r:id="rId21"/>
-    <hyperlink ref="M11" r:id="rId22"/>
+    <hyperlink ref="M11" r:id="rId22" display="Screen Readers run off of HTML. When a screen reader comes across a undescriptive tag such as a &lt;div&gt;. It does not read correctly to the user. Please use the proper native HTML tag."/>
     <hyperlink ref="Q7" r:id="rId23" display="The table should be split into 2 tables so that there are not overlapping headings"/>
     <hyperlink ref="Q8" r:id="rId24" display="This is to help a screen reader read a table correctly"/>
     <hyperlink ref="Q9" r:id="rId25"/>
@@ -7355,75 +7351,75 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="I3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="I3" s="46" t="s">
+      <c r="K3" s="46" t="s">
         <v>95</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="F4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="G4" s="36" t="s">
         <v>99</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>100</v>
       </c>
       <c r="I4" s="47">
         <v>1</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>102</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>103</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="47">
         <v>3</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>106</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>107</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="47">
         <v>5</v>
@@ -7438,46 +7434,46 @@
         <v>2</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I7" s="40"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="34"/>
       <c r="E8" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>21</v>
@@ -7527,7 +7523,7 @@
     </row>
     <row r="100" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG100" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -196,9 +196,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>For a more detailed list of possible Accessibility errors view this "Checklist for Accessibility Assistants" document</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
     <t>It may be best to link a separate alternative text page underneath the non-text. As a guideline, 250 characters should be sufficent for an alt -text before a long description is necessary</t>
   </si>
   <si>
-    <t>A link is either inaccessible or leads to a "404 Error". In any way, the link cannot be used.</t>
-  </si>
-  <si>
     <t>Make sure link text is descriptive. The purpose of each link can be determined from the link text alone, or from the link text and its context. Links don’t use click here method. Also links should not use full URLs unless very short.</t>
   </si>
   <si>
@@ -509,6 +503,12 @@
   </si>
   <si>
     <t>Color is not used as the sole method of conveying content or distinguishing visual elements. (Ex. red underline means error, click the green circle.) Color alone is also not used to distinguish links from surrounding text unless the luminance contrast between the link and the surrounding text is at least 3:1 and an additional differentiation (e.g., it becomes underlined) is provided when the link is hovered over or receives focus.</t>
+  </si>
+  <si>
+    <t>A link is either inaccessible or leads to a "404 Error". In any way, the link cannot be used. Broken Links like "&lt;a&gt;&lt;/a&gt;" can be made on accident, when some is using rich HTML editors on Canvas and instead of using the break link option at the top of the editor the user just deletes the words until it is not visible, but still leaving the &lt;a&gt; tags invisible.</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -959,15 +959,6 @@
         <color theme="8" tint="-0.24994659260841701"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1303,7 +1294,7 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,16 +1319,16 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,38 +1383,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="15" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="19" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="15" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="16" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1431,10 +1425,7 @@
     <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="18" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,40 +1434,42 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="29" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="23" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="24" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="25" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="Bottom Border" xfId="1"/>
@@ -1940,6 +1933,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2327,7 +2321,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2428,6 +2424,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3374,7 +3371,9 @@
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Group 1"/>
-        <xdr:cNvGrpSpPr/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
@@ -3493,7 +3492,9 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
           <a:lstStyle/>
           <a:p>
             <a:r>
@@ -3640,7 +3641,9 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
           <a:lstStyle/>
           <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3720,7 +3723,9 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
           <a:lstStyle/>
           <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3854,7 +3859,9 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
           <a:lstStyle/>
           <a:p>
             <a:pPr marL="171450" lvl="0" indent="-171450">
@@ -4045,7 +4052,7 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Issue Type" totalsRowLabel="Grand Total"/>
+    <tableColumn id="1" name="Issue Type" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Occurance" totalsRowFunction="sum" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4357,7 +4364,7 @@
   <dimension ref="B1:L155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4379,13 +4386,13 @@
     <row r="1" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
       <c r="E2" s="42"/>
       <c r="F2" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
@@ -4395,7 +4402,7 @@
     <row r="3" spans="2:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21"/>
       <c r="C3" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="76" t="s">
         <v>2</v>
@@ -4404,19 +4411,20 @@
       <c r="F3" s="76"/>
       <c r="G3" s="31"/>
       <c r="H3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="77" t="s">
         <v>77</v>
-      </c>
-      <c r="I3" s="77" t="s">
-        <v>78</v>
       </c>
       <c r="J3" s="78"/>
     </row>
     <row r="4" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="57"/>
       <c r="C4" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="90"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -4426,10 +4434,10 @@
     <row r="5" spans="2:12" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
@@ -4442,10 +4450,10 @@
       <c r="B6" s="13"/>
       <c r="C6" s="3"/>
       <c r="D6" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="62" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>82</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="3"/>
@@ -4455,7 +4463,7 @@
     </row>
     <row r="7" spans="2:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
@@ -4468,31 +4476,31 @@
     </row>
     <row r="8" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="G8" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
@@ -6543,13 +6551,14 @@
       <c r="J155" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:I142">
     <cfRule type="colorScale" priority="2">
@@ -6633,7 +6642,7 @@
   <dimension ref="B2:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6739,7 +6748,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C13">
         <f>SUBTOTAL(109,Issue_Severity[Occurance])</f>
@@ -6778,7 +6787,7 @@
   <dimension ref="B2:S16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6805,7 +6814,7 @@
   <sheetData>
     <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M2" s="82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="82"/>
       <c r="O2" s="82"/>
@@ -6816,7 +6825,7 @@
     </row>
     <row r="3" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
@@ -6872,7 +6881,7 @@
       </c>
       <c r="G5" s="84"/>
       <c r="H5" s="84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="84"/>
       <c r="J5" s="84" t="s">
@@ -6898,7 +6907,7 @@
     </row>
     <row r="6" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="86"/>
       <c r="D6" s="83"/>
@@ -6920,158 +6929,158 @@
     </row>
     <row r="7" spans="2:19" ht="298.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="D7" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="E7" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="F7" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="G7" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="64" t="s">
+      <c r="I7" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="64" t="s">
+      <c r="K7" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="64" t="s">
+      <c r="M7" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="N7" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="64" t="s">
+      <c r="O7" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="68" t="s">
+      <c r="Q7" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="65" t="s">
+      <c r="R7" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="R7" s="64" t="s">
+      <c r="S7" s="68" t="s">
         <v>41</v>
-      </c>
-      <c r="S7" s="68" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="276" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="D8" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="E8" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="64" t="s">
+      <c r="G8" s="68" t="s">
         <v>46</v>
-      </c>
-      <c r="G8" s="68" t="s">
-        <v>47</v>
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="68"/>
       <c r="J8" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" s="64" t="s">
+      <c r="M8" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="68" t="s">
+      <c r="N8" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="64" t="s">
+      <c r="O8" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="65" t="s">
+      <c r="Q8" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="R8" s="64" t="s">
+      <c r="S8" s="68" t="s">
         <v>53</v>
-      </c>
-      <c r="S8" s="68" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>56</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="68"/>
       <c r="F9" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H9" s="64"/>
       <c r="I9" s="68"/>
       <c r="J9" s="64"/>
       <c r="K9" s="68"/>
       <c r="L9" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="68" t="s">
         <v>58</v>
-      </c>
-      <c r="M9" s="68" t="s">
-        <v>59</v>
       </c>
       <c r="N9" s="64"/>
       <c r="O9" s="68"/>
       <c r="P9" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="68" t="s">
+      <c r="R9" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="64" t="s">
+      <c r="S9" s="68" t="s">
         <v>62</v>
-      </c>
-      <c r="S9" s="68" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="68"/>
@@ -7082,32 +7091,32 @@
       <c r="J10" s="64"/>
       <c r="K10" s="68"/>
       <c r="L10" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="68" t="s">
         <v>65</v>
-      </c>
-      <c r="M10" s="68" t="s">
-        <v>66</v>
       </c>
       <c r="N10" s="64"/>
       <c r="O10" s="68"/>
       <c r="P10" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="R10" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="Q10" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="R10" s="64" t="s">
+      <c r="S10" s="68" t="s">
         <v>68</v>
-      </c>
-      <c r="S10" s="68" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="68"/>
@@ -7118,20 +7127,20 @@
       <c r="J11" s="64"/>
       <c r="K11" s="68"/>
       <c r="L11" s="64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N11" s="64"/>
       <c r="O11" s="68"/>
       <c r="P11" s="66"/>
       <c r="Q11" s="63"/>
       <c r="R11" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="68" t="s">
         <v>72</v>
-      </c>
-      <c r="S11" s="68" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
@@ -7165,7 +7174,7 @@
     <hyperlink ref="E8" r:id="rId9" tooltip="How to meet the guideline"/>
     <hyperlink ref="G8" r:id="rId10" tooltip="How to meet the guideline"/>
     <hyperlink ref="M8" r:id="rId11" tooltip="How to meet the guideline"/>
-    <hyperlink ref="O8" r:id="rId12" tooltip="How to follow the guideline"/>
+    <hyperlink ref="O8" r:id="rId12" tooltip="How to follow the guideline" display="A link is either inaccessible or leads to a &quot;404 Error&quot;. In any way, the link cannot be used."/>
     <hyperlink ref="S8" r:id="rId13" tooltip="How to meet the guidelines"/>
     <hyperlink ref="C9" r:id="rId14" tooltip="How to meet the guidelines"/>
     <hyperlink ref="G9" r:id="rId15" tooltip="How to meet the guidelines"/>
@@ -7351,75 +7360,75 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="89" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>93</v>
       </c>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="I3" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>94</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="F4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="G4" s="36" t="s">
         <v>98</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>99</v>
       </c>
       <c r="I4" s="47">
         <v>1</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>101</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>102</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="47">
         <v>3</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" s="47">
         <v>5</v>
@@ -7434,46 +7443,46 @@
         <v>2</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="40"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="34"/>
       <c r="E8" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>21</v>
@@ -7523,7 +7532,7 @@
     </row>
     <row r="100" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/CAR - Accessibility Review Template.xlsx
+++ b/CAR - Accessibility Review Template.xlsx
@@ -1437,6 +1437,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1465,9 +1468,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1933,7 +1933,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2321,9 +2320,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2424,7 +2421,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3140,17 +3136,19 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>532202</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="9" name="Group 8"/>
-        <xdr:cNvGrpSpPr/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="11581197" y="190500"/>
-          <a:ext cx="4219580" cy="2362200"/>
+          <a:ext cx="4219580" cy="2047875"/>
           <a:chOff x="10086057" y="-16668"/>
           <a:chExt cx="3886226" cy="3714407"/>
         </a:xfrm>
@@ -3180,12 +3178,14 @@
           </a:xfrm>
           <a:grpFill/>
         </xdr:grpSpPr>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-          <mc:Choice Requires="sle15">
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
             <xdr:graphicFrame macro="">
               <xdr:nvGraphicFramePr>
                 <xdr:cNvPr id="3" name="Issue Type"/>
-                <xdr:cNvGraphicFramePr/>
+                <xdr:cNvGraphicFramePr>
+                  <a:graphicFrameLocks noChangeAspect="1"/>
+                </xdr:cNvGraphicFramePr>
               </xdr:nvGraphicFramePr>
               <xdr:xfrm>
                 <a:off x="11746138" y="328517"/>
@@ -3198,7 +3198,7 @@
               </a:graphic>
             </xdr:graphicFrame>
           </mc:Choice>
-          <mc:Fallback xmlns="">
+          <mc:Fallback>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="0" name=""/>
@@ -3208,8 +3208,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="13616031" y="195847"/>
-                  <a:ext cx="2184746" cy="2351520"/>
+                  <a:off x="13616031" y="195136"/>
+                  <a:ext cx="2184746" cy="2038616"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -3237,12 +3237,14 @@
             </xdr:sp>
           </mc:Fallback>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-          <mc:Choice Requires="sle15">
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
             <xdr:graphicFrame macro="">
               <xdr:nvGraphicFramePr>
                 <xdr:cNvPr id="4" name="Severity"/>
-                <xdr:cNvGraphicFramePr/>
+                <xdr:cNvGraphicFramePr>
+                  <a:graphicFrameLocks noChangeAspect="1"/>
+                </xdr:cNvGraphicFramePr>
               </xdr:nvGraphicFramePr>
               <xdr:xfrm>
                 <a:off x="9713496" y="320120"/>
@@ -3255,7 +3257,7 @@
               </a:graphic>
             </xdr:graphicFrame>
           </mc:Choice>
-          <mc:Fallback xmlns="">
+          <mc:Fallback>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="0" name=""/>
@@ -3266,7 +3268,7 @@
               <xdr:spPr>
                 <a:xfrm>
                   <a:off x="11590726" y="190500"/>
-                  <a:ext cx="1990555" cy="1168437"/>
+                  <a:ext cx="1990555" cy="1012960"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -3295,12 +3297,14 @@
           </mc:Fallback>
         </mc:AlternateContent>
       </xdr:grpSp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-        <mc:Choice Requires="sle15">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="8" name="Completion"/>
-              <xdr:cNvGraphicFramePr/>
+              <xdr:cNvGraphicFramePr>
+                <a:graphicFrameLocks noChangeAspect="1"/>
+              </xdr:cNvGraphicFramePr>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
               <a:off x="10086057" y="1869632"/>
@@ -3313,7 +3317,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback xmlns="">
+        <mc:Fallback>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -3323,8 +3327,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="11581197" y="1390104"/>
-                <a:ext cx="1991931" cy="1162596"/>
+                <a:off x="11581197" y="1230479"/>
+                <a:ext cx="1991931" cy="1007896"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3359,14 +3363,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>506787</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3377,22 +3381,22 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11639549" y="2628898"/>
-          <a:ext cx="4135813" cy="16630652"/>
+          <a:off x="11639549" y="2324099"/>
+          <a:ext cx="4135813" cy="15449552"/>
           <a:chOff x="11639549" y="2628898"/>
-          <a:chExt cx="4135813" cy="16630652"/>
+          <a:chExt cx="4135813" cy="15935327"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="" fLocksText="0">
         <xdr:nvSpPr>
           <xdr:cNvPr id="10" name="TextBox 9" title="Review Overview"/>
           <xdr:cNvSpPr txBox="1">
-            <a:spLocks/>
+            <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11659580" y="10772774"/>
+            <a:off x="11659580" y="10077449"/>
             <a:ext cx="4095750" cy="8486776"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3458,12 +3462,14 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="5" name="TextBox 4"/>
-          <xdr:cNvSpPr txBox="1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="11639549" y="2628898"/>
-            <a:ext cx="4135812" cy="3343276"/>
+            <a:ext cx="4135812" cy="2552702"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3492,7 +3498,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
             <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -3607,12 +3613,14 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="6" name="TextBox 5"/>
-          <xdr:cNvSpPr txBox="1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11639549" y="6057900"/>
-            <a:ext cx="4135812" cy="952500"/>
+            <a:off x="11639549" y="5314950"/>
+            <a:ext cx="4135812" cy="866775"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3641,7 +3649,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
             <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -3689,11 +3697,13 @@
           <xdr:cNvPr id="11" name="TextBox 10">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="Errors &amp; Descriptions"/>
           </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11639549" y="9553575"/>
+            <a:off x="11639549" y="8829675"/>
             <a:ext cx="4135812" cy="1143000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3723,7 +3733,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
             <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -3829,7 +3839,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11639549" y="7077074"/>
+            <a:off x="11639549" y="6315074"/>
             <a:ext cx="4135813" cy="2419351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3859,7 +3869,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
             <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -4364,7 +4374,7 @@
   <dimension ref="B1:L155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+      <selection activeCell="F2" sqref="F2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4423,9 +4433,9 @@
       <c r="C4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="25"/>
@@ -6652,10 +6662,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="81"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -6786,8 +6796,8 @@
   </sheetPr>
   <dimension ref="B2:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6813,119 +6823,119 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
     </row>
     <row r="3" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
     </row>
     <row r="4" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
     </row>
     <row r="5" spans="2:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84" t="s">
+      <c r="G5" s="85"/>
+      <c r="H5" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84" t="s">
+      <c r="I5" s="85"/>
+      <c r="J5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84" t="s">
+      <c r="K5" s="85"/>
+      <c r="L5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84" t="s">
+      <c r="M5" s="85"/>
+      <c r="N5" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="87" t="s">
+      <c r="O5" s="85"/>
+      <c r="P5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="84" t="s">
+      <c r="Q5" s="89"/>
+      <c r="R5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="84"/>
+      <c r="S5" s="85"/>
     </row>
     <row r="6" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
     </row>
     <row r="7" spans="2:19" ht="298.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="64" t="s">
@@ -7362,11 +7372,11 @@
       <c r="C3" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
       <c r="I3" s="46" t="s">
         <v>93</v>
       </c>
